--- a/data/Renal_Modelling_Input_File - Fictional Region.xlsx
+++ b/data/Renal_Modelling_Input_File - Fictional Region.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucy.Morgan\Desktop\Renal Modelling\simPy model\renal-capacity-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6E79CD-8019-444F-A4E2-F93723EEF526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD0B864-7223-4EAE-A3EA-376F15B5AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="823" activeTab="6" xr2:uid="{F2F90EEA-FE26-47F0-942A-1DBACAA9371D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="823" activeTab="6" xr2:uid="{F2F90EEA-FE26-47F0-942A-1DBACAA9371D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10979" r:id="rId1"/>
@@ -46,8 +46,8 @@
     <definedName name="IncHHD">'Scenario Inputs'!$G$48</definedName>
     <definedName name="IncLP">'Scenario Inputs'!$G$64</definedName>
     <definedName name="IncPD">'Scenario Inputs'!$G$49</definedName>
-    <definedName name="IncPEcad">'Scenario Inputs'!$G$74</definedName>
-    <definedName name="IncPElive">'Scenario Inputs'!$G$73</definedName>
+    <definedName name="IncPEcad">'Scenario Inputs'!$G$73</definedName>
+    <definedName name="IncPElive">'Scenario Inputs'!$G$72</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -421,12 +421,6 @@
   </si>
   <si>
     <t>Pre-emptive cadaver</t>
-  </si>
-  <si>
-    <t>Change in probability of (early patient) pre-emptive live transplant</t>
-  </si>
-  <si>
-    <t>Change in probability of (early patient) pre-emptive cadaver transplant</t>
   </si>
   <si>
     <t>Arrival Process</t>
@@ -850,21 +844,26 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> A change in the proportion of incident patients (that do not have late referral status) that have a transplant before they start dialysis. </t>
+      <t xml:space="preserve"> A relative change in the proportion of incident patients (that do not have late referral status) that have a transplant before they start dialysis by x%. This is applied equally across age groups.</t>
     </r>
   </si>
   <si>
-    <t>Change in probability of receiving a transplant</t>
+    <t>Relative change in probability of receiving a transplant</t>
+  </si>
+  <si>
+    <t>Relative change in probability of (early patient) pre-emptive live transplant</t>
+  </si>
+  <si>
+    <t>Relative change in probability of (early patient) pre-emptive cadaver transplant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="29">
@@ -1062,7 +1061,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1126,24 +1125,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,7 +1330,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1513,18 +1494,72 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1569,105 +1604,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1679,46 +1636,28 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1751,36 +1690,72 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22509,8 +22484,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>208471</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>54473</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>65359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -22548,13 +22523,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>212281</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>137159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -22599,8 +22574,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>208471</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>21336</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>32222</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -22758,7 +22733,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>246166</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -22796,7 +22771,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>48342</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>102671</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -24991,16 +24966,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -25057,19 +25032,19 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1"/>
       <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -25077,7 +25052,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -25088,7 +25063,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -25099,7 +25074,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -25110,7 +25085,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -25122,7 +25097,7 @@
     <row r="7" spans="1:4">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -25134,7 +25109,7 @@
     <row r="8" spans="1:4">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -25146,7 +25121,7 @@
     <row r="9" spans="1:4">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -25158,7 +25133,7 @@
     <row r="10" spans="1:4">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -25170,7 +25145,7 @@
     <row r="11" spans="1:4">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -25182,7 +25157,7 @@
     <row r="12" spans="1:4">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -25194,7 +25169,7 @@
     <row r="13" spans="1:4">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -25206,7 +25181,7 @@
     <row r="14" spans="1:4">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -25221,14 +25196,14 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
@@ -25240,7 +25215,7 @@
     <row r="18" spans="1:4">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
@@ -25252,7 +25227,7 @@
     <row r="19" spans="1:4">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
@@ -25264,7 +25239,7 @@
     <row r="20" spans="1:4">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
@@ -25276,7 +25251,7 @@
     <row r="21" spans="1:4">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -25288,7 +25263,7 @@
     <row r="22" spans="1:4">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
@@ -25300,7 +25275,7 @@
     <row r="23" spans="1:4">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
@@ -25312,7 +25287,7 @@
     <row r="24" spans="1:4">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
@@ -25324,7 +25299,7 @@
     <row r="25" spans="1:4">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
@@ -25336,7 +25311,7 @@
     <row r="26" spans="1:4">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
@@ -25348,7 +25323,7 @@
     <row r="27" spans="1:4">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -25360,7 +25335,7 @@
     <row r="28" spans="1:4">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="4">
         <v>10</v>
@@ -25375,14 +25350,14 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -25394,7 +25369,7 @@
     <row r="32" spans="1:4">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -25406,7 +25381,7 @@
     <row r="33" spans="1:4">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -25418,7 +25393,7 @@
     <row r="34" spans="1:4">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -25430,7 +25405,7 @@
     <row r="35" spans="1:4">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -25442,7 +25417,7 @@
     <row r="36" spans="1:4">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -25454,7 +25429,7 @@
     <row r="37" spans="1:4">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -25466,7 +25441,7 @@
     <row r="38" spans="1:4">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -25478,7 +25453,7 @@
     <row r="39" spans="1:4">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -25490,7 +25465,7 @@
     <row r="40" spans="1:4">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -25502,7 +25477,7 @@
     <row r="41" spans="1:4">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -25514,7 +25489,7 @@
     <row r="42" spans="1:4">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -25529,14 +25504,14 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B44"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" s="4">
         <v>7</v>
@@ -25548,7 +25523,7 @@
     <row r="46" spans="1:4">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="4">
         <v>7</v>
@@ -25560,7 +25535,7 @@
     <row r="47" spans="1:4">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4">
         <v>7</v>
@@ -25572,7 +25547,7 @@
     <row r="48" spans="1:4">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -25584,7 +25559,7 @@
     <row r="49" spans="1:4">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C49" s="4">
         <v>7</v>
@@ -25596,7 +25571,7 @@
     <row r="50" spans="1:4">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C50" s="4">
         <v>7</v>
@@ -25608,7 +25583,7 @@
     <row r="51" spans="1:4">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C51" s="4">
         <v>7</v>
@@ -25620,7 +25595,7 @@
     <row r="52" spans="1:4">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C52" s="4">
         <v>7</v>
@@ -25632,7 +25607,7 @@
     <row r="53" spans="1:4">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C53" s="4">
         <v>7</v>
@@ -25644,7 +25619,7 @@
     <row r="54" spans="1:4">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C54" s="4">
         <v>7</v>
@@ -25656,7 +25631,7 @@
     <row r="55" spans="1:4">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" s="4">
         <v>7</v>
@@ -25668,7 +25643,7 @@
     <row r="56" spans="1:4">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C56" s="4">
         <v>7</v>
@@ -25683,14 +25658,14 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B58"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" s="4">
         <v>3</v>
@@ -25702,7 +25677,7 @@
     <row r="60" spans="1:4">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60" s="4">
         <v>3</v>
@@ -25714,7 +25689,7 @@
     <row r="61" spans="1:4">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C61" s="4">
         <v>3</v>
@@ -25726,7 +25701,7 @@
     <row r="62" spans="1:4">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C62" s="4">
         <v>3</v>
@@ -25738,7 +25713,7 @@
     <row r="63" spans="1:4">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C63" s="4">
         <v>3</v>
@@ -25750,7 +25725,7 @@
     <row r="64" spans="1:4">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
@@ -25762,7 +25737,7 @@
     <row r="65" spans="1:4">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C65" s="4">
         <v>3</v>
@@ -25774,7 +25749,7 @@
     <row r="66" spans="1:4">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C66" s="4">
         <v>3</v>
@@ -25786,7 +25761,7 @@
     <row r="67" spans="1:4">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C67" s="4">
         <v>3</v>
@@ -25798,7 +25773,7 @@
     <row r="68" spans="1:4">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
@@ -25810,7 +25785,7 @@
     <row r="69" spans="1:4">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
@@ -25822,7 +25797,7 @@
     <row r="70" spans="1:4">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
@@ -25837,14 +25812,14 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B72"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C73" s="4">
         <v>10</v>
@@ -25856,7 +25831,7 @@
     <row r="74" spans="1:4">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C74" s="4">
         <v>10</v>
@@ -25868,7 +25843,7 @@
     <row r="75" spans="1:4">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C75" s="4">
         <v>10</v>
@@ -25880,7 +25855,7 @@
     <row r="76" spans="1:4">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C76" s="4">
         <v>10</v>
@@ -25892,7 +25867,7 @@
     <row r="77" spans="1:4">
       <c r="A77"/>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C77" s="4">
         <v>10</v>
@@ -25904,7 +25879,7 @@
     <row r="78" spans="1:4">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C78" s="4">
         <v>10</v>
@@ -25916,7 +25891,7 @@
     <row r="79" spans="1:4">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C79" s="4">
         <v>10</v>
@@ -25928,7 +25903,7 @@
     <row r="80" spans="1:4">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C80" s="4">
         <v>10</v>
@@ -25940,7 +25915,7 @@
     <row r="81" spans="1:4">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C81" s="4">
         <v>10</v>
@@ -25952,7 +25927,7 @@
     <row r="82" spans="1:4">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C82" s="4">
         <v>10</v>
@@ -25964,7 +25939,7 @@
     <row r="83" spans="1:4">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C83" s="4">
         <v>10</v>
@@ -25976,7 +25951,7 @@
     <row r="84" spans="1:4">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C84" s="4">
         <v>10</v>
@@ -26227,55 +26202,55 @@
         <v>0.5</v>
       </c>
       <c r="N2">
-        <f>IF('Scenario Inputs'!F82&gt;0,'Scenario Inputs'!F82,0.5)</f>
+        <f>IF('Scenario Inputs'!F81&gt;0,'Scenario Inputs'!F81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="O2">
-        <f>IF('Scenario Inputs'!G82&gt;0,'Scenario Inputs'!G82,0.5)</f>
+        <f>IF('Scenario Inputs'!G81&gt;0,'Scenario Inputs'!G81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="P2">
-        <f>IF('Scenario Inputs'!H82&gt;0,'Scenario Inputs'!H82,0.5)</f>
+        <f>IF('Scenario Inputs'!H81&gt;0,'Scenario Inputs'!H81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="Q2">
-        <f>IF('Scenario Inputs'!I82&gt;0,'Scenario Inputs'!I82,0.5)</f>
+        <f>IF('Scenario Inputs'!I81&gt;0,'Scenario Inputs'!I81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="R2">
-        <f>IF('Scenario Inputs'!J82&gt;0,'Scenario Inputs'!J82,0.5)</f>
+        <f>IF('Scenario Inputs'!J81&gt;0,'Scenario Inputs'!J81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="S2">
-        <f>IF('Scenario Inputs'!K82&gt;0,'Scenario Inputs'!K82,0.5)</f>
+        <f>IF('Scenario Inputs'!K81&gt;0,'Scenario Inputs'!K81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="T2">
-        <f>IF('Scenario Inputs'!L82&gt;0,'Scenario Inputs'!L82,0.5)</f>
+        <f>IF('Scenario Inputs'!L81&gt;0,'Scenario Inputs'!L81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="U2">
-        <f>IF('Scenario Inputs'!M82&gt;0,'Scenario Inputs'!M82,0.5)</f>
+        <f>IF('Scenario Inputs'!M81&gt;0,'Scenario Inputs'!M81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="V2">
-        <f>IF('Scenario Inputs'!N82&gt;0,'Scenario Inputs'!N82,0.5)</f>
+        <f>IF('Scenario Inputs'!N81&gt;0,'Scenario Inputs'!N81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="W2">
-        <f>IF('Scenario Inputs'!O82&gt;0,'Scenario Inputs'!O82,0.5)</f>
+        <f>IF('Scenario Inputs'!O81&gt;0,'Scenario Inputs'!O81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="X2">
-        <f>IF('Scenario Inputs'!P82&gt;0,'Scenario Inputs'!P82,0.5)</f>
+        <f>IF('Scenario Inputs'!P81&gt;0,'Scenario Inputs'!P81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="Y2">
-        <f>IF('Scenario Inputs'!Q82&gt;0,'Scenario Inputs'!Q82,0.5)</f>
+        <f>IF('Scenario Inputs'!Q81&gt;0,'Scenario Inputs'!Q81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="Z2">
-        <f>IF('Scenario Inputs'!R82&gt;0,'Scenario Inputs'!R82,0.5)</f>
+        <f>IF('Scenario Inputs'!R81&gt;0,'Scenario Inputs'!R81,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="XFD2" t="e">
@@ -26395,8 +26370,8 @@
       <c r="B1" s="4">
         <v>0.7</v>
       </c>
-      <c r="C1" s="154" t="s">
-        <v>164</v>
+      <c r="C1" s="147" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -26406,7 +26381,7 @@
       <c r="B2" s="4">
         <v>0.6</v>
       </c>
-      <c r="C2" s="154"/>
+      <c r="C2" s="147"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4">
@@ -26415,7 +26390,7 @@
       <c r="B3" s="4">
         <v>0.5</v>
       </c>
-      <c r="C3" s="154"/>
+      <c r="C3" s="147"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
@@ -26424,7 +26399,7 @@
       <c r="B4" s="4">
         <v>0.4</v>
       </c>
-      <c r="C4" s="154"/>
+      <c r="C4" s="147"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
@@ -26433,7 +26408,7 @@
       <c r="B5" s="4">
         <v>0.2</v>
       </c>
-      <c r="C5" s="154"/>
+      <c r="C5" s="147"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
@@ -26442,7 +26417,7 @@
       <c r="B6" s="4">
         <v>0.05</v>
       </c>
-      <c r="C6" s="154"/>
+      <c r="C6" s="147"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4">
@@ -26451,8 +26426,8 @@
       <c r="B9" s="4">
         <v>0.7</v>
       </c>
-      <c r="C9" s="154" t="s">
-        <v>163</v>
+      <c r="C9" s="147" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -26462,7 +26437,7 @@
       <c r="B10" s="4">
         <v>0.6</v>
       </c>
-      <c r="C10" s="154"/>
+      <c r="C10" s="147"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4">
@@ -26471,7 +26446,7 @@
       <c r="B11" s="4">
         <v>0.5</v>
       </c>
-      <c r="C11" s="154"/>
+      <c r="C11" s="147"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
@@ -26480,7 +26455,7 @@
       <c r="B12" s="4">
         <v>0.4</v>
       </c>
-      <c r="C12" s="154"/>
+      <c r="C12" s="147"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">
@@ -26489,7 +26464,7 @@
       <c r="B13" s="4">
         <v>0.2</v>
       </c>
-      <c r="C13" s="154"/>
+      <c r="C13" s="147"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">
@@ -26498,7 +26473,7 @@
       <c r="B14" s="4">
         <v>0.05</v>
       </c>
-      <c r="C14" s="154"/>
+      <c r="C14" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -26830,7 +26805,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -26847,7 +26822,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
@@ -26864,7 +26839,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -26881,7 +26856,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
@@ -26898,7 +26873,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -26915,7 +26890,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="4">
         <v>6</v>
@@ -26932,7 +26907,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -26949,7 +26924,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -26966,7 +26941,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -26983,7 +26958,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -27000,7 +26975,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
@@ -27017,7 +26992,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
@@ -27034,7 +27009,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
@@ -27051,7 +27026,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -27068,7 +27043,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
@@ -27085,7 +27060,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="4">
         <v>3</v>
@@ -27102,7 +27077,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -27119,7 +27094,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -27136,7 +27111,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
@@ -27153,7 +27128,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
@@ -27170,7 +27145,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -27187,7 +27162,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="4">
         <v>4</v>
@@ -27204,7 +27179,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="4">
         <v>5</v>
@@ -27221,7 +27196,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" s="4">
         <v>5</v>
@@ -27568,8 +27543,8 @@
   </sheetPr>
   <dimension ref="A2:AR251"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27595,12 +27570,12 @@
         <v>85</v>
       </c>
       <c r="P2" s="98" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="P3" s="86" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15">
@@ -27702,7 +27677,7 @@
         <v>0.5</v>
       </c>
       <c r="O5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -27759,7 +27734,7 @@
         <v>0.5</v>
       </c>
       <c r="O6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15">
@@ -27937,21 +27912,21 @@
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:16" ht="16.8" hidden="1" customHeight="1">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="146"/>
     </row>
     <row r="15" spans="1:16" hidden="1">
       <c r="B15">
@@ -28113,21 +28088,21 @@
     </row>
     <row r="19" spans="1:15" ht="15">
       <c r="A19" s="25"/>
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="146"/>
     </row>
     <row r="20" spans="1:15">
       <c r="B20">
@@ -28607,60 +28582,60 @@
       <c r="A33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="107">
+      <c r="B33" s="105">
         <f>IncPElive</f>
         <v>0.3</v>
       </c>
-      <c r="C33" s="107">
-        <f>IF('Scenario Inputs'!I73="",IncPElive,'Scenario Inputs'!I73)</f>
+      <c r="C33" s="105">
+        <f>IF('Scenario Inputs'!I72="",IncPElive,'Scenario Inputs'!I72)</f>
         <v>0.3</v>
       </c>
-      <c r="D33" s="107">
-        <f>IF('Scenario Inputs'!J73="",IncPElive,'Scenario Inputs'!J73)</f>
+      <c r="D33" s="105">
+        <f>IF('Scenario Inputs'!J72="",IncPElive,'Scenario Inputs'!J72)</f>
         <v>0.3</v>
       </c>
-      <c r="E33" s="107">
-        <f>IF('Scenario Inputs'!K73="",IncPElive,'Scenario Inputs'!K73)</f>
+      <c r="E33" s="105">
+        <f>IF('Scenario Inputs'!K72="",IncPElive,'Scenario Inputs'!K72)</f>
         <v>0.3</v>
       </c>
-      <c r="F33" s="107">
-        <f>IF('Scenario Inputs'!L73="",IncPElive,'Scenario Inputs'!L73)</f>
+      <c r="F33" s="105">
+        <f>IF('Scenario Inputs'!L72="",IncPElive,'Scenario Inputs'!L72)</f>
         <v>0.3</v>
       </c>
-      <c r="G33" s="107">
-        <f>IF('Scenario Inputs'!M73="",IncPElive,'Scenario Inputs'!M73)</f>
+      <c r="G33" s="105">
+        <f>IF('Scenario Inputs'!M72="",IncPElive,'Scenario Inputs'!M72)</f>
         <v>0.3</v>
       </c>
-      <c r="H33" s="107">
-        <f>IF('Scenario Inputs'!N73="",IncPElive,'Scenario Inputs'!N73)</f>
+      <c r="H33" s="105">
+        <f>IF('Scenario Inputs'!N72="",IncPElive,'Scenario Inputs'!N72)</f>
         <v>0.3</v>
       </c>
-      <c r="I33" s="107">
-        <f>IF('Scenario Inputs'!O73="",IncPElive,'Scenario Inputs'!O73)</f>
+      <c r="I33" s="105">
+        <f>IF('Scenario Inputs'!O72="",IncPElive,'Scenario Inputs'!O72)</f>
         <v>0.3</v>
       </c>
-      <c r="J33" s="107">
-        <f>IF('Scenario Inputs'!P73="",IncPElive,'Scenario Inputs'!P73)</f>
+      <c r="J33" s="105">
+        <f>IF('Scenario Inputs'!P72="",IncPElive,'Scenario Inputs'!P72)</f>
         <v>0.3</v>
       </c>
-      <c r="K33" s="107">
-        <f>IF('Scenario Inputs'!Q73="",IncPElive,'Scenario Inputs'!Q73)</f>
+      <c r="K33" s="105">
+        <f>IF('Scenario Inputs'!Q72="",IncPElive,'Scenario Inputs'!Q72)</f>
         <v>0.3</v>
       </c>
-      <c r="L33" s="107">
-        <f>IF('Scenario Inputs'!R73="",IncPElive,'Scenario Inputs'!R73)</f>
+      <c r="L33" s="105">
+        <f>IF('Scenario Inputs'!R72="",IncPElive,'Scenario Inputs'!R72)</f>
         <v>0.3</v>
       </c>
-      <c r="M33" s="107">
-        <f>IF('Scenario Inputs'!S73="",IncPElive,'Scenario Inputs'!S73)</f>
+      <c r="M33" s="105">
+        <f>IF('Scenario Inputs'!S72="",IncPElive,'Scenario Inputs'!S72)</f>
         <v>0.3</v>
       </c>
-      <c r="N33" s="107">
-        <f>IF('Scenario Inputs'!T73="",IncPElive,'Scenario Inputs'!T73)</f>
+      <c r="N33" s="105">
+        <f>IF('Scenario Inputs'!T72="",IncPElive,'Scenario Inputs'!T72)</f>
         <v>0.3</v>
       </c>
-      <c r="O33" s="107">
-        <f>IF('Scenario Inputs'!U73="",IncPElive,'Scenario Inputs'!U73)</f>
+      <c r="O33" s="105">
+        <f>IF('Scenario Inputs'!U72="",IncPElive,'Scenario Inputs'!U72)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -28668,60 +28643,60 @@
       <c r="A34" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="107">
+      <c r="B34" s="105">
         <f>IncPEcad</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="C34" s="107">
-        <f>IF('Scenario Inputs'!I74="",IncPEcad,'Scenario Inputs'!I74)</f>
+      <c r="C34" s="105">
+        <f>IF('Scenario Inputs'!I73="",IncPEcad,'Scenario Inputs'!I73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="D34" s="107">
-        <f>IF('Scenario Inputs'!J74="",IncPEcad,'Scenario Inputs'!J74)</f>
+      <c r="D34" s="105">
+        <f>IF('Scenario Inputs'!J73="",IncPEcad,'Scenario Inputs'!J73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="E34" s="107">
-        <f>IF('Scenario Inputs'!K74="",IncPEcad,'Scenario Inputs'!K74)</f>
+      <c r="E34" s="105">
+        <f>IF('Scenario Inputs'!K73="",IncPEcad,'Scenario Inputs'!K73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="F34" s="107">
-        <f>IF('Scenario Inputs'!L74="",IncPEcad,'Scenario Inputs'!L74)</f>
+      <c r="F34" s="105">
+        <f>IF('Scenario Inputs'!L73="",IncPEcad,'Scenario Inputs'!L73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="G34" s="107">
-        <f>IF('Scenario Inputs'!M74="",IncPEcad,'Scenario Inputs'!M74)</f>
+      <c r="G34" s="105">
+        <f>IF('Scenario Inputs'!M73="",IncPEcad,'Scenario Inputs'!M73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="H34" s="107">
-        <f>IF('Scenario Inputs'!N74="",IncPEcad,'Scenario Inputs'!N74)</f>
+      <c r="H34" s="105">
+        <f>IF('Scenario Inputs'!N73="",IncPEcad,'Scenario Inputs'!N73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="I34" s="107">
-        <f>IF('Scenario Inputs'!O74="",IncPEcad,'Scenario Inputs'!O74)</f>
+      <c r="I34" s="105">
+        <f>IF('Scenario Inputs'!O73="",IncPEcad,'Scenario Inputs'!O73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="J34" s="107">
-        <f>IF('Scenario Inputs'!P74="",IncPEcad,'Scenario Inputs'!P74)</f>
+      <c r="J34" s="105">
+        <f>IF('Scenario Inputs'!P73="",IncPEcad,'Scenario Inputs'!P73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="K34" s="107">
-        <f>IF('Scenario Inputs'!Q74="",IncPEcad,'Scenario Inputs'!Q74)</f>
+      <c r="K34" s="105">
+        <f>IF('Scenario Inputs'!Q73="",IncPEcad,'Scenario Inputs'!Q73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="L34" s="107">
-        <f>IF('Scenario Inputs'!R74="",IncPEcad,'Scenario Inputs'!R74)</f>
+      <c r="L34" s="105">
+        <f>IF('Scenario Inputs'!R73="",IncPEcad,'Scenario Inputs'!R73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="M34" s="107">
-        <f>IF('Scenario Inputs'!S74="",IncPEcad,'Scenario Inputs'!S74)</f>
+      <c r="M34" s="105">
+        <f>IF('Scenario Inputs'!S73="",IncPEcad,'Scenario Inputs'!S73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="N34" s="107">
-        <f>IF('Scenario Inputs'!T74="",IncPEcad,'Scenario Inputs'!T74)</f>
+      <c r="N34" s="105">
+        <f>IF('Scenario Inputs'!T73="",IncPEcad,'Scenario Inputs'!T73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="O34" s="107">
-        <f>IF('Scenario Inputs'!U74="",IncPEcad,'Scenario Inputs'!U74)</f>
+      <c r="O34" s="105">
+        <f>IF('Scenario Inputs'!U73="",IncPEcad,'Scenario Inputs'!U73)</f>
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
@@ -28732,7 +28707,7 @@
     </row>
     <row r="38" spans="1:28" ht="19.2">
       <c r="A38" s="47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B38" s="101">
         <f>'Cost Inputs'!K18/365</f>
@@ -28742,7 +28717,7 @@
     </row>
     <row r="39" spans="1:28" ht="19.2">
       <c r="A39" s="48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B39" s="101">
         <f>'Cost Inputs'!K19/365</f>
@@ -28752,7 +28727,7 @@
     </row>
     <row r="40" spans="1:28" ht="19.2">
       <c r="A40" s="48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B40" s="101">
         <f>'Cost Inputs'!K20/365</f>
@@ -28762,7 +28737,7 @@
     </row>
     <row r="41" spans="1:28" ht="19.2">
       <c r="A41" s="48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B41" s="101">
         <f>'Cost Inputs'!K21/365</f>
@@ -28777,7 +28752,7 @@
     </row>
     <row r="43" spans="1:28" ht="19.2" hidden="1">
       <c r="A43" s="68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B43" s="70"/>
       <c r="C43">
@@ -28966,36 +28941,36 @@
       </c>
     </row>
     <row r="45" spans="1:28" hidden="1">
-      <c r="C45" s="155" t="s">
+      <c r="C45" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="155"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="155"/>
-      <c r="G45" s="155"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="155"/>
-      <c r="L45" s="155"/>
-      <c r="M45" s="155"/>
-      <c r="N45" s="155"/>
-      <c r="O45" s="155"/>
-      <c r="P45" s="155" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q45" s="155"/>
-      <c r="R45" s="155"/>
-      <c r="S45" s="155"/>
-      <c r="T45" s="155"/>
-      <c r="U45" s="155"/>
-      <c r="V45" s="155"/>
-      <c r="W45" s="155"/>
-      <c r="X45" s="155"/>
-      <c r="Y45" s="155"/>
-      <c r="Z45" s="155"/>
-      <c r="AA45" s="155"/>
-      <c r="AB45" s="155"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="146"/>
+      <c r="N45" s="146"/>
+      <c r="O45" s="146"/>
+      <c r="P45" s="146" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q45" s="146"/>
+      <c r="R45" s="146"/>
+      <c r="S45" s="146"/>
+      <c r="T45" s="146"/>
+      <c r="U45" s="146"/>
+      <c r="V45" s="146"/>
+      <c r="W45" s="146"/>
+      <c r="X45" s="146"/>
+      <c r="Y45" s="146"/>
+      <c r="Z45" s="146"/>
+      <c r="AA45" s="146"/>
+      <c r="AB45" s="146"/>
     </row>
     <row r="46" spans="1:28" ht="19.2">
       <c r="A46" s="68" t="s">
@@ -29010,19 +28985,19 @@
         <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -29040,21 +29015,69 @@
       <c r="E49" s="4">
         <v>1</v>
       </c>
-      <c r="F49" s="2">
-        <f>MIN(1,I49+0*I49)</f>
-        <v>0.9</v>
-      </c>
-      <c r="G49" s="2">
-        <f>J49+0*J49</f>
-        <v>0.6</v>
-      </c>
-      <c r="I49">
+      <c r="F49">
         <f>receivesTx!B1</f>
         <v>0.9</v>
       </c>
-      <c r="J49">
+      <c r="G49" s="2">
         <f>receivesTx!B9</f>
         <v>0.6</v>
+      </c>
+      <c r="I49" s="2">
+        <f>F49</f>
+        <v>0.9</v>
+      </c>
+      <c r="J49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!I$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="K49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!J$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="L49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!K$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="M49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!L$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="N49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!M$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="O49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!N$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="P49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!O$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!P$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="R49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!Q$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="S49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!R$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="T49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!S$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="U49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!T$71)</f>
+        <v>0.9</v>
+      </c>
+      <c r="V49" s="2">
+        <f>MIN(1,$I$49+$I$49*'Scenario Inputs'!U$71)</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -29072,21 +29095,69 @@
       <c r="E50" s="4">
         <v>2</v>
       </c>
-      <c r="F50" s="2">
-        <f t="shared" ref="F50:F54" si="1">MIN(1,I50+0*I50)</f>
-        <v>0.8</v>
-      </c>
-      <c r="G50" s="2">
-        <f t="shared" ref="G50:G54" si="2">J50+0*J50</f>
-        <v>0.3</v>
-      </c>
-      <c r="I50">
+      <c r="F50">
         <f>receivesTx!B2</f>
         <v>0.8</v>
       </c>
-      <c r="J50">
+      <c r="G50" s="2">
         <f>receivesTx!B10</f>
         <v>0.3</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" ref="I50:I54" si="1">F50</f>
+        <v>0.8</v>
+      </c>
+      <c r="J50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!I71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!J71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="L50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!K71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!L71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="N50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!M71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="O50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!N71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!O71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!P71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="R50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!Q71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="S50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!R71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="T50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!S71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="U50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!T71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="V50" s="2">
+        <f>MIN(1,$I$50+$I$50*'Scenario Inputs'!U71)</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -29104,21 +29175,69 @@
       <c r="E51" s="4">
         <v>3</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
+        <f>receivesTx!B3</f>
+        <v>0.6</v>
+      </c>
+      <c r="G51" s="2">
+        <f>receivesTx!B11</f>
+        <v>0.3</v>
+      </c>
+      <c r="I51" s="2">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G51" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="I51">
-        <f>receivesTx!B3</f>
+      <c r="J51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!I71)</f>
         <v>0.6</v>
       </c>
-      <c r="J51">
-        <f>receivesTx!B11</f>
-        <v>0.3</v>
+      <c r="K51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!J71)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!K71)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!L71)</f>
+        <v>0.6</v>
+      </c>
+      <c r="N51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!M71)</f>
+        <v>0.6</v>
+      </c>
+      <c r="O51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!N71)</f>
+        <v>0.6</v>
+      </c>
+      <c r="P51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!O71)</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!P71)</f>
+        <v>0.6</v>
+      </c>
+      <c r="R51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!Q71)</f>
+        <v>0.6</v>
+      </c>
+      <c r="S51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!R71)</f>
+        <v>0.6</v>
+      </c>
+      <c r="T51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!S71)</f>
+        <v>0.6</v>
+      </c>
+      <c r="U51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!T71)</f>
+        <v>0.6</v>
+      </c>
+      <c r="V51" s="2">
+        <f>MIN(1,$I$51+$I$51*'Scenario Inputs'!U71)</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -29136,21 +29255,69 @@
       <c r="E52" s="4">
         <v>4</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52">
+        <f>receivesTx!B4</f>
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="2">
+        <f>receivesTx!B12</f>
+        <v>0.3</v>
+      </c>
+      <c r="I52" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G52" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="I52">
-        <f>receivesTx!B4</f>
+      <c r="J52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!I71)</f>
         <v>0.5</v>
       </c>
-      <c r="J52">
-        <f>receivesTx!B12</f>
-        <v>0.3</v>
+      <c r="K52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!J71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!K71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!L71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!M71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!N71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!O71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!P71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!Q71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="S52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!R71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!S71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!T71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="V52" s="2">
+        <f>MIN(1,$I$52+$I$52*'Scenario Inputs'!U71)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -29168,21 +29335,69 @@
       <c r="E53" s="4">
         <v>5</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
+        <f>receivesTx!B5</f>
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="2">
+        <f>receivesTx!B13</f>
+        <v>0.15</v>
+      </c>
+      <c r="I53" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G53" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="I53">
-        <f>receivesTx!B5</f>
+      <c r="J53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!I71)</f>
         <v>0.5</v>
       </c>
-      <c r="J53">
-        <f>receivesTx!B13</f>
-        <v>0.15</v>
+      <c r="K53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!J71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!K71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!L71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!M71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!N71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!O71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!P71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!Q71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="S53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!R71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!S71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!T71)</f>
+        <v>0.5</v>
+      </c>
+      <c r="V53" s="2">
+        <f>MIN(1,$I$53+$I$53*'Scenario Inputs'!U71)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -29200,20 +29415,68 @@
       <c r="E54" s="4">
         <v>6</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54">
+        <f>receivesTx!B6</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <f>receivesTx!B14</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G54" s="2">
-        <f t="shared" si="2"/>
+      <c r="J54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!I71)</f>
         <v>0</v>
       </c>
-      <c r="I54">
-        <f>receivesTx!B6</f>
+      <c r="K54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!J71)</f>
         <v>0</v>
       </c>
-      <c r="J54">
-        <f>receivesTx!B14</f>
+      <c r="L54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!K71)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!L71)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!M71)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!N71)</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!O71)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!P71)</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!Q71)</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!R71)</f>
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!S71)</f>
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!T71)</f>
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
+        <f>MIN(1,$I$54+$I$54*'Scenario Inputs'!U71)</f>
         <v>0</v>
       </c>
     </row>
@@ -29261,7 +29524,7 @@
         <v>13</v>
       </c>
       <c r="Q56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -29311,56 +29574,56 @@
         <v>65</v>
       </c>
       <c r="C57" s="97">
-        <f>C$34</f>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!I73)</f>
+        <v>0.1</v>
       </c>
       <c r="D57" s="97">
-        <f>D$34</f>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!J73)</f>
+        <v>0.1</v>
       </c>
       <c r="E57" s="97">
-        <f t="shared" ref="D57:O62" si="3">E$34</f>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!K73)</f>
+        <v>0.1</v>
       </c>
       <c r="F57" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!L73)</f>
+        <v>0.1</v>
       </c>
       <c r="G57" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!M73)</f>
+        <v>0.1</v>
       </c>
       <c r="H57" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!N73)</f>
+        <v>0.1</v>
       </c>
       <c r="I57" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!O73)</f>
+        <v>0.1</v>
       </c>
       <c r="J57" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!P73)</f>
+        <v>0.1</v>
       </c>
       <c r="K57" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!Q73)</f>
+        <v>0.1</v>
       </c>
       <c r="L57" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!R73)</f>
+        <v>0.1</v>
       </c>
       <c r="M57" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!S73)</f>
+        <v>0.1</v>
       </c>
       <c r="N57" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!T73)</f>
+        <v>0.1</v>
       </c>
       <c r="O57" s="97">
-        <f>O$34</f>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C1+preE_Tx_Cadav!$C1*'Scenario Inputs'!U73)</f>
+        <v>0.1</v>
       </c>
       <c r="Q57" s="4" t="s">
         <v>71</v>
@@ -29369,55 +29632,55 @@
         <v>65</v>
       </c>
       <c r="S57" s="97">
-        <f>C$33</f>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!I72)</f>
         <v>0.3</v>
       </c>
       <c r="T57" s="97">
-        <f t="shared" ref="T57:AE57" si="4">D$33</f>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!J72)</f>
         <v>0.3</v>
       </c>
       <c r="U57" s="97">
-        <f t="shared" si="4"/>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!K72)</f>
         <v>0.3</v>
       </c>
       <c r="V57" s="97">
-        <f t="shared" si="4"/>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!L72)</f>
         <v>0.3</v>
       </c>
       <c r="W57" s="97">
-        <f t="shared" si="4"/>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!M72)</f>
         <v>0.3</v>
       </c>
       <c r="X57" s="97">
-        <f t="shared" si="4"/>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!N72)</f>
         <v>0.3</v>
       </c>
       <c r="Y57" s="97">
-        <f t="shared" si="4"/>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!O72)</f>
         <v>0.3</v>
       </c>
       <c r="Z57" s="97">
-        <f t="shared" si="4"/>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!P72)</f>
         <v>0.3</v>
       </c>
       <c r="AA57" s="97">
-        <f t="shared" si="4"/>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!Q72)</f>
         <v>0.3</v>
       </c>
       <c r="AB57" s="97">
-        <f t="shared" si="4"/>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!R72)</f>
         <v>0.3</v>
       </c>
       <c r="AC57" s="97">
-        <f t="shared" si="4"/>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!S72)</f>
         <v>0.3</v>
       </c>
       <c r="AD57" s="97">
-        <f t="shared" si="4"/>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!T72)</f>
         <v>0.3</v>
       </c>
       <c r="AE57" s="97">
-        <f t="shared" si="4"/>
+        <f>MIN(1,preE_Tx_Live!$C1+preE_Tx_Live!$C1*'Scenario Inputs'!U72)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -29429,56 +29692,56 @@
         <v>67</v>
       </c>
       <c r="C58" s="97">
-        <f t="shared" ref="C58:C62" si="5">C$34</f>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!I73)</f>
+        <v>0.1</v>
       </c>
       <c r="D58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!J73)</f>
+        <v>0.1</v>
       </c>
       <c r="E58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!K73)</f>
+        <v>0.1</v>
       </c>
       <c r="F58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!L73)</f>
+        <v>0.1</v>
       </c>
       <c r="G58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!M73)</f>
+        <v>0.1</v>
       </c>
       <c r="H58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!N73)</f>
+        <v>0.1</v>
       </c>
       <c r="I58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!O73)</f>
+        <v>0.1</v>
       </c>
       <c r="J58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!P73)</f>
+        <v>0.1</v>
       </c>
       <c r="K58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!Q73)</f>
+        <v>0.1</v>
       </c>
       <c r="L58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!R73)</f>
+        <v>0.1</v>
       </c>
       <c r="M58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!S73)</f>
+        <v>0.1</v>
       </c>
       <c r="N58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!T73)</f>
+        <v>0.1</v>
       </c>
       <c r="O58" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C2+preE_Tx_Cadav!$C2*'Scenario Inputs'!U73)</f>
+        <v>0.1</v>
       </c>
       <c r="Q58" s="4" t="s">
         <v>71</v>
@@ -29487,55 +29750,55 @@
         <v>67</v>
       </c>
       <c r="S58" s="97">
-        <f t="shared" ref="S58:S62" si="6">C$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!I72)</f>
         <v>0.3</v>
       </c>
       <c r="T58" s="97">
-        <f t="shared" ref="T58:T62" si="7">D$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!J72)</f>
         <v>0.3</v>
       </c>
       <c r="U58" s="97">
-        <f t="shared" ref="U58:U62" si="8">E$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!K72)</f>
         <v>0.3</v>
       </c>
       <c r="V58" s="97">
-        <f t="shared" ref="V58:V62" si="9">F$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!L72)</f>
         <v>0.3</v>
       </c>
       <c r="W58" s="97">
-        <f t="shared" ref="W58:W62" si="10">G$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!M72)</f>
         <v>0.3</v>
       </c>
       <c r="X58" s="97">
-        <f t="shared" ref="X58:X62" si="11">H$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!N72)</f>
         <v>0.3</v>
       </c>
       <c r="Y58" s="97">
-        <f t="shared" ref="Y58:Y62" si="12">I$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!O72)</f>
         <v>0.3</v>
       </c>
       <c r="Z58" s="97">
-        <f t="shared" ref="Z58:Z62" si="13">J$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!P72)</f>
         <v>0.3</v>
       </c>
       <c r="AA58" s="97">
-        <f t="shared" ref="AA58:AA62" si="14">K$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!Q72)</f>
         <v>0.3</v>
       </c>
       <c r="AB58" s="97">
-        <f t="shared" ref="AB58:AB62" si="15">L$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!R72)</f>
         <v>0.3</v>
       </c>
       <c r="AC58" s="97">
-        <f t="shared" ref="AC58:AC62" si="16">M$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!S72)</f>
         <v>0.3</v>
       </c>
       <c r="AD58" s="97">
-        <f t="shared" ref="AD58:AD62" si="17">N$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!T72)</f>
         <v>0.3</v>
       </c>
       <c r="AE58" s="97">
-        <f t="shared" ref="AE58:AE62" si="18">O$33</f>
+        <f>MIN(1,preE_Tx_Live!$C2+preE_Tx_Live!$C2*'Scenario Inputs'!U72)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -29547,56 +29810,56 @@
         <v>68</v>
       </c>
       <c r="C59" s="97">
-        <f t="shared" si="5"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!I73)</f>
+        <v>0.1</v>
       </c>
       <c r="D59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!J73)</f>
+        <v>0.1</v>
       </c>
       <c r="E59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!K73)</f>
+        <v>0.1</v>
       </c>
       <c r="F59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!L73)</f>
+        <v>0.1</v>
       </c>
       <c r="G59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!M73)</f>
+        <v>0.1</v>
       </c>
       <c r="H59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!N73)</f>
+        <v>0.1</v>
       </c>
       <c r="I59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!O73)</f>
+        <v>0.1</v>
       </c>
       <c r="J59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!P73)</f>
+        <v>0.1</v>
       </c>
       <c r="K59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!Q73)</f>
+        <v>0.1</v>
       </c>
       <c r="L59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!R73)</f>
+        <v>0.1</v>
       </c>
       <c r="M59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!S73)</f>
+        <v>0.1</v>
       </c>
       <c r="N59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!T73)</f>
+        <v>0.1</v>
       </c>
       <c r="O59" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C3+preE_Tx_Cadav!$C3*'Scenario Inputs'!U73)</f>
+        <v>0.1</v>
       </c>
       <c r="Q59" s="4" t="s">
         <v>71</v>
@@ -29605,55 +29868,55 @@
         <v>68</v>
       </c>
       <c r="S59" s="97">
-        <f t="shared" si="6"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!I72)</f>
         <v>0.3</v>
       </c>
       <c r="T59" s="97">
-        <f t="shared" si="7"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!J72)</f>
         <v>0.3</v>
       </c>
       <c r="U59" s="97">
-        <f t="shared" si="8"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!K72)</f>
         <v>0.3</v>
       </c>
       <c r="V59" s="97">
-        <f t="shared" si="9"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!L72)</f>
         <v>0.3</v>
       </c>
       <c r="W59" s="97">
-        <f t="shared" si="10"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!M72)</f>
         <v>0.3</v>
       </c>
       <c r="X59" s="97">
-        <f t="shared" si="11"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!N72)</f>
         <v>0.3</v>
       </c>
       <c r="Y59" s="97">
-        <f t="shared" si="12"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!O72)</f>
         <v>0.3</v>
       </c>
       <c r="Z59" s="97">
-        <f t="shared" si="13"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!P72)</f>
         <v>0.3</v>
       </c>
       <c r="AA59" s="97">
-        <f t="shared" si="14"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!Q72)</f>
         <v>0.3</v>
       </c>
       <c r="AB59" s="97">
-        <f t="shared" si="15"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!R72)</f>
         <v>0.3</v>
       </c>
       <c r="AC59" s="97">
-        <f t="shared" si="16"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!S72)</f>
         <v>0.3</v>
       </c>
       <c r="AD59" s="97">
-        <f t="shared" si="17"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!T72)</f>
         <v>0.3</v>
       </c>
       <c r="AE59" s="97">
-        <f t="shared" si="18"/>
+        <f>MIN(1,preE_Tx_Live!$C3+preE_Tx_Live!$C3*'Scenario Inputs'!U72)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -29665,56 +29928,56 @@
         <v>69</v>
       </c>
       <c r="C60" s="97">
-        <f t="shared" si="5"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!I73)</f>
+        <v>0.1</v>
       </c>
       <c r="D60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!J73)</f>
+        <v>0.1</v>
       </c>
       <c r="E60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!K73)</f>
+        <v>0.1</v>
       </c>
       <c r="F60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!L73)</f>
+        <v>0.1</v>
       </c>
       <c r="G60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!M73)</f>
+        <v>0.1</v>
       </c>
       <c r="H60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!N73)</f>
+        <v>0.1</v>
       </c>
       <c r="I60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!O73)</f>
+        <v>0.1</v>
       </c>
       <c r="J60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!P73)</f>
+        <v>0.1</v>
       </c>
       <c r="K60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!Q73)</f>
+        <v>0.1</v>
       </c>
       <c r="L60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!R73)</f>
+        <v>0.1</v>
       </c>
       <c r="M60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!S73)</f>
+        <v>0.1</v>
       </c>
       <c r="N60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!T73)</f>
+        <v>0.1</v>
       </c>
       <c r="O60" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C4+preE_Tx_Cadav!$C4*'Scenario Inputs'!U73)</f>
+        <v>0.1</v>
       </c>
       <c r="Q60" s="4" t="s">
         <v>71</v>
@@ -29723,55 +29986,55 @@
         <v>69</v>
       </c>
       <c r="S60" s="97">
-        <f t="shared" si="6"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!I72)</f>
         <v>0.3</v>
       </c>
       <c r="T60" s="97">
-        <f t="shared" si="7"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!J72)</f>
         <v>0.3</v>
       </c>
       <c r="U60" s="97">
-        <f t="shared" si="8"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!K72)</f>
         <v>0.3</v>
       </c>
       <c r="V60" s="97">
-        <f t="shared" si="9"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!L72)</f>
         <v>0.3</v>
       </c>
       <c r="W60" s="97">
-        <f t="shared" si="10"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!M72)</f>
         <v>0.3</v>
       </c>
       <c r="X60" s="97">
-        <f t="shared" si="11"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!N72)</f>
         <v>0.3</v>
       </c>
       <c r="Y60" s="97">
-        <f t="shared" si="12"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!O72)</f>
         <v>0.3</v>
       </c>
       <c r="Z60" s="97">
-        <f t="shared" si="13"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!P72)</f>
         <v>0.3</v>
       </c>
       <c r="AA60" s="97">
-        <f t="shared" si="14"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!Q72)</f>
         <v>0.3</v>
       </c>
       <c r="AB60" s="97">
-        <f t="shared" si="15"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!R72)</f>
         <v>0.3</v>
       </c>
       <c r="AC60" s="97">
-        <f t="shared" si="16"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!S72)</f>
         <v>0.3</v>
       </c>
       <c r="AD60" s="97">
-        <f t="shared" si="17"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!T72)</f>
         <v>0.3</v>
       </c>
       <c r="AE60" s="97">
-        <f t="shared" si="18"/>
+        <f>MIN(1,preE_Tx_Live!$C4+preE_Tx_Live!$C4*'Scenario Inputs'!U72)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -29783,56 +30046,56 @@
         <v>66</v>
       </c>
       <c r="C61" s="97">
-        <f t="shared" si="5"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!I73)</f>
+        <v>0.1</v>
       </c>
       <c r="D61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!J73)</f>
+        <v>0.1</v>
       </c>
       <c r="E61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!K73)</f>
+        <v>0.1</v>
       </c>
       <c r="F61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!L73)</f>
+        <v>0.1</v>
       </c>
       <c r="G61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!M73)</f>
+        <v>0.1</v>
       </c>
       <c r="H61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!N73)</f>
+        <v>0.1</v>
       </c>
       <c r="I61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!O73)</f>
+        <v>0.1</v>
       </c>
       <c r="J61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!P73)</f>
+        <v>0.1</v>
       </c>
       <c r="K61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!Q73)</f>
+        <v>0.1</v>
       </c>
       <c r="L61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!R73)</f>
+        <v>0.1</v>
       </c>
       <c r="M61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!S73)</f>
+        <v>0.1</v>
       </c>
       <c r="N61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!T73)</f>
+        <v>0.1</v>
       </c>
       <c r="O61" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C5+preE_Tx_Cadav!$C5*'Scenario Inputs'!U73)</f>
+        <v>0.1</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>71</v>
@@ -29841,55 +30104,55 @@
         <v>66</v>
       </c>
       <c r="S61" s="97">
-        <f t="shared" si="6"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!I72)</f>
         <v>0.3</v>
       </c>
       <c r="T61" s="97">
-        <f t="shared" si="7"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!J72)</f>
         <v>0.3</v>
       </c>
       <c r="U61" s="97">
-        <f t="shared" si="8"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!K72)</f>
         <v>0.3</v>
       </c>
       <c r="V61" s="97">
-        <f t="shared" si="9"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!L72)</f>
         <v>0.3</v>
       </c>
       <c r="W61" s="97">
-        <f t="shared" si="10"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!M72)</f>
         <v>0.3</v>
       </c>
       <c r="X61" s="97">
-        <f t="shared" si="11"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!N72)</f>
         <v>0.3</v>
       </c>
       <c r="Y61" s="97">
-        <f t="shared" si="12"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!O72)</f>
         <v>0.3</v>
       </c>
       <c r="Z61" s="97">
-        <f t="shared" si="13"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!P72)</f>
         <v>0.3</v>
       </c>
       <c r="AA61" s="97">
-        <f t="shared" si="14"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!Q72)</f>
         <v>0.3</v>
       </c>
       <c r="AB61" s="97">
-        <f t="shared" si="15"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!R72)</f>
         <v>0.3</v>
       </c>
       <c r="AC61" s="97">
-        <f t="shared" si="16"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!S72)</f>
         <v>0.3</v>
       </c>
       <c r="AD61" s="97">
-        <f t="shared" si="17"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!T72)</f>
         <v>0.3</v>
       </c>
       <c r="AE61" s="97">
-        <f t="shared" si="18"/>
+        <f>MIN(1,preE_Tx_Live!$C5+preE_Tx_Live!$C5*'Scenario Inputs'!U72)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -29901,56 +30164,56 @@
         <v>70</v>
       </c>
       <c r="C62" s="97">
-        <f t="shared" si="5"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!I73)</f>
+        <v>0.1</v>
       </c>
       <c r="D62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!J73)</f>
+        <v>0.1</v>
       </c>
       <c r="E62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!K73)</f>
+        <v>0.1</v>
       </c>
       <c r="F62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!L73)</f>
+        <v>0.1</v>
       </c>
       <c r="G62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!M73)</f>
+        <v>0.1</v>
       </c>
       <c r="H62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!N73)</f>
+        <v>0.1</v>
       </c>
       <c r="I62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!O73)</f>
+        <v>0.1</v>
       </c>
       <c r="J62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!P73)</f>
+        <v>0.1</v>
       </c>
       <c r="K62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!Q73)</f>
+        <v>0.1</v>
       </c>
       <c r="L62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!R73)</f>
+        <v>0.1</v>
       </c>
       <c r="M62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!S73)</f>
+        <v>0.1</v>
       </c>
       <c r="N62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!T73)</f>
+        <v>0.1</v>
       </c>
       <c r="O62" s="97">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999992E-2</v>
+        <f>MIN(1,preE_Tx_Cadav!$C6+preE_Tx_Cadav!$C6*'Scenario Inputs'!U73)</f>
+        <v>0.1</v>
       </c>
       <c r="Q62" s="4" t="s">
         <v>71</v>
@@ -29959,55 +30222,55 @@
         <v>70</v>
       </c>
       <c r="S62" s="97">
-        <f t="shared" si="6"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!I72)</f>
         <v>0.3</v>
       </c>
       <c r="T62" s="97">
-        <f t="shared" si="7"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!J72)</f>
         <v>0.3</v>
       </c>
       <c r="U62" s="97">
-        <f t="shared" si="8"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!K72)</f>
         <v>0.3</v>
       </c>
       <c r="V62" s="97">
-        <f t="shared" si="9"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!L72)</f>
         <v>0.3</v>
       </c>
       <c r="W62" s="97">
-        <f t="shared" si="10"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!M72)</f>
         <v>0.3</v>
       </c>
       <c r="X62" s="97">
-        <f t="shared" si="11"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!N72)</f>
         <v>0.3</v>
       </c>
       <c r="Y62" s="97">
-        <f t="shared" si="12"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!O72)</f>
         <v>0.3</v>
       </c>
       <c r="Z62" s="97">
-        <f t="shared" si="13"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!P72)</f>
         <v>0.3</v>
       </c>
       <c r="AA62" s="97">
-        <f t="shared" si="14"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!Q72)</f>
         <v>0.3</v>
       </c>
       <c r="AB62" s="97">
-        <f t="shared" si="15"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!R72)</f>
         <v>0.3</v>
       </c>
       <c r="AC62" s="97">
-        <f t="shared" si="16"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!S72)</f>
         <v>0.3</v>
       </c>
       <c r="AD62" s="97">
-        <f t="shared" si="17"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!T72)</f>
         <v>0.3</v>
       </c>
       <c r="AE62" s="97">
-        <f t="shared" si="18"/>
+        <f>MIN(1,preE_Tx_Live!$C6+preE_Tx_Live!$C6*'Scenario Inputs'!U72)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -30289,211 +30552,211 @@
     </row>
     <row r="69" spans="1:44">
       <c r="A69" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="154" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="154"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="154"/>
-      <c r="F69" s="155">
+        <v>107</v>
+      </c>
+      <c r="B69" s="147" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="147"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="147"/>
+      <c r="F69" s="146">
         <v>1</v>
       </c>
-      <c r="G69" s="155"/>
-      <c r="H69" s="155"/>
-      <c r="I69" s="155">
+      <c r="G69" s="146"/>
+      <c r="H69" s="146"/>
+      <c r="I69" s="146">
         <v>2</v>
       </c>
-      <c r="J69" s="155"/>
-      <c r="K69" s="155"/>
-      <c r="L69" s="155">
+      <c r="J69" s="146"/>
+      <c r="K69" s="146"/>
+      <c r="L69" s="146">
         <v>3</v>
       </c>
-      <c r="M69" s="155"/>
-      <c r="N69" s="155"/>
-      <c r="O69" s="155">
+      <c r="M69" s="146"/>
+      <c r="N69" s="146"/>
+      <c r="O69" s="146">
         <v>4</v>
       </c>
-      <c r="P69" s="155"/>
-      <c r="Q69" s="155"/>
-      <c r="R69" s="155">
+      <c r="P69" s="146"/>
+      <c r="Q69" s="146"/>
+      <c r="R69" s="146">
         <v>5</v>
       </c>
-      <c r="S69" s="155"/>
-      <c r="T69" s="155"/>
-      <c r="U69" s="155">
+      <c r="S69" s="146"/>
+      <c r="T69" s="146"/>
+      <c r="U69" s="146">
         <v>6</v>
       </c>
-      <c r="V69" s="155"/>
-      <c r="W69" s="155"/>
-      <c r="X69" s="155">
+      <c r="V69" s="146"/>
+      <c r="W69" s="146"/>
+      <c r="X69" s="146">
         <v>7</v>
       </c>
-      <c r="Y69" s="155"/>
-      <c r="Z69" s="155"/>
-      <c r="AA69" s="155">
+      <c r="Y69" s="146"/>
+      <c r="Z69" s="146"/>
+      <c r="AA69" s="146">
         <v>8</v>
       </c>
-      <c r="AB69" s="155"/>
-      <c r="AC69" s="155"/>
-      <c r="AD69" s="155">
+      <c r="AB69" s="146"/>
+      <c r="AC69" s="146"/>
+      <c r="AD69" s="146">
         <v>9</v>
       </c>
-      <c r="AE69" s="155"/>
-      <c r="AF69" s="155"/>
-      <c r="AG69" s="155">
+      <c r="AE69" s="146"/>
+      <c r="AF69" s="146"/>
+      <c r="AG69" s="146">
         <v>10</v>
       </c>
-      <c r="AH69" s="155"/>
-      <c r="AI69" s="155"/>
-      <c r="AJ69" s="155">
+      <c r="AH69" s="146"/>
+      <c r="AI69" s="146"/>
+      <c r="AJ69" s="146">
         <v>11</v>
       </c>
-      <c r="AK69" s="155"/>
-      <c r="AL69" s="155"/>
-      <c r="AM69" s="155">
+      <c r="AK69" s="146"/>
+      <c r="AL69" s="146"/>
+      <c r="AM69" s="146">
         <v>12</v>
       </c>
-      <c r="AN69" s="155"/>
-      <c r="AO69" s="155"/>
-      <c r="AP69" s="155">
+      <c r="AN69" s="146"/>
+      <c r="AO69" s="146"/>
+      <c r="AP69" s="146">
         <v>13</v>
       </c>
-      <c r="AQ69" s="155"/>
-      <c r="AR69" s="155"/>
+      <c r="AQ69" s="146"/>
+      <c r="AR69" s="146"/>
     </row>
     <row r="70" spans="1:44">
       <c r="C70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" t="s">
         <v>144</v>
       </c>
-      <c r="D70" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" t="s">
-        <v>146</v>
-      </c>
       <c r="F70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" t="s">
         <v>144</v>
       </c>
-      <c r="G70" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" t="s">
-        <v>146</v>
-      </c>
       <c r="I70" t="s">
+        <v>142</v>
+      </c>
+      <c r="J70" t="s">
+        <v>143</v>
+      </c>
+      <c r="K70" t="s">
         <v>144</v>
       </c>
-      <c r="J70" t="s">
-        <v>145</v>
-      </c>
-      <c r="K70" t="s">
-        <v>146</v>
-      </c>
       <c r="L70" t="s">
+        <v>142</v>
+      </c>
+      <c r="M70" t="s">
+        <v>143</v>
+      </c>
+      <c r="N70" t="s">
         <v>144</v>
       </c>
-      <c r="M70" t="s">
-        <v>145</v>
-      </c>
-      <c r="N70" t="s">
-        <v>146</v>
-      </c>
       <c r="O70" t="s">
+        <v>142</v>
+      </c>
+      <c r="P70" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q70" t="s">
         <v>144</v>
       </c>
-      <c r="P70" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>146</v>
-      </c>
       <c r="R70" t="s">
+        <v>142</v>
+      </c>
+      <c r="S70" t="s">
+        <v>143</v>
+      </c>
+      <c r="T70" t="s">
         <v>144</v>
       </c>
-      <c r="S70" t="s">
-        <v>145</v>
-      </c>
-      <c r="T70" t="s">
-        <v>146</v>
-      </c>
       <c r="U70" t="s">
+        <v>142</v>
+      </c>
+      <c r="V70" t="s">
+        <v>143</v>
+      </c>
+      <c r="W70" t="s">
         <v>144</v>
       </c>
-      <c r="V70" t="s">
-        <v>145</v>
-      </c>
-      <c r="W70" t="s">
-        <v>146</v>
-      </c>
       <c r="X70" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z70" t="s">
         <v>144</v>
       </c>
-      <c r="Y70" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>146</v>
-      </c>
       <c r="AA70" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC70" t="s">
         <v>144</v>
       </c>
-      <c r="AB70" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>146</v>
-      </c>
       <c r="AD70" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF70" t="s">
         <v>144</v>
       </c>
-      <c r="AE70" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>146</v>
-      </c>
       <c r="AG70" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI70" t="s">
         <v>144</v>
       </c>
-      <c r="AH70" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>146</v>
-      </c>
       <c r="AJ70" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL70" t="s">
         <v>144</v>
       </c>
-      <c r="AK70" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL70" t="s">
-        <v>146</v>
-      </c>
       <c r="AM70" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO70" t="s">
         <v>144</v>
       </c>
-      <c r="AN70" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO70" t="s">
-        <v>146</v>
-      </c>
       <c r="AP70" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR70" t="s">
         <v>144</v>
-      </c>
-      <c r="AQ70" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR70" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:44">
       <c r="A71" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -30669,7 +30932,7 @@
     </row>
     <row r="72" spans="1:44">
       <c r="A72" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B72" s="4">
         <v>2</v>
@@ -30687,165 +30950,165 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F72" s="96">
-        <f t="shared" ref="F72:F76" si="19">1-SUM(G72:H72)</f>
+        <f t="shared" ref="F72:F76" si="2">1-SUM(G72:H72)</f>
         <v>0.69</v>
       </c>
       <c r="G72" s="96">
-        <f t="shared" ref="G72:G76" si="20">$B$16</f>
+        <f t="shared" ref="G72:G76" si="3">$B$16</f>
         <v>0.02</v>
       </c>
       <c r="H72" s="96">
-        <f t="shared" ref="H72:H76" si="21">$B$17</f>
+        <f t="shared" ref="H72:H76" si="4">$B$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="I72" s="96">
-        <f t="shared" ref="I72:I76" si="22">1-SUM(J72:K72)</f>
+        <f t="shared" ref="I72:I76" si="5">1-SUM(J72:K72)</f>
         <v>0.69</v>
       </c>
       <c r="J72" s="96">
-        <f t="shared" ref="J72:J76" si="23">$C$16</f>
+        <f t="shared" ref="J72:J76" si="6">$C$16</f>
         <v>0.02</v>
       </c>
       <c r="K72" s="96">
-        <f t="shared" ref="K72:K76" si="24">$C$17</f>
+        <f t="shared" ref="K72:K76" si="7">$C$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="L72" s="96">
-        <f t="shared" ref="L72:L76" si="25">1-SUM(M72:N72)</f>
+        <f t="shared" ref="L72:L76" si="8">1-SUM(M72:N72)</f>
         <v>0.69</v>
       </c>
       <c r="M72" s="96">
-        <f t="shared" ref="M72:M76" si="26">$D$16</f>
+        <f t="shared" ref="M72:M76" si="9">$D$16</f>
         <v>0.02</v>
       </c>
       <c r="N72" s="96">
-        <f t="shared" ref="N72:N76" si="27">$D$17</f>
+        <f t="shared" ref="N72:N76" si="10">$D$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="O72" s="96">
-        <f t="shared" ref="O72:O76" si="28">1-SUM(P72:Q72)</f>
+        <f t="shared" ref="O72:O76" si="11">1-SUM(P72:Q72)</f>
         <v>0.69</v>
       </c>
       <c r="P72" s="96">
-        <f t="shared" ref="P72:P76" si="29">$E$16</f>
+        <f t="shared" ref="P72:P76" si="12">$E$16</f>
         <v>0.02</v>
       </c>
       <c r="Q72" s="96">
-        <f t="shared" ref="Q72:Q76" si="30">$E$17</f>
+        <f t="shared" ref="Q72:Q76" si="13">$E$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="R72" s="96">
-        <f t="shared" ref="R72:R76" si="31">1-SUM(S72:T72)</f>
+        <f t="shared" ref="R72:R76" si="14">1-SUM(S72:T72)</f>
         <v>0.69</v>
       </c>
       <c r="S72" s="97">
-        <f t="shared" ref="S72:S76" si="32">$F$16</f>
+        <f t="shared" ref="S72:S76" si="15">$F$16</f>
         <v>0.02</v>
       </c>
       <c r="T72" s="96">
-        <f t="shared" ref="T72:T76" si="33">$F$17</f>
+        <f t="shared" ref="T72:T76" si="16">$F$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="U72" s="96">
-        <f t="shared" ref="U72:U76" si="34">1-SUM(V72:W72)</f>
+        <f t="shared" ref="U72:U76" si="17">1-SUM(V72:W72)</f>
         <v>0.69</v>
       </c>
       <c r="V72" s="96">
-        <f t="shared" ref="V72:V76" si="35">$G$16</f>
+        <f t="shared" ref="V72:V76" si="18">$G$16</f>
         <v>0.02</v>
       </c>
       <c r="W72" s="96">
-        <f t="shared" ref="W72:W76" si="36">$G$17</f>
+        <f t="shared" ref="W72:W76" si="19">$G$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="X72" s="96">
-        <f t="shared" ref="X72:X76" si="37">1-SUM(Y72:Z72)</f>
+        <f t="shared" ref="X72:X76" si="20">1-SUM(Y72:Z72)</f>
         <v>0.69</v>
       </c>
       <c r="Y72" s="96">
-        <f t="shared" ref="Y72:Y76" si="38">$H$16</f>
+        <f t="shared" ref="Y72:Y76" si="21">$H$16</f>
         <v>0.02</v>
       </c>
       <c r="Z72" s="96">
-        <f t="shared" ref="Z72:Z76" si="39">$H$17</f>
+        <f t="shared" ref="Z72:Z76" si="22">$H$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="AA72" s="96">
-        <f t="shared" ref="AA72:AA76" si="40">1-SUM(AB72:AC72)</f>
+        <f t="shared" ref="AA72:AA76" si="23">1-SUM(AB72:AC72)</f>
         <v>0.69</v>
       </c>
       <c r="AB72" s="96">
-        <f t="shared" ref="AB72:AB76" si="41">$I$16</f>
+        <f t="shared" ref="AB72:AB76" si="24">$I$16</f>
         <v>0.02</v>
       </c>
       <c r="AC72" s="96">
-        <f t="shared" ref="AC72:AC76" si="42">$I$17</f>
+        <f t="shared" ref="AC72:AC76" si="25">$I$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="AD72" s="96">
-        <f t="shared" ref="AD72:AD76" si="43">1-SUM(AE72:AF72)</f>
+        <f t="shared" ref="AD72:AD76" si="26">1-SUM(AE72:AF72)</f>
         <v>0.69</v>
       </c>
       <c r="AE72" s="96">
-        <f t="shared" ref="AE72:AE76" si="44">$J$16</f>
+        <f t="shared" ref="AE72:AE76" si="27">$J$16</f>
         <v>0.02</v>
       </c>
       <c r="AF72" s="96">
-        <f t="shared" ref="AF72:AF76" si="45">$J$17</f>
+        <f t="shared" ref="AF72:AF76" si="28">$J$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="AG72" s="96">
-        <f t="shared" ref="AG72:AG76" si="46">1-SUM(AH72:AI72)</f>
+        <f t="shared" ref="AG72:AG76" si="29">1-SUM(AH72:AI72)</f>
         <v>0.69</v>
       </c>
       <c r="AH72" s="96">
-        <f t="shared" ref="AH72:AH76" si="47">$K$16</f>
+        <f t="shared" ref="AH72:AH76" si="30">$K$16</f>
         <v>0.02</v>
       </c>
       <c r="AI72" s="96">
-        <f t="shared" ref="AI72:AI76" si="48">$K$17</f>
+        <f t="shared" ref="AI72:AI76" si="31">$K$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="AJ72" s="96">
-        <f t="shared" ref="AJ72:AJ76" si="49">1-SUM(AK72:AL72)</f>
+        <f t="shared" ref="AJ72:AJ76" si="32">1-SUM(AK72:AL72)</f>
         <v>0.69</v>
       </c>
       <c r="AK72" s="96">
-        <f t="shared" ref="AK72:AK76" si="50">$L$16</f>
+        <f t="shared" ref="AK72:AK76" si="33">$L$16</f>
         <v>0.02</v>
       </c>
       <c r="AL72" s="96">
-        <f t="shared" ref="AL72:AL76" si="51">$L$17</f>
+        <f t="shared" ref="AL72:AL76" si="34">$L$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="AM72" s="96">
-        <f t="shared" ref="AM72:AM76" si="52">1-SUM(AN72:AO72)</f>
+        <f t="shared" ref="AM72:AM76" si="35">1-SUM(AN72:AO72)</f>
         <v>0.69</v>
       </c>
       <c r="AN72" s="96">
-        <f t="shared" ref="AN72:AN76" si="53">$M$16</f>
+        <f t="shared" ref="AN72:AN76" si="36">$M$16</f>
         <v>0.02</v>
       </c>
       <c r="AO72" s="96">
-        <f t="shared" ref="AO72:AO76" si="54">$M$17</f>
+        <f t="shared" ref="AO72:AO76" si="37">$M$17</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="AP72" s="96">
-        <f t="shared" ref="AP72:AP76" si="55">1-SUM(AQ72:AR72)</f>
+        <f t="shared" ref="AP72:AP76" si="38">1-SUM(AQ72:AR72)</f>
         <v>0.69</v>
       </c>
       <c r="AQ72" s="96">
-        <f t="shared" ref="AQ72:AQ76" si="56">$N$16</f>
+        <f t="shared" ref="AQ72:AQ76" si="39">$N$16</f>
         <v>0.02</v>
       </c>
       <c r="AR72" s="96">
-        <f t="shared" ref="AR72:AR76" si="57">$N$17</f>
+        <f t="shared" ref="AR72:AR76" si="40">$N$17</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:44">
       <c r="A73" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B73" s="4">
         <v>3</v>
@@ -30863,165 +31126,165 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F73" s="96">
+        <f t="shared" si="2"/>
+        <v>0.69</v>
+      </c>
+      <c r="G73" s="96">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="H73" s="96">
+        <f t="shared" si="4"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I73" s="96">
+        <f t="shared" si="5"/>
+        <v>0.69</v>
+      </c>
+      <c r="J73" s="96">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="K73" s="96">
+        <f t="shared" si="7"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L73" s="96">
+        <f t="shared" si="8"/>
+        <v>0.69</v>
+      </c>
+      <c r="M73" s="96">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="N73" s="96">
+        <f t="shared" si="10"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O73" s="96">
+        <f t="shared" si="11"/>
+        <v>0.69</v>
+      </c>
+      <c r="P73" s="96">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="Q73" s="96">
+        <f t="shared" si="13"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R73" s="96">
+        <f t="shared" si="14"/>
+        <v>0.69</v>
+      </c>
+      <c r="S73" s="97">
+        <f t="shared" si="15"/>
+        <v>0.02</v>
+      </c>
+      <c r="T73" s="96">
+        <f t="shared" si="16"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U73" s="96">
+        <f t="shared" si="17"/>
+        <v>0.69</v>
+      </c>
+      <c r="V73" s="96">
+        <f t="shared" si="18"/>
+        <v>0.02</v>
+      </c>
+      <c r="W73" s="96">
         <f t="shared" si="19"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X73" s="96">
+        <f t="shared" si="20"/>
         <v>0.69</v>
       </c>
-      <c r="G73" s="96">
-        <f t="shared" si="20"/>
+      <c r="Y73" s="96">
+        <f t="shared" si="21"/>
         <v>0.02</v>
       </c>
-      <c r="H73" s="96">
-        <f t="shared" si="21"/>
+      <c r="Z73" s="96">
+        <f t="shared" si="22"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="I73" s="96">
-        <f t="shared" si="22"/>
+      <c r="AA73" s="96">
+        <f t="shared" si="23"/>
         <v>0.69</v>
       </c>
-      <c r="J73" s="96">
-        <f t="shared" si="23"/>
+      <c r="AB73" s="96">
+        <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="K73" s="96">
-        <f t="shared" si="24"/>
+      <c r="AC73" s="96">
+        <f t="shared" si="25"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="L73" s="96">
-        <f t="shared" si="25"/>
+      <c r="AD73" s="96">
+        <f t="shared" si="26"/>
         <v>0.69</v>
       </c>
-      <c r="M73" s="96">
-        <f t="shared" si="26"/>
+      <c r="AE73" s="96">
+        <f t="shared" si="27"/>
         <v>0.02</v>
       </c>
-      <c r="N73" s="96">
-        <f t="shared" si="27"/>
+      <c r="AF73" s="96">
+        <f t="shared" si="28"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O73" s="96">
-        <f t="shared" si="28"/>
+      <c r="AG73" s="96">
+        <f t="shared" si="29"/>
         <v>0.69</v>
       </c>
-      <c r="P73" s="96">
-        <f t="shared" si="29"/>
+      <c r="AH73" s="96">
+        <f t="shared" si="30"/>
         <v>0.02</v>
       </c>
-      <c r="Q73" s="96">
-        <f t="shared" si="30"/>
+      <c r="AI73" s="96">
+        <f t="shared" si="31"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="R73" s="96">
-        <f t="shared" si="31"/>
+      <c r="AJ73" s="96">
+        <f t="shared" si="32"/>
         <v>0.69</v>
       </c>
-      <c r="S73" s="97">
-        <f t="shared" si="32"/>
+      <c r="AK73" s="96">
+        <f t="shared" si="33"/>
         <v>0.02</v>
       </c>
-      <c r="T73" s="96">
-        <f t="shared" si="33"/>
+      <c r="AL73" s="96">
+        <f t="shared" si="34"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="U73" s="96">
-        <f t="shared" si="34"/>
+      <c r="AM73" s="96">
+        <f t="shared" si="35"/>
         <v>0.69</v>
       </c>
-      <c r="V73" s="96">
-        <f t="shared" si="35"/>
+      <c r="AN73" s="96">
+        <f t="shared" si="36"/>
         <v>0.02</v>
       </c>
-      <c r="W73" s="96">
-        <f t="shared" si="36"/>
+      <c r="AO73" s="96">
+        <f t="shared" si="37"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="X73" s="96">
-        <f t="shared" si="37"/>
+      <c r="AP73" s="96">
+        <f t="shared" si="38"/>
         <v>0.69</v>
       </c>
-      <c r="Y73" s="96">
-        <f t="shared" si="38"/>
+      <c r="AQ73" s="96">
+        <f t="shared" si="39"/>
         <v>0.02</v>
       </c>
-      <c r="Z73" s="96">
-        <f t="shared" si="39"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AA73" s="96">
+      <c r="AR73" s="96">
         <f t="shared" si="40"/>
-        <v>0.69</v>
-      </c>
-      <c r="AB73" s="96">
-        <f t="shared" si="41"/>
-        <v>0.02</v>
-      </c>
-      <c r="AC73" s="96">
-        <f t="shared" si="42"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AD73" s="96">
-        <f t="shared" si="43"/>
-        <v>0.69</v>
-      </c>
-      <c r="AE73" s="96">
-        <f t="shared" si="44"/>
-        <v>0.02</v>
-      </c>
-      <c r="AF73" s="96">
-        <f t="shared" si="45"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AG73" s="96">
-        <f t="shared" si="46"/>
-        <v>0.69</v>
-      </c>
-      <c r="AH73" s="96">
-        <f t="shared" si="47"/>
-        <v>0.02</v>
-      </c>
-      <c r="AI73" s="96">
-        <f t="shared" si="48"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AJ73" s="96">
-        <f t="shared" si="49"/>
-        <v>0.69</v>
-      </c>
-      <c r="AK73" s="96">
-        <f t="shared" si="50"/>
-        <v>0.02</v>
-      </c>
-      <c r="AL73" s="96">
-        <f t="shared" si="51"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AM73" s="96">
-        <f t="shared" si="52"/>
-        <v>0.69</v>
-      </c>
-      <c r="AN73" s="96">
-        <f t="shared" si="53"/>
-        <v>0.02</v>
-      </c>
-      <c r="AO73" s="96">
-        <f t="shared" si="54"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AP73" s="96">
-        <f t="shared" si="55"/>
-        <v>0.69</v>
-      </c>
-      <c r="AQ73" s="96">
-        <f t="shared" si="56"/>
-        <v>0.02</v>
-      </c>
-      <c r="AR73" s="96">
-        <f t="shared" si="57"/>
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:44">
       <c r="A74" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B74" s="4">
         <v>4</v>
@@ -31039,165 +31302,165 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F74" s="96">
+        <f t="shared" si="2"/>
+        <v>0.69</v>
+      </c>
+      <c r="G74" s="96">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="H74" s="96">
+        <f t="shared" si="4"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I74" s="96">
+        <f t="shared" si="5"/>
+        <v>0.69</v>
+      </c>
+      <c r="J74" s="96">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="K74" s="96">
+        <f t="shared" si="7"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L74" s="96">
+        <f t="shared" si="8"/>
+        <v>0.69</v>
+      </c>
+      <c r="M74" s="96">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="N74" s="96">
+        <f t="shared" si="10"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O74" s="96">
+        <f t="shared" si="11"/>
+        <v>0.69</v>
+      </c>
+      <c r="P74" s="96">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="Q74" s="96">
+        <f t="shared" si="13"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R74" s="96">
+        <f t="shared" si="14"/>
+        <v>0.69</v>
+      </c>
+      <c r="S74" s="97">
+        <f t="shared" si="15"/>
+        <v>0.02</v>
+      </c>
+      <c r="T74" s="96">
+        <f t="shared" si="16"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U74" s="96">
+        <f t="shared" si="17"/>
+        <v>0.69</v>
+      </c>
+      <c r="V74" s="96">
+        <f t="shared" si="18"/>
+        <v>0.02</v>
+      </c>
+      <c r="W74" s="96">
         <f t="shared" si="19"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X74" s="96">
+        <f t="shared" si="20"/>
         <v>0.69</v>
       </c>
-      <c r="G74" s="96">
-        <f t="shared" si="20"/>
+      <c r="Y74" s="96">
+        <f t="shared" si="21"/>
         <v>0.02</v>
       </c>
-      <c r="H74" s="96">
-        <f t="shared" si="21"/>
+      <c r="Z74" s="96">
+        <f t="shared" si="22"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="I74" s="96">
-        <f t="shared" si="22"/>
+      <c r="AA74" s="96">
+        <f t="shared" si="23"/>
         <v>0.69</v>
       </c>
-      <c r="J74" s="96">
-        <f t="shared" si="23"/>
+      <c r="AB74" s="96">
+        <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="K74" s="96">
-        <f t="shared" si="24"/>
+      <c r="AC74" s="96">
+        <f t="shared" si="25"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="L74" s="96">
-        <f t="shared" si="25"/>
+      <c r="AD74" s="96">
+        <f t="shared" si="26"/>
         <v>0.69</v>
       </c>
-      <c r="M74" s="96">
-        <f t="shared" si="26"/>
+      <c r="AE74" s="96">
+        <f t="shared" si="27"/>
         <v>0.02</v>
       </c>
-      <c r="N74" s="96">
-        <f t="shared" si="27"/>
+      <c r="AF74" s="96">
+        <f t="shared" si="28"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O74" s="96">
-        <f t="shared" si="28"/>
+      <c r="AG74" s="96">
+        <f t="shared" si="29"/>
         <v>0.69</v>
       </c>
-      <c r="P74" s="96">
-        <f t="shared" si="29"/>
+      <c r="AH74" s="96">
+        <f t="shared" si="30"/>
         <v>0.02</v>
       </c>
-      <c r="Q74" s="96">
-        <f t="shared" si="30"/>
+      <c r="AI74" s="96">
+        <f t="shared" si="31"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="R74" s="96">
-        <f t="shared" si="31"/>
+      <c r="AJ74" s="96">
+        <f t="shared" si="32"/>
         <v>0.69</v>
       </c>
-      <c r="S74" s="97">
-        <f t="shared" si="32"/>
+      <c r="AK74" s="96">
+        <f t="shared" si="33"/>
         <v>0.02</v>
       </c>
-      <c r="T74" s="96">
-        <f t="shared" si="33"/>
+      <c r="AL74" s="96">
+        <f t="shared" si="34"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="U74" s="96">
-        <f t="shared" si="34"/>
+      <c r="AM74" s="96">
+        <f t="shared" si="35"/>
         <v>0.69</v>
       </c>
-      <c r="V74" s="96">
-        <f t="shared" si="35"/>
+      <c r="AN74" s="96">
+        <f t="shared" si="36"/>
         <v>0.02</v>
       </c>
-      <c r="W74" s="96">
-        <f t="shared" si="36"/>
+      <c r="AO74" s="96">
+        <f t="shared" si="37"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="X74" s="96">
-        <f t="shared" si="37"/>
+      <c r="AP74" s="96">
+        <f t="shared" si="38"/>
         <v>0.69</v>
       </c>
-      <c r="Y74" s="96">
-        <f t="shared" si="38"/>
+      <c r="AQ74" s="96">
+        <f t="shared" si="39"/>
         <v>0.02</v>
       </c>
-      <c r="Z74" s="96">
-        <f t="shared" si="39"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AA74" s="96">
+      <c r="AR74" s="96">
         <f t="shared" si="40"/>
-        <v>0.69</v>
-      </c>
-      <c r="AB74" s="96">
-        <f t="shared" si="41"/>
-        <v>0.02</v>
-      </c>
-      <c r="AC74" s="96">
-        <f t="shared" si="42"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AD74" s="96">
-        <f t="shared" si="43"/>
-        <v>0.69</v>
-      </c>
-      <c r="AE74" s="96">
-        <f t="shared" si="44"/>
-        <v>0.02</v>
-      </c>
-      <c r="AF74" s="96">
-        <f t="shared" si="45"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AG74" s="96">
-        <f t="shared" si="46"/>
-        <v>0.69</v>
-      </c>
-      <c r="AH74" s="96">
-        <f t="shared" si="47"/>
-        <v>0.02</v>
-      </c>
-      <c r="AI74" s="96">
-        <f t="shared" si="48"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AJ74" s="96">
-        <f t="shared" si="49"/>
-        <v>0.69</v>
-      </c>
-      <c r="AK74" s="96">
-        <f t="shared" si="50"/>
-        <v>0.02</v>
-      </c>
-      <c r="AL74" s="96">
-        <f t="shared" si="51"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AM74" s="96">
-        <f t="shared" si="52"/>
-        <v>0.69</v>
-      </c>
-      <c r="AN74" s="96">
-        <f t="shared" si="53"/>
-        <v>0.02</v>
-      </c>
-      <c r="AO74" s="96">
-        <f t="shared" si="54"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AP74" s="96">
-        <f t="shared" si="55"/>
-        <v>0.69</v>
-      </c>
-      <c r="AQ74" s="96">
-        <f t="shared" si="56"/>
-        <v>0.02</v>
-      </c>
-      <c r="AR74" s="96">
-        <f t="shared" si="57"/>
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:44">
       <c r="A75" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B75" s="4">
         <v>5</v>
@@ -31215,165 +31478,165 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F75" s="96">
+        <f t="shared" si="2"/>
+        <v>0.69</v>
+      </c>
+      <c r="G75" s="96">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="H75" s="96">
+        <f t="shared" si="4"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I75" s="96">
+        <f t="shared" si="5"/>
+        <v>0.69</v>
+      </c>
+      <c r="J75" s="96">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="K75" s="96">
+        <f t="shared" si="7"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L75" s="96">
+        <f t="shared" si="8"/>
+        <v>0.69</v>
+      </c>
+      <c r="M75" s="96">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="N75" s="96">
+        <f t="shared" si="10"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O75" s="96">
+        <f t="shared" si="11"/>
+        <v>0.69</v>
+      </c>
+      <c r="P75" s="96">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="Q75" s="96">
+        <f t="shared" si="13"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R75" s="96">
+        <f t="shared" si="14"/>
+        <v>0.69</v>
+      </c>
+      <c r="S75" s="97">
+        <f t="shared" si="15"/>
+        <v>0.02</v>
+      </c>
+      <c r="T75" s="96">
+        <f t="shared" si="16"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U75" s="96">
+        <f t="shared" si="17"/>
+        <v>0.69</v>
+      </c>
+      <c r="V75" s="96">
+        <f t="shared" si="18"/>
+        <v>0.02</v>
+      </c>
+      <c r="W75" s="96">
         <f t="shared" si="19"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X75" s="96">
+        <f t="shared" si="20"/>
         <v>0.69</v>
       </c>
-      <c r="G75" s="96">
-        <f t="shared" si="20"/>
+      <c r="Y75" s="96">
+        <f t="shared" si="21"/>
         <v>0.02</v>
       </c>
-      <c r="H75" s="96">
-        <f t="shared" si="21"/>
+      <c r="Z75" s="96">
+        <f t="shared" si="22"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="I75" s="96">
-        <f t="shared" si="22"/>
+      <c r="AA75" s="96">
+        <f t="shared" si="23"/>
         <v>0.69</v>
       </c>
-      <c r="J75" s="96">
-        <f t="shared" si="23"/>
+      <c r="AB75" s="96">
+        <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="K75" s="96">
-        <f t="shared" si="24"/>
+      <c r="AC75" s="96">
+        <f t="shared" si="25"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="L75" s="96">
-        <f t="shared" si="25"/>
+      <c r="AD75" s="96">
+        <f t="shared" si="26"/>
         <v>0.69</v>
       </c>
-      <c r="M75" s="96">
-        <f t="shared" si="26"/>
+      <c r="AE75" s="96">
+        <f t="shared" si="27"/>
         <v>0.02</v>
       </c>
-      <c r="N75" s="96">
-        <f t="shared" si="27"/>
+      <c r="AF75" s="96">
+        <f t="shared" si="28"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O75" s="96">
-        <f t="shared" si="28"/>
+      <c r="AG75" s="96">
+        <f t="shared" si="29"/>
         <v>0.69</v>
       </c>
-      <c r="P75" s="96">
-        <f t="shared" si="29"/>
+      <c r="AH75" s="96">
+        <f t="shared" si="30"/>
         <v>0.02</v>
       </c>
-      <c r="Q75" s="96">
-        <f t="shared" si="30"/>
+      <c r="AI75" s="96">
+        <f t="shared" si="31"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="R75" s="96">
-        <f t="shared" si="31"/>
+      <c r="AJ75" s="96">
+        <f t="shared" si="32"/>
         <v>0.69</v>
       </c>
-      <c r="S75" s="97">
-        <f t="shared" si="32"/>
+      <c r="AK75" s="96">
+        <f t="shared" si="33"/>
         <v>0.02</v>
       </c>
-      <c r="T75" s="96">
-        <f t="shared" si="33"/>
+      <c r="AL75" s="96">
+        <f t="shared" si="34"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="U75" s="96">
-        <f t="shared" si="34"/>
+      <c r="AM75" s="96">
+        <f t="shared" si="35"/>
         <v>0.69</v>
       </c>
-      <c r="V75" s="96">
-        <f t="shared" si="35"/>
+      <c r="AN75" s="96">
+        <f t="shared" si="36"/>
         <v>0.02</v>
       </c>
-      <c r="W75" s="96">
-        <f t="shared" si="36"/>
+      <c r="AO75" s="96">
+        <f t="shared" si="37"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="X75" s="96">
-        <f t="shared" si="37"/>
+      <c r="AP75" s="96">
+        <f t="shared" si="38"/>
         <v>0.69</v>
       </c>
-      <c r="Y75" s="96">
-        <f t="shared" si="38"/>
+      <c r="AQ75" s="96">
+        <f t="shared" si="39"/>
         <v>0.02</v>
       </c>
-      <c r="Z75" s="96">
-        <f t="shared" si="39"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AA75" s="96">
+      <c r="AR75" s="96">
         <f t="shared" si="40"/>
-        <v>0.69</v>
-      </c>
-      <c r="AB75" s="96">
-        <f t="shared" si="41"/>
-        <v>0.02</v>
-      </c>
-      <c r="AC75" s="96">
-        <f t="shared" si="42"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AD75" s="96">
-        <f t="shared" si="43"/>
-        <v>0.69</v>
-      </c>
-      <c r="AE75" s="96">
-        <f t="shared" si="44"/>
-        <v>0.02</v>
-      </c>
-      <c r="AF75" s="96">
-        <f t="shared" si="45"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AG75" s="96">
-        <f t="shared" si="46"/>
-        <v>0.69</v>
-      </c>
-      <c r="AH75" s="96">
-        <f t="shared" si="47"/>
-        <v>0.02</v>
-      </c>
-      <c r="AI75" s="96">
-        <f t="shared" si="48"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AJ75" s="96">
-        <f t="shared" si="49"/>
-        <v>0.69</v>
-      </c>
-      <c r="AK75" s="96">
-        <f t="shared" si="50"/>
-        <v>0.02</v>
-      </c>
-      <c r="AL75" s="96">
-        <f t="shared" si="51"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AM75" s="96">
-        <f t="shared" si="52"/>
-        <v>0.69</v>
-      </c>
-      <c r="AN75" s="96">
-        <f t="shared" si="53"/>
-        <v>0.02</v>
-      </c>
-      <c r="AO75" s="96">
-        <f t="shared" si="54"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AP75" s="96">
-        <f t="shared" si="55"/>
-        <v>0.69</v>
-      </c>
-      <c r="AQ75" s="96">
-        <f t="shared" si="56"/>
-        <v>0.02</v>
-      </c>
-      <c r="AR75" s="96">
-        <f t="shared" si="57"/>
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="76" spans="1:44">
       <c r="A76" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B76" s="4">
         <v>6</v>
@@ -31391,165 +31654,165 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F76" s="96">
+        <f t="shared" si="2"/>
+        <v>0.69</v>
+      </c>
+      <c r="G76" s="96">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="H76" s="96">
+        <f t="shared" si="4"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I76" s="96">
+        <f t="shared" si="5"/>
+        <v>0.69</v>
+      </c>
+      <c r="J76" s="96">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="K76" s="96">
+        <f t="shared" si="7"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L76" s="96">
+        <f t="shared" si="8"/>
+        <v>0.69</v>
+      </c>
+      <c r="M76" s="96">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="N76" s="96">
+        <f t="shared" si="10"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O76" s="96">
+        <f t="shared" si="11"/>
+        <v>0.69</v>
+      </c>
+      <c r="P76" s="96">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="Q76" s="96">
+        <f t="shared" si="13"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R76" s="96">
+        <f t="shared" si="14"/>
+        <v>0.69</v>
+      </c>
+      <c r="S76" s="97">
+        <f t="shared" si="15"/>
+        <v>0.02</v>
+      </c>
+      <c r="T76" s="96">
+        <f t="shared" si="16"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U76" s="96">
+        <f t="shared" si="17"/>
+        <v>0.69</v>
+      </c>
+      <c r="V76" s="96">
+        <f t="shared" si="18"/>
+        <v>0.02</v>
+      </c>
+      <c r="W76" s="96">
         <f t="shared" si="19"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X76" s="96">
+        <f t="shared" si="20"/>
         <v>0.69</v>
       </c>
-      <c r="G76" s="96">
-        <f t="shared" si="20"/>
+      <c r="Y76" s="96">
+        <f t="shared" si="21"/>
         <v>0.02</v>
       </c>
-      <c r="H76" s="96">
-        <f t="shared" si="21"/>
+      <c r="Z76" s="96">
+        <f t="shared" si="22"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="I76" s="96">
-        <f t="shared" si="22"/>
+      <c r="AA76" s="96">
+        <f t="shared" si="23"/>
         <v>0.69</v>
       </c>
-      <c r="J76" s="96">
-        <f t="shared" si="23"/>
+      <c r="AB76" s="96">
+        <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="K76" s="96">
-        <f t="shared" si="24"/>
+      <c r="AC76" s="96">
+        <f t="shared" si="25"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="L76" s="96">
-        <f t="shared" si="25"/>
+      <c r="AD76" s="96">
+        <f t="shared" si="26"/>
         <v>0.69</v>
       </c>
-      <c r="M76" s="96">
-        <f t="shared" si="26"/>
+      <c r="AE76" s="96">
+        <f t="shared" si="27"/>
         <v>0.02</v>
       </c>
-      <c r="N76" s="96">
-        <f t="shared" si="27"/>
+      <c r="AF76" s="96">
+        <f t="shared" si="28"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O76" s="96">
-        <f t="shared" si="28"/>
+      <c r="AG76" s="96">
+        <f t="shared" si="29"/>
         <v>0.69</v>
       </c>
-      <c r="P76" s="96">
-        <f t="shared" si="29"/>
+      <c r="AH76" s="96">
+        <f t="shared" si="30"/>
         <v>0.02</v>
       </c>
-      <c r="Q76" s="96">
-        <f t="shared" si="30"/>
+      <c r="AI76" s="96">
+        <f t="shared" si="31"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="R76" s="96">
-        <f t="shared" si="31"/>
+      <c r="AJ76" s="96">
+        <f t="shared" si="32"/>
         <v>0.69</v>
       </c>
-      <c r="S76" s="97">
-        <f t="shared" si="32"/>
+      <c r="AK76" s="96">
+        <f t="shared" si="33"/>
         <v>0.02</v>
       </c>
-      <c r="T76" s="96">
-        <f t="shared" si="33"/>
+      <c r="AL76" s="96">
+        <f t="shared" si="34"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="U76" s="96">
-        <f t="shared" si="34"/>
+      <c r="AM76" s="96">
+        <f t="shared" si="35"/>
         <v>0.69</v>
       </c>
-      <c r="V76" s="96">
-        <f t="shared" si="35"/>
+      <c r="AN76" s="96">
+        <f t="shared" si="36"/>
         <v>0.02</v>
       </c>
-      <c r="W76" s="96">
-        <f t="shared" si="36"/>
+      <c r="AO76" s="96">
+        <f t="shared" si="37"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="X76" s="96">
-        <f t="shared" si="37"/>
+      <c r="AP76" s="96">
+        <f t="shared" si="38"/>
         <v>0.69</v>
       </c>
-      <c r="Y76" s="96">
-        <f t="shared" si="38"/>
+      <c r="AQ76" s="96">
+        <f t="shared" si="39"/>
         <v>0.02</v>
       </c>
-      <c r="Z76" s="96">
-        <f t="shared" si="39"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AA76" s="96">
+      <c r="AR76" s="96">
         <f t="shared" si="40"/>
-        <v>0.69</v>
-      </c>
-      <c r="AB76" s="96">
-        <f t="shared" si="41"/>
-        <v>0.02</v>
-      </c>
-      <c r="AC76" s="96">
-        <f t="shared" si="42"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AD76" s="96">
-        <f t="shared" si="43"/>
-        <v>0.69</v>
-      </c>
-      <c r="AE76" s="96">
-        <f t="shared" si="44"/>
-        <v>0.02</v>
-      </c>
-      <c r="AF76" s="96">
-        <f t="shared" si="45"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AG76" s="96">
-        <f t="shared" si="46"/>
-        <v>0.69</v>
-      </c>
-      <c r="AH76" s="96">
-        <f t="shared" si="47"/>
-        <v>0.02</v>
-      </c>
-      <c r="AI76" s="96">
-        <f t="shared" si="48"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AJ76" s="96">
-        <f t="shared" si="49"/>
-        <v>0.69</v>
-      </c>
-      <c r="AK76" s="96">
-        <f t="shared" si="50"/>
-        <v>0.02</v>
-      </c>
-      <c r="AL76" s="96">
-        <f t="shared" si="51"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AM76" s="96">
-        <f t="shared" si="52"/>
-        <v>0.69</v>
-      </c>
-      <c r="AN76" s="96">
-        <f t="shared" si="53"/>
-        <v>0.02</v>
-      </c>
-      <c r="AO76" s="96">
-        <f t="shared" si="54"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AP76" s="96">
-        <f t="shared" si="55"/>
-        <v>0.69</v>
-      </c>
-      <c r="AQ76" s="96">
-        <f t="shared" si="56"/>
-        <v>0.02</v>
-      </c>
-      <c r="AR76" s="96">
-        <f t="shared" si="57"/>
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:44">
       <c r="A77" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -31570,7 +31833,7 @@
     </row>
     <row r="78" spans="1:44">
       <c r="A78" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B78" s="4">
         <v>2</v>
@@ -31591,7 +31854,7 @@
     </row>
     <row r="79" spans="1:44">
       <c r="A79" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B79" s="4">
         <v>3</v>
@@ -31612,7 +31875,7 @@
     </row>
     <row r="80" spans="1:44">
       <c r="A80" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B80" s="4">
         <v>4</v>
@@ -31633,7 +31896,7 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" s="4">
         <v>5</v>
@@ -31654,7 +31917,7 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B82" s="4">
         <v>6</v>
@@ -31675,7 +31938,7 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -31697,7 +31960,7 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B84" s="4">
         <v>2</v>
@@ -31718,7 +31981,7 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B85" s="4">
         <v>3</v>
@@ -31739,7 +32002,7 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B86" s="4">
         <v>4</v>
@@ -31760,7 +32023,7 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B87" s="4">
         <v>5</v>
@@ -31781,7 +32044,7 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B88" s="4">
         <v>6</v>
@@ -31802,7 +32065,7 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -31823,7 +32086,7 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B90" s="4">
         <v>2</v>
@@ -31844,7 +32107,7 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B91" s="4">
         <v>3</v>
@@ -31865,7 +32128,7 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B92" s="4">
         <v>4</v>
@@ -31886,7 +32149,7 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B93" s="4">
         <v>5</v>
@@ -31907,7 +32170,7 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" s="4">
         <v>6</v>
@@ -31934,13 +32197,13 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S96" s="4"/>
     </row>
@@ -31971,11 +32234,11 @@
         <v>2</v>
       </c>
       <c r="B98" s="95">
-        <f t="shared" ref="B98:B102" si="58">E98-0*E98</f>
+        <f t="shared" ref="B98:B102" si="41">E98-0*E98</f>
         <v>0.25</v>
       </c>
       <c r="C98" s="95">
-        <f t="shared" ref="C98:C102" si="59">F98-0*F98</f>
+        <f t="shared" ref="C98:C102" si="42">F98-0*F98</f>
         <v>0.25</v>
       </c>
       <c r="E98" s="95">
@@ -31993,11 +32256,11 @@
         <v>3</v>
       </c>
       <c r="B99" s="95">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>0.25</v>
       </c>
       <c r="C99" s="95">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>0.25</v>
       </c>
       <c r="E99" s="95">
@@ -32015,11 +32278,11 @@
         <v>4</v>
       </c>
       <c r="B100" s="95">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>0.25</v>
       </c>
       <c r="C100" s="95">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>0.25</v>
       </c>
       <c r="E100" s="95">
@@ -32037,11 +32300,11 @@
         <v>5</v>
       </c>
       <c r="B101" s="95">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>0.15</v>
       </c>
       <c r="C101" s="95">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>0.15</v>
       </c>
       <c r="E101" s="95">
@@ -32059,11 +32322,11 @@
         <v>6</v>
       </c>
       <c r="B102" s="95">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="C102" s="95">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E102" s="95">
@@ -32083,22 +32346,22 @@
     </row>
     <row r="104" spans="1:19" hidden="1">
       <c r="A104" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B104" s="4"/>
-      <c r="C104" s="154" t="s">
-        <v>163</v>
-      </c>
-      <c r="D104" s="154"/>
-      <c r="E104" s="154"/>
+      <c r="C104" s="147" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="147"/>
+      <c r="E104" s="147"/>
       <c r="G104" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:19" hidden="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>55</v>
@@ -32121,7 +32384,7 @@
     </row>
     <row r="106" spans="1:19" hidden="1">
       <c r="A106" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B106" s="4">
         <v>1</v>
@@ -32153,7 +32416,7 @@
     </row>
     <row r="107" spans="1:19" hidden="1">
       <c r="A107" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B107" s="4">
         <v>2</v>
@@ -32185,7 +32448,7 @@
     </row>
     <row r="108" spans="1:19" hidden="1">
       <c r="A108" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B108" s="4">
         <v>3</v>
@@ -32217,7 +32480,7 @@
     </row>
     <row r="109" spans="1:19" hidden="1">
       <c r="A109" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B109" s="4">
         <v>4</v>
@@ -32249,7 +32512,7 @@
     </row>
     <row r="110" spans="1:19" hidden="1">
       <c r="A110" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B110" s="4">
         <v>5</v>
@@ -32281,7 +32544,7 @@
     </row>
     <row r="111" spans="1:19" hidden="1">
       <c r="A111" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111" s="4">
         <v>6</v>
@@ -32313,7 +32576,7 @@
     </row>
     <row r="112" spans="1:19" hidden="1">
       <c r="A112" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" s="4">
         <v>1</v>
@@ -32345,7 +32608,7 @@
     </row>
     <row r="113" spans="1:9" hidden="1">
       <c r="A113" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113" s="4">
         <v>2</v>
@@ -32377,7 +32640,7 @@
     </row>
     <row r="114" spans="1:9" hidden="1">
       <c r="A114" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B114" s="4">
         <v>3</v>
@@ -32409,7 +32672,7 @@
     </row>
     <row r="115" spans="1:9" hidden="1">
       <c r="A115" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115" s="4">
         <v>4</v>
@@ -32441,7 +32704,7 @@
     </row>
     <row r="116" spans="1:9" hidden="1">
       <c r="A116" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B116" s="4">
         <v>5</v>
@@ -32473,7 +32736,7 @@
     </row>
     <row r="117" spans="1:9" hidden="1">
       <c r="A117" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B117" s="4">
         <v>6</v>
@@ -32511,19 +32774,19 @@
     <row r="119" spans="1:9" hidden="1"/>
     <row r="120" spans="1:9" hidden="1">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B120" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120" t="s">
         <v>115</v>
       </c>
-      <c r="C120" t="s">
-        <v>117</v>
-      </c>
       <c r="D120" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F120" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1">
@@ -32540,10 +32803,10 @@
         <v>#REF!</v>
       </c>
       <c r="G121" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H121" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1">
@@ -32560,7 +32823,7 @@
         <v>#REF!</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G122" t="e">
         <f>#REF!</f>
@@ -32585,7 +32848,7 @@
         <v>#REF!</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G123" t="e">
         <f>#REF!</f>
@@ -32610,7 +32873,7 @@
         <v>#REF!</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G124" t="e">
         <f>#REF!</f>
@@ -32635,7 +32898,7 @@
         <v>#REF!</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G125" t="e">
         <f>#REF!</f>
@@ -32665,24 +32928,24 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="4"/>
       <c r="B130" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2">
         <f>Prev_Pop_Initialisation!C3</f>
@@ -32696,7 +32959,7 @@
     <row r="131" spans="1:7">
       <c r="A131" s="4"/>
       <c r="B131" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C131" s="2">
         <f>Prev_Pop_Initialisation!C4</f>
@@ -32710,7 +32973,7 @@
     <row r="132" spans="1:7">
       <c r="A132" s="4"/>
       <c r="B132" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C132" s="2">
         <f>Prev_Pop_Initialisation!C5</f>
@@ -32724,7 +32987,7 @@
     <row r="133" spans="1:7">
       <c r="A133" s="4"/>
       <c r="B133" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C133" s="2">
         <f>Prev_Pop_Initialisation!C6</f>
@@ -32737,7 +33000,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="B134" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C134" s="2">
         <f>Prev_Pop_Initialisation!C7</f>
@@ -32750,7 +33013,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="B135" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C135" s="2">
         <f>Prev_Pop_Initialisation!C8</f>
@@ -32763,7 +33026,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="B136" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C136" s="2">
         <f>Prev_Pop_Initialisation!C9</f>
@@ -32776,7 +33039,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="B137" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2">
         <f>Prev_Pop_Initialisation!C10</f>
@@ -32789,7 +33052,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="B138" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C138" s="2">
         <f>Prev_Pop_Initialisation!C11</f>
@@ -32802,7 +33065,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="B139" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C139" s="2">
         <f>Prev_Pop_Initialisation!C12</f>
@@ -32815,7 +33078,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="B140" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C140" s="2">
         <f>Prev_Pop_Initialisation!C13</f>
@@ -32828,7 +33091,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="B141" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C141" s="2">
         <f>Prev_Pop_Initialisation!C14</f>
@@ -32853,14 +33116,14 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:7">
       <c r="B144" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C144" s="2">
         <f>Prev_Pop_Initialisation!C17</f>
@@ -32873,7 +33136,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="B145" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C145" s="2">
         <f>Prev_Pop_Initialisation!C18</f>
@@ -32886,7 +33149,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="B146" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C146" s="2">
         <f>Prev_Pop_Initialisation!C19</f>
@@ -32899,7 +33162,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="B147" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C147" s="2">
         <f>Prev_Pop_Initialisation!C20</f>
@@ -32912,7 +33175,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="B148" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C148" s="2">
         <f>Prev_Pop_Initialisation!C21</f>
@@ -32925,7 +33188,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="B149" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C149" s="2">
         <f>Prev_Pop_Initialisation!C22</f>
@@ -32938,7 +33201,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="B150" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C150" s="2">
         <f>Prev_Pop_Initialisation!C23</f>
@@ -32951,7 +33214,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="B151" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C151" s="2">
         <f>Prev_Pop_Initialisation!C24</f>
@@ -32964,7 +33227,7 @@
     </row>
     <row r="152" spans="1:7">
       <c r="B152" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C152" s="2">
         <f>Prev_Pop_Initialisation!C25</f>
@@ -32977,7 +33240,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="B153" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C153" s="2">
         <f>Prev_Pop_Initialisation!C26</f>
@@ -32990,7 +33253,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="B154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C154" s="2">
         <f>Prev_Pop_Initialisation!C27</f>
@@ -33003,7 +33266,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="B155" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C155" s="2">
         <f>Prev_Pop_Initialisation!C28</f>
@@ -33028,14 +33291,14 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:7">
       <c r="B158" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C158" s="2">
         <f>Prev_Pop_Initialisation!C31</f>
@@ -33048,7 +33311,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="B159" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C159" s="2">
         <f>Prev_Pop_Initialisation!C32</f>
@@ -33061,7 +33324,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="B160" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C160" s="2">
         <f>Prev_Pop_Initialisation!C33</f>
@@ -33074,7 +33337,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="B161" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C161" s="2">
         <f>Prev_Pop_Initialisation!C34</f>
@@ -33087,7 +33350,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="B162" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C162" s="2">
         <f>Prev_Pop_Initialisation!C35</f>
@@ -33100,7 +33363,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="B163" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C163" s="2">
         <f>Prev_Pop_Initialisation!C36</f>
@@ -33113,7 +33376,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="B164" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C164" s="2">
         <f>Prev_Pop_Initialisation!C37</f>
@@ -33126,7 +33389,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="B165" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C165" s="2">
         <f>Prev_Pop_Initialisation!C38</f>
@@ -33139,7 +33402,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="B166" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C166" s="2">
         <f>Prev_Pop_Initialisation!C39</f>
@@ -33152,7 +33415,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="B167" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C167" s="2">
         <f>Prev_Pop_Initialisation!C40</f>
@@ -33165,7 +33428,7 @@
     </row>
     <row r="168" spans="1:7">
       <c r="B168" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C168" s="2">
         <f>Prev_Pop_Initialisation!C41</f>
@@ -33178,7 +33441,7 @@
     </row>
     <row r="169" spans="1:7">
       <c r="B169" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C169" s="2">
         <f>Prev_Pop_Initialisation!C42</f>
@@ -33203,14 +33466,14 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
     <row r="172" spans="1:7">
       <c r="B172" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C172" s="2">
         <f>Prev_Pop_Initialisation!C45</f>
@@ -33223,7 +33486,7 @@
     </row>
     <row r="173" spans="1:7">
       <c r="B173" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C173" s="2">
         <f>Prev_Pop_Initialisation!C46</f>
@@ -33236,7 +33499,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="B174" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C174" s="2">
         <f>Prev_Pop_Initialisation!C47</f>
@@ -33249,7 +33512,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="B175" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C175" s="2">
         <f>Prev_Pop_Initialisation!C48</f>
@@ -33262,7 +33525,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="B176" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C176" s="2">
         <f>Prev_Pop_Initialisation!C49</f>
@@ -33275,7 +33538,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="B177" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C177" s="2">
         <f>Prev_Pop_Initialisation!C50</f>
@@ -33288,7 +33551,7 @@
     </row>
     <row r="178" spans="1:7">
       <c r="B178" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C178" s="2">
         <f>Prev_Pop_Initialisation!C51</f>
@@ -33301,7 +33564,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="B179" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C179" s="2">
         <f>Prev_Pop_Initialisation!C52</f>
@@ -33314,7 +33577,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="B180" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C180" s="2">
         <f>Prev_Pop_Initialisation!C53</f>
@@ -33327,7 +33590,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="B181" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C181" s="2">
         <f>Prev_Pop_Initialisation!C54</f>
@@ -33340,7 +33603,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="B182" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C182" s="2">
         <f>Prev_Pop_Initialisation!C55</f>
@@ -33353,7 +33616,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="B183" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C183" s="2">
         <f>Prev_Pop_Initialisation!C56</f>
@@ -33378,14 +33641,14 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
     <row r="186" spans="1:7">
       <c r="B186" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C186" s="2">
         <f>Prev_Pop_Initialisation!C59</f>
@@ -33398,7 +33661,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="B187" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C187" s="2">
         <f>Prev_Pop_Initialisation!C60</f>
@@ -33411,7 +33674,7 @@
     </row>
     <row r="188" spans="1:7">
       <c r="B188" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C188" s="2">
         <f>Prev_Pop_Initialisation!C61</f>
@@ -33424,7 +33687,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="B189" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C189" s="2">
         <f>Prev_Pop_Initialisation!C62</f>
@@ -33437,7 +33700,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="B190" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C190" s="2">
         <f>Prev_Pop_Initialisation!C63</f>
@@ -33450,7 +33713,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="B191" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C191" s="2">
         <f>Prev_Pop_Initialisation!C64</f>
@@ -33463,7 +33726,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="B192" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C192" s="2">
         <f>Prev_Pop_Initialisation!C65</f>
@@ -33476,7 +33739,7 @@
     </row>
     <row r="193" spans="1:7">
       <c r="B193" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C193" s="2">
         <f>Prev_Pop_Initialisation!C66</f>
@@ -33489,7 +33752,7 @@
     </row>
     <row r="194" spans="1:7">
       <c r="B194" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C194" s="2">
         <f>Prev_Pop_Initialisation!C67</f>
@@ -33502,7 +33765,7 @@
     </row>
     <row r="195" spans="1:7">
       <c r="B195" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C195" s="2">
         <f>Prev_Pop_Initialisation!C68</f>
@@ -33515,7 +33778,7 @@
     </row>
     <row r="196" spans="1:7">
       <c r="B196" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C196" s="2">
         <f>Prev_Pop_Initialisation!C69</f>
@@ -33528,7 +33791,7 @@
     </row>
     <row r="197" spans="1:7">
       <c r="B197" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C197" s="2">
         <f>Prev_Pop_Initialisation!C70</f>
@@ -33553,14 +33816,14 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
     </row>
     <row r="200" spans="1:7">
       <c r="B200" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C200" s="2">
         <f>Prev_Pop_Initialisation!C73</f>
@@ -33573,7 +33836,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="B201" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C201" s="2">
         <f>Prev_Pop_Initialisation!C74</f>
@@ -33586,7 +33849,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="B202" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C202" s="2">
         <f>Prev_Pop_Initialisation!C75</f>
@@ -33599,7 +33862,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="B203" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C203" s="2">
         <f>Prev_Pop_Initialisation!C76</f>
@@ -33612,7 +33875,7 @@
     </row>
     <row r="204" spans="1:7">
       <c r="B204" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C204" s="2">
         <f>Prev_Pop_Initialisation!C77</f>
@@ -33625,7 +33888,7 @@
     </row>
     <row r="205" spans="1:7">
       <c r="B205" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C205" s="2">
         <f>Prev_Pop_Initialisation!C78</f>
@@ -33638,7 +33901,7 @@
     </row>
     <row r="206" spans="1:7">
       <c r="B206" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C206" s="2">
         <f>Prev_Pop_Initialisation!C79</f>
@@ -33651,7 +33914,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="B207" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C207" s="2">
         <f>Prev_Pop_Initialisation!C80</f>
@@ -33664,7 +33927,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="B208" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C208" s="2">
         <f>Prev_Pop_Initialisation!C81</f>
@@ -33677,7 +33940,7 @@
     </row>
     <row r="209" spans="1:16">
       <c r="B209" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C209" s="2">
         <f>Prev_Pop_Initialisation!C82</f>
@@ -33690,7 +33953,7 @@
     </row>
     <row r="210" spans="1:16">
       <c r="B210" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C210" s="2">
         <f>Prev_Pop_Initialisation!C83</f>
@@ -33703,7 +33966,7 @@
     </row>
     <row r="211" spans="1:16">
       <c r="B211" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C211" s="2">
         <f>Prev_Pop_Initialisation!C84</f>
@@ -33724,7 +33987,7 @@
     </row>
     <row r="212" spans="1:16">
       <c r="B212" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C212">
         <f>SUM(C130:C211)</f>
@@ -33774,7 +34037,7 @@
         <v>#REF!</v>
       </c>
       <c r="J214" s="85" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K214" s="85" t="e">
         <f>#REF!</f>
@@ -33966,12 +34229,12 @@
     </row>
     <row r="233" spans="1:7" ht="15" thickBot="1">
       <c r="A233" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="99" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B234" s="2">
         <v>1</v>
@@ -33979,7 +34242,7 @@
     </row>
     <row r="235" spans="1:7" ht="15" thickBot="1">
       <c r="A235" s="100" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B235" s="2">
         <v>1</v>
@@ -33990,18 +34253,18 @@
     </row>
     <row r="237" spans="1:7" ht="15" thickBot="1">
       <c r="A237" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B238" s="2">
         <v>1</v>
@@ -34012,7 +34275,7 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B239" s="2">
         <v>1</v>
@@ -34023,7 +34286,7 @@
     </row>
     <row r="240" spans="1:7" ht="15" thickBot="1">
       <c r="A240" s="94" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B240" s="2">
         <v>1</v>
@@ -34034,45 +34297,45 @@
     </row>
     <row r="242" spans="1:3" hidden="1">
       <c r="A242" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="243" spans="1:3" hidden="1">
       <c r="A243" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B243" s="87">
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="244" spans="1:3" hidden="1">
       <c r="A244" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B244" s="87">
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="15" thickBot="1">
       <c r="A245" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B246" s="2">
         <v>1</v>
@@ -34083,7 +34346,7 @@
     </row>
     <row r="247" spans="1:3" ht="15" thickBot="1">
       <c r="A247" s="94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B247" s="2">
         <v>1</v>
@@ -34094,18 +34357,18 @@
     </row>
     <row r="249" spans="1:3" ht="15" thickBot="1">
       <c r="A249" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B250" s="2">
         <v>1</v>
@@ -34116,7 +34379,7 @@
     </row>
     <row r="251" spans="1:3" ht="15" thickBot="1">
       <c r="A251" s="94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B251" s="2">
         <v>1</v>
@@ -34127,11 +34390,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AI69"/>
-    <mergeCell ref="AJ69:AL69"/>
-    <mergeCell ref="AM69:AO69"/>
-    <mergeCell ref="AP69:AR69"/>
     <mergeCell ref="C104:E104"/>
     <mergeCell ref="P45:AB45"/>
     <mergeCell ref="B69:E69"/>
@@ -34146,6 +34404,11 @@
     <mergeCell ref="U69:W69"/>
     <mergeCell ref="X69:Z69"/>
     <mergeCell ref="AA69:AC69"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AI69"/>
+    <mergeCell ref="AJ69:AL69"/>
+    <mergeCell ref="AM69:AO69"/>
+    <mergeCell ref="AP69:AR69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -34157,10 +34420,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="C14:AJ93"/>
+  <dimension ref="C14:AJ92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15"/>
@@ -34257,32 +34520,32 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="3:24" s="12" customFormat="1" ht="58.95" customHeight="1">
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="113" t="s">
+      <c r="N18" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
     </row>
     <row r="19" spans="3:24" s="15" customFormat="1" ht="6.6" customHeight="1">
       <c r="C19" s="13"/>
@@ -34314,27 +34577,27 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="120" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
+      <c r="F20" s="136" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
       <c r="M20" s="6"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="121"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="121"/>
-      <c r="X20" s="121"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
     </row>
     <row r="21" spans="3:24" ht="16.8">
       <c r="C21" s="6" t="s">
@@ -34342,15 +34605,15 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
+      <c r="F21" s="136" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
         <v>6</v>
@@ -34358,15 +34621,15 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="122">
+      <c r="R21" s="138">
         <v>2023</v>
       </c>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="124"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="140"/>
     </row>
     <row r="22" spans="3:24" ht="16.8" hidden="1" customHeight="1">
       <c r="C22" s="6" t="s">
@@ -34374,15 +34637,15 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="120" t="s">
+      <c r="F22" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="3:24" ht="16.8">
@@ -34391,15 +34654,15 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="120" t="s">
+      <c r="F23" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
         <v>11</v>
@@ -34407,15 +34670,15 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="125">
+      <c r="R23" s="141">
         <v>2035</v>
       </c>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="127"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="142"/>
+      <c r="U23" s="142"/>
+      <c r="V23" s="142"/>
+      <c r="W23" s="142"/>
+      <c r="X23" s="143"/>
     </row>
     <row r="24" spans="3:24" ht="16.8">
       <c r="C24" s="54"/>
@@ -34460,15 +34723,15 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="8"/>
-      <c r="T25" s="128" t="s">
+      <c r="T25" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="U25" s="128"/>
-      <c r="V25" s="129" t="s">
+      <c r="U25" s="129"/>
+      <c r="V25" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="W25" s="130"/>
-      <c r="X25" s="130"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
     </row>
     <row r="26" spans="3:24" ht="16.8" hidden="1" customHeight="1">
       <c r="C26" s="6"/>
@@ -34489,17 +34752,17 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="T26" s="114">
+      <c r="T26" s="130">
         <f>G48</f>
         <v>0.02</v>
       </c>
-      <c r="U26" s="115"/>
-      <c r="V26" s="116">
+      <c r="U26" s="131"/>
+      <c r="V26" s="132">
         <f>K48</f>
         <v>0</v>
       </c>
-      <c r="W26" s="117"/>
-      <c r="X26" s="118"/>
+      <c r="W26" s="133"/>
+      <c r="X26" s="134"/>
     </row>
     <row r="27" spans="3:24" ht="16.8" hidden="1" customHeight="1">
       <c r="C27" s="6"/>
@@ -34521,17 +34784,17 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="T27" s="114">
+      <c r="T27" s="130">
         <f>G49</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="U27" s="115"/>
-      <c r="V27" s="116">
+      <c r="U27" s="131"/>
+      <c r="V27" s="132">
         <f>K49</f>
         <v>0</v>
       </c>
-      <c r="W27" s="117"/>
-      <c r="X27" s="118"/>
+      <c r="W27" s="133"/>
+      <c r="X27" s="134"/>
     </row>
     <row r="28" spans="3:24" ht="16.8" hidden="1" customHeight="1">
       <c r="C28" s="6"/>
@@ -34553,17 +34816,17 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="T28" s="114" t="e">
+      <c r="T28" s="130" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U28" s="115"/>
-      <c r="V28" s="116" t="e">
+      <c r="U28" s="131"/>
+      <c r="V28" s="132" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="W28" s="117"/>
-      <c r="X28" s="118"/>
+      <c r="W28" s="133"/>
+      <c r="X28" s="134"/>
     </row>
     <row r="29" spans="3:24" ht="16.8" hidden="1" customHeight="1">
       <c r="C29" s="6"/>
@@ -34585,17 +34848,17 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="T29" s="114" t="e">
+      <c r="T29" s="130" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U29" s="115"/>
-      <c r="V29" s="116" t="e">
+      <c r="U29" s="131"/>
+      <c r="V29" s="132" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="W29" s="117"/>
-      <c r="X29" s="118"/>
+      <c r="W29" s="133"/>
+      <c r="X29" s="134"/>
     </row>
     <row r="30" spans="3:24" ht="16.8" hidden="1" customHeight="1">
       <c r="C30" s="6"/>
@@ -34610,24 +34873,24 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6" t="str">
-        <f>C72</f>
-        <v>Change in probability of receiving a transplant</v>
+        <f>C71</f>
+        <v>Relative change in probability of receiving a transplant</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="T30" s="114">
-        <f>G72</f>
+      <c r="T30" s="130">
+        <f>G71</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="U30" s="115"/>
-      <c r="V30" s="116">
-        <f>K72</f>
+      <c r="U30" s="131"/>
+      <c r="V30" s="132">
+        <f>K71</f>
         <v>0</v>
       </c>
-      <c r="W30" s="117"/>
-      <c r="X30" s="118"/>
+      <c r="W30" s="133"/>
+      <c r="X30" s="134"/>
     </row>
     <row r="31" spans="3:24" ht="16.8" hidden="1" customHeight="1">
       <c r="C31" s="6"/>
@@ -34642,24 +34905,24 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6" t="str">
-        <f>C73</f>
-        <v>Change in probability of (early patient) pre-emptive live transplant</v>
+        <f>C72</f>
+        <v>Relative change in probability of (early patient) pre-emptive live transplant</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="T31" s="131">
-        <f>G73</f>
+      <c r="T31" s="122">
+        <f>G72</f>
         <v>0.3</v>
       </c>
-      <c r="U31" s="132"/>
-      <c r="V31" s="133">
-        <f>K73</f>
+      <c r="U31" s="123"/>
+      <c r="V31" s="124">
+        <f>K72</f>
         <v>0</v>
       </c>
-      <c r="W31" s="134"/>
-      <c r="X31" s="135"/>
+      <c r="W31" s="125"/>
+      <c r="X31" s="126"/>
     </row>
     <row r="32" spans="3:24" ht="16.8">
       <c r="C32" s="6"/>
@@ -34686,7 +34949,7 @@
     </row>
     <row r="33" spans="3:36" ht="24.6">
       <c r="C33" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -34734,18 +34997,18 @@
       <c r="X34" s="76"/>
     </row>
     <row r="35" spans="3:36" ht="39.6" customHeight="1">
-      <c r="C35" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
+      <c r="C35" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -34763,25 +35026,25 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="138" t="s">
-        <v>139</v>
-      </c>
-      <c r="H36" s="138"/>
-      <c r="I36" s="128" t="s">
+      <c r="G36" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="110"/>
+      <c r="I36" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="128"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="128"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="128"/>
-      <c r="U36" s="128"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="129"/>
       <c r="V36" s="76"/>
       <c r="W36" s="76"/>
       <c r="X36" s="76"/>
@@ -34791,8 +35054,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
       <c r="I37" s="78">
         <v>2023</v>
       </c>
@@ -34838,15 +35101,15 @@
     </row>
     <row r="38" spans="3:36" ht="16.8">
       <c r="C38" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="136">
+      <c r="G38" s="127">
         <v>1</v>
       </c>
-      <c r="H38" s="137"/>
+      <c r="H38" s="128"/>
       <c r="I38" s="80"/>
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
@@ -34952,7 +35215,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="6"/>
       <c r="Y42" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Z42" s="10"/>
       <c r="AA42" s="10"/>
@@ -34992,33 +35255,33 @@
       <c r="AJ43" s="6"/>
     </row>
     <row r="44" spans="3:36" ht="71.400000000000006" customHeight="1">
-      <c r="C44" s="113" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
+      <c r="C44" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="118"/>
       <c r="M44" s="18"/>
-      <c r="Y44" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z44" s="113"/>
-      <c r="AA44" s="113"/>
-      <c r="AB44" s="113"/>
-      <c r="AC44" s="113"/>
-      <c r="AD44" s="113"/>
-      <c r="AE44" s="113"/>
-      <c r="AF44" s="113"/>
-      <c r="AG44" s="113"/>
-      <c r="AH44" s="113"/>
-      <c r="AI44" s="113"/>
-      <c r="AJ44" s="113"/>
+      <c r="Y44" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z44" s="118"/>
+      <c r="AA44" s="118"/>
+      <c r="AB44" s="118"/>
+      <c r="AC44" s="118"/>
+      <c r="AD44" s="118"/>
+      <c r="AE44" s="118"/>
+      <c r="AF44" s="118"/>
+      <c r="AG44" s="118"/>
+      <c r="AH44" s="118"/>
+      <c r="AI44" s="118"/>
+      <c r="AJ44" s="118"/>
     </row>
     <row r="45" spans="3:36" ht="15" customHeight="1">
       <c r="C45" s="60"/>
@@ -35038,25 +35301,25 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="138" t="s">
+      <c r="G46" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="138"/>
-      <c r="I46" s="149" t="s">
+      <c r="H46" s="110"/>
+      <c r="I46" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="J46" s="149"/>
-      <c r="K46" s="149"/>
-      <c r="L46" s="149"/>
-      <c r="M46" s="149"/>
-      <c r="N46" s="149"/>
-      <c r="O46" s="149"/>
-      <c r="P46" s="149"/>
-      <c r="Q46" s="149"/>
-      <c r="R46" s="149"/>
-      <c r="S46" s="149"/>
-      <c r="T46" s="149"/>
-      <c r="U46" s="149"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="109"/>
+      <c r="N46" s="109"/>
+      <c r="O46" s="109"/>
+      <c r="P46" s="109"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="109"/>
+      <c r="U46" s="109"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
@@ -35078,8 +35341,8 @@
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
       <c r="I47">
         <f>R21</f>
         <v>2023</v>
@@ -35155,11 +35418,11 @@
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="152">
+      <c r="G48" s="116">
         <f>modAllocation!D1</f>
         <v>0.02</v>
       </c>
-      <c r="H48" s="153"/>
+      <c r="H48" s="117"/>
       <c r="I48" s="84"/>
       <c r="J48" s="84"/>
       <c r="K48" s="84"/>
@@ -35184,11 +35447,11 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="152">
+      <c r="G49" s="116">
         <f>modAllocation!E1</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="H49" s="153"/>
+      <c r="H49" s="117"/>
       <c r="I49" s="84"/>
       <c r="J49" s="84"/>
       <c r="K49" s="84"/>
@@ -35307,18 +35570,18 @@
       <c r="X53" s="6"/>
     </row>
     <row r="54" spans="3:24" ht="57.6" customHeight="1">
-      <c r="C54" s="113" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="113"/>
+      <c r="C54" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="118"/>
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
       <c r="O54" s="6"/>
@@ -35361,25 +35624,25 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="138" t="s">
+      <c r="G56" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="138"/>
-      <c r="I56" s="149" t="s">
+      <c r="H56" s="110"/>
+      <c r="I56" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="149"/>
-      <c r="K56" s="149"/>
-      <c r="L56" s="149"/>
-      <c r="M56" s="149"/>
-      <c r="N56" s="149"/>
-      <c r="O56" s="149"/>
-      <c r="P56" s="149"/>
-      <c r="Q56" s="149"/>
-      <c r="R56" s="149"/>
-      <c r="S56" s="149"/>
-      <c r="T56" s="149"/>
-      <c r="U56" s="149"/>
+      <c r="J56" s="109"/>
+      <c r="K56" s="109"/>
+      <c r="L56" s="109"/>
+      <c r="M56" s="109"/>
+      <c r="N56" s="109"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="109"/>
+      <c r="Q56" s="109"/>
+      <c r="R56" s="109"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="109"/>
+      <c r="U56" s="109"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
@@ -35391,8 +35654,8 @@
       <c r="F57" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G57" s="139"/>
-      <c r="H57" s="139"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
       <c r="I57">
         <f>R21</f>
         <v>2023</v>
@@ -35458,11 +35721,11 @@
       <c r="F58" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="142">
+      <c r="G58" s="112">
         <f>divertToCC!C1</f>
         <v>0.1</v>
       </c>
-      <c r="H58" s="143"/>
+      <c r="H58" s="113"/>
       <c r="I58" s="84"/>
       <c r="J58" s="84"/>
       <c r="K58" s="84"/>
@@ -35487,11 +35750,11 @@
       <c r="F59" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G59" s="142">
+      <c r="G59" s="112">
         <f>divertToCC!C2</f>
         <v>0.1</v>
       </c>
-      <c r="H59" s="143"/>
+      <c r="H59" s="113"/>
       <c r="I59" s="84"/>
       <c r="J59" s="84"/>
       <c r="K59" s="84"/>
@@ -35516,11 +35779,11 @@
       <c r="F60" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="142">
+      <c r="G60" s="112">
         <f>divertToCC!C3</f>
         <v>0.1</v>
       </c>
-      <c r="H60" s="143"/>
+      <c r="H60" s="113"/>
       <c r="I60" s="84"/>
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
@@ -35545,11 +35808,11 @@
       <c r="F61" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="G61" s="142">
+      <c r="G61" s="112">
         <f>divertToCC!C4</f>
         <v>0.1</v>
       </c>
-      <c r="H61" s="143"/>
+      <c r="H61" s="113"/>
       <c r="I61" s="84"/>
       <c r="J61" s="84"/>
       <c r="K61" s="84"/>
@@ -35574,11 +35837,11 @@
       <c r="F62" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G62" s="142">
+      <c r="G62" s="112">
         <f>divertToCC!C5</f>
         <v>0.25</v>
       </c>
-      <c r="H62" s="143"/>
+      <c r="H62" s="113"/>
       <c r="I62" s="84"/>
       <c r="J62" s="84"/>
       <c r="K62" s="84"/>
@@ -35603,11 +35866,11 @@
       <c r="F63" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G63" s="142">
+      <c r="G63" s="112">
         <f>divertToCC!C6</f>
         <v>0.5</v>
       </c>
-      <c r="H63" s="143"/>
+      <c r="H63" s="113"/>
       <c r="I63" s="84"/>
       <c r="J63" s="84"/>
       <c r="K63" s="84"/>
@@ -35632,11 +35895,11 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="21"/>
-      <c r="G64" s="150">
+      <c r="G64" s="114">
         <f>referral_dist!B2</f>
         <v>0.2</v>
       </c>
-      <c r="H64" s="151"/>
+      <c r="H64" s="115"/>
       <c r="I64" s="84"/>
       <c r="J64" s="84"/>
       <c r="K64" s="84"/>
@@ -35723,18 +35986,18 @@
       <c r="U67" s="16"/>
     </row>
     <row r="68" spans="3:36" s="25" customFormat="1" ht="67.2" customHeight="1">
-      <c r="C68" s="144" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="144"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="144"/>
-      <c r="G68" s="144"/>
-      <c r="H68" s="144"/>
-      <c r="I68" s="144"/>
-      <c r="J68" s="144"/>
-      <c r="K68" s="144"/>
-      <c r="L68" s="144"/>
+      <c r="C68" s="191" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="191"/>
+      <c r="E68" s="191"/>
+      <c r="F68" s="191"/>
+      <c r="G68" s="191"/>
+      <c r="H68" s="191"/>
+      <c r="I68" s="191"/>
+      <c r="J68" s="191"/>
+      <c r="K68" s="191"/>
+      <c r="L68" s="191"/>
       <c r="M68" s="103"/>
       <c r="N68" s="103"/>
       <c r="O68" s="16"/>
@@ -35745,150 +36008,155 @@
       <c r="T68" s="16"/>
       <c r="U68" s="16"/>
     </row>
-    <row r="69" spans="3:36" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="C69" s="105"/>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="105"/>
-      <c r="J69" s="105"/>
-      <c r="K69" s="105"/>
-      <c r="L69" s="105"/>
-      <c r="M69" s="103"/>
-      <c r="N69" s="103"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
+    <row r="69" spans="3:36" s="25" customFormat="1" ht="16.8">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="J69" s="109"/>
+      <c r="K69" s="109"/>
+      <c r="L69" s="109"/>
+      <c r="M69" s="109"/>
+      <c r="N69" s="109"/>
+      <c r="O69" s="109"/>
+      <c r="P69" s="109"/>
+      <c r="Q69" s="109"/>
+      <c r="R69" s="109"/>
+      <c r="S69" s="109"/>
+      <c r="T69" s="109"/>
+      <c r="U69" s="109"/>
     </row>
     <row r="70" spans="3:36" s="25" customFormat="1" ht="16.8">
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="149" t="s">
-        <v>143</v>
-      </c>
-      <c r="J70" s="149"/>
-      <c r="K70" s="149"/>
-      <c r="L70" s="149"/>
-      <c r="M70" s="149"/>
-      <c r="N70" s="149"/>
-      <c r="O70" s="149"/>
-      <c r="P70" s="149"/>
-      <c r="Q70" s="149"/>
-      <c r="R70" s="149"/>
-      <c r="S70" s="149"/>
-      <c r="T70" s="149"/>
-      <c r="U70" s="149"/>
-    </row>
-    <row r="71" spans="3:36" s="25" customFormat="1" ht="16.8">
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="146" t="s">
+      <c r="G70" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H71" s="146"/>
-      <c r="I71">
+      <c r="H70" s="121"/>
+      <c r="I70">
         <f>R21</f>
         <v>2023</v>
       </c>
-      <c r="J71">
-        <f>I71+1</f>
+      <c r="J70">
+        <f>I70+1</f>
         <v>2024</v>
       </c>
-      <c r="K71">
-        <f t="shared" ref="K71:U71" si="2">J71+1</f>
+      <c r="K70">
+        <f t="shared" ref="K70:U70" si="2">J70+1</f>
         <v>2025</v>
       </c>
-      <c r="L71">
+      <c r="L70">
         <f t="shared" si="2"/>
         <v>2026</v>
       </c>
-      <c r="M71">
+      <c r="M70">
         <f t="shared" si="2"/>
         <v>2027</v>
       </c>
-      <c r="N71">
+      <c r="N70">
         <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="O71">
+      <c r="O70">
         <f t="shared" si="2"/>
         <v>2029</v>
       </c>
-      <c r="P71">
+      <c r="P70">
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
-      <c r="Q71">
+      <c r="Q70">
         <f t="shared" si="2"/>
         <v>2031</v>
       </c>
-      <c r="R71">
+      <c r="R70">
         <f t="shared" si="2"/>
         <v>2032</v>
       </c>
-      <c r="S71">
+      <c r="S70">
         <f t="shared" si="2"/>
         <v>2033</v>
       </c>
-      <c r="T71">
+      <c r="T70">
         <f t="shared" si="2"/>
         <v>2034</v>
       </c>
-      <c r="U71">
+      <c r="U70">
         <f t="shared" si="2"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="72" spans="3:36" s="25" customFormat="1" ht="16.8" hidden="1">
-      <c r="C72" s="108" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="109"/>
-      <c r="G72" s="147">
+    <row r="71" spans="3:36" s="25" customFormat="1" ht="16.8">
+      <c r="C71" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="194"/>
+      <c r="E71" s="194"/>
+      <c r="F71" s="195"/>
+      <c r="G71" s="193">
         <f>AVERAGE(receivesTx!B1:B6)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H72" s="147"/>
-      <c r="I72" s="106"/>
-      <c r="J72" s="106"/>
-      <c r="K72" s="106"/>
-      <c r="L72" s="106"/>
-      <c r="M72" s="106"/>
-      <c r="N72" s="106"/>
-      <c r="O72" s="106"/>
-      <c r="P72" s="106"/>
-      <c r="Q72" s="106"/>
-      <c r="R72" s="106"/>
-      <c r="S72" s="106"/>
-      <c r="T72" s="106"/>
-      <c r="U72" s="106"/>
+      <c r="H71" s="193"/>
+      <c r="I71" s="196"/>
+      <c r="J71" s="196"/>
+      <c r="K71" s="196"/>
+      <c r="L71" s="196"/>
+      <c r="M71" s="196"/>
+      <c r="N71" s="196"/>
+      <c r="O71" s="196"/>
+      <c r="P71" s="196"/>
+      <c r="Q71" s="196"/>
+      <c r="R71" s="196"/>
+      <c r="S71" s="196"/>
+      <c r="T71" s="196"/>
+      <c r="U71" s="196"/>
+    </row>
+    <row r="72" spans="3:36" s="25" customFormat="1" ht="16.8">
+      <c r="C72" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="192">
+        <f xml:space="preserve"> AVERAGE(preE_Tx_Live!C1:C6)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H72" s="192"/>
+      <c r="I72" s="104"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="104"/>
+      <c r="L72" s="104"/>
+      <c r="M72" s="104"/>
+      <c r="N72" s="104"/>
+      <c r="O72" s="104"/>
+      <c r="P72" s="104"/>
+      <c r="Q72" s="104"/>
+      <c r="R72" s="104"/>
+      <c r="S72" s="104"/>
+      <c r="T72" s="104"/>
+      <c r="U72" s="104"/>
     </row>
     <row r="73" spans="3:36" s="25" customFormat="1" ht="16.8">
-      <c r="C73" s="16" t="s">
-        <v>102</v>
+      <c r="C73" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="145">
-        <f xml:space="preserve"> AVERAGE(preE_Tx_Live!C1:C6)</f>
-        <v>0.3</v>
-      </c>
-      <c r="H73" s="145"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="193">
+        <f>AVERAGE(preE_Tx_Cadav!C1:C6)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="H73" s="193"/>
       <c r="I73" s="104"/>
       <c r="J73" s="104"/>
       <c r="K73" s="104"/>
@@ -35903,367 +36171,362 @@
       <c r="T73" s="104"/>
       <c r="U73" s="104"/>
     </row>
-    <row r="74" spans="3:36" s="25" customFormat="1" ht="16.8">
-      <c r="C74" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="148">
-        <f>AVERAGE(preE_Tx_Cadav!C1:C6)</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="H74" s="148"/>
-      <c r="I74" s="104"/>
-      <c r="J74" s="104"/>
-      <c r="K74" s="104"/>
-      <c r="L74" s="104"/>
-      <c r="M74" s="104"/>
-      <c r="N74" s="104"/>
-      <c r="O74" s="104"/>
-      <c r="P74" s="104"/>
-      <c r="Q74" s="104"/>
-      <c r="R74" s="104"/>
-      <c r="S74" s="104"/>
-      <c r="T74" s="104"/>
-      <c r="U74" s="104"/>
-    </row>
-    <row r="75" spans="3:36" s="25" customFormat="1" ht="16.95" customHeight="1">
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="30" t="s">
+    <row r="74" spans="3:36" s="25" customFormat="1" ht="16.95" customHeight="1">
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="58"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-      <c r="AA75" s="9"/>
-      <c r="AB75" s="9"/>
-      <c r="AC75" s="9"/>
-      <c r="AD75" s="9"/>
-      <c r="AE75" s="9"/>
-      <c r="AF75" s="9"/>
-      <c r="AG75" s="9"/>
-      <c r="AH75" s="9"/>
-      <c r="AI75" s="9"/>
-      <c r="AJ75" s="9"/>
-    </row>
-    <row r="76" spans="3:36" ht="19.2">
-      <c r="C76" s="32" t="s">
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="58"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="9"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="9"/>
+      <c r="AJ74" s="9"/>
+    </row>
+    <row r="75" spans="3:36" ht="19.2">
+      <c r="C75" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="57" t="s">
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57">
+      <c r="G75" s="57"/>
+      <c r="H75" s="57">
         <f>IF(F23 = "New CKD Scenario", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="U75" s="58"/>
+    </row>
+    <row r="76" spans="3:36" ht="16.8">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
       <c r="U76" s="58"/>
     </row>
-    <row r="77" spans="3:36" ht="16.8">
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
+    <row r="77" spans="3:36" ht="15.6" customHeight="1">
+      <c r="C77" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="119"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="119"/>
+      <c r="G77" s="119"/>
+      <c r="H77" s="119"/>
+      <c r="I77" s="119"/>
+      <c r="J77" s="119"/>
+      <c r="K77" s="119"/>
+      <c r="L77" s="119"/>
+      <c r="M77" s="119"/>
+      <c r="N77" s="119"/>
+      <c r="O77" s="119"/>
+      <c r="P77" s="119"/>
+      <c r="Q77" s="119"/>
+      <c r="R77" s="119"/>
       <c r="U77" s="58"/>
     </row>
-    <row r="78" spans="3:36" ht="15.6" customHeight="1">
-      <c r="C78" s="140" t="s">
-        <v>185</v>
-      </c>
-      <c r="D78" s="140"/>
-      <c r="E78" s="140"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="140"/>
-      <c r="H78" s="140"/>
-      <c r="I78" s="140"/>
-      <c r="J78" s="140"/>
-      <c r="K78" s="140"/>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="140"/>
-      <c r="O78" s="140"/>
-      <c r="P78" s="140"/>
-      <c r="Q78" s="140"/>
-      <c r="R78" s="140"/>
+    <row r="78" spans="3:36" ht="16.8">
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
       <c r="U78" s="58"/>
     </row>
     <row r="79" spans="3:36" ht="16.8">
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
-      <c r="R79" s="25"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="81">
+        <v>2023</v>
+      </c>
+      <c r="G79" s="81">
+        <v>2024</v>
+      </c>
+      <c r="H79" s="81">
+        <v>2025</v>
+      </c>
+      <c r="I79" s="81">
+        <v>2026</v>
+      </c>
+      <c r="J79" s="81">
+        <v>2027</v>
+      </c>
+      <c r="K79" s="81">
+        <v>2028</v>
+      </c>
+      <c r="L79" s="81">
+        <v>2029</v>
+      </c>
+      <c r="M79" s="81">
+        <v>2030</v>
+      </c>
+      <c r="N79" s="81">
+        <v>2031</v>
+      </c>
+      <c r="O79" s="81">
+        <v>2032</v>
+      </c>
+      <c r="P79" s="81">
+        <v>2033</v>
+      </c>
+      <c r="Q79" s="81">
+        <v>2034</v>
+      </c>
+      <c r="R79" s="81">
+        <v>2035</v>
+      </c>
       <c r="S79" s="25"/>
+      <c r="T79"/>
       <c r="U79" s="58"/>
     </row>
     <row r="80" spans="3:36" ht="16.8">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="81">
-        <v>2023</v>
-      </c>
-      <c r="G80" s="81">
-        <v>2024</v>
-      </c>
-      <c r="H80" s="81">
-        <v>2025</v>
-      </c>
-      <c r="I80" s="81">
-        <v>2026</v>
-      </c>
-      <c r="J80" s="81">
-        <v>2027</v>
-      </c>
-      <c r="K80" s="81">
-        <v>2028</v>
-      </c>
-      <c r="L80" s="81">
-        <v>2029</v>
-      </c>
-      <c r="M80" s="81">
-        <v>2030</v>
-      </c>
-      <c r="N80" s="81">
-        <v>2031</v>
-      </c>
-      <c r="O80" s="81">
-        <v>2032</v>
-      </c>
-      <c r="P80" s="81">
-        <v>2033</v>
-      </c>
-      <c r="Q80" s="81">
-        <v>2034</v>
-      </c>
-      <c r="R80" s="81">
-        <v>2035</v>
+      <c r="C80" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="82">
+        <f>simPy_sheet!B5</f>
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="82">
+        <f>simPy_sheet!C5</f>
+        <v>0.5</v>
+      </c>
+      <c r="H80" s="82">
+        <f>simPy_sheet!D5</f>
+        <v>0.5</v>
+      </c>
+      <c r="I80" s="82">
+        <f>simPy_sheet!E5</f>
+        <v>0.5</v>
+      </c>
+      <c r="J80" s="82">
+        <f>simPy_sheet!F5</f>
+        <v>0.5</v>
+      </c>
+      <c r="K80" s="82">
+        <f>simPy_sheet!G5</f>
+        <v>0.5</v>
+      </c>
+      <c r="L80" s="82">
+        <f>simPy_sheet!H5</f>
+        <v>0.5</v>
+      </c>
+      <c r="M80" s="82">
+        <f>simPy_sheet!I5</f>
+        <v>0.5</v>
+      </c>
+      <c r="N80" s="82">
+        <f>simPy_sheet!J5</f>
+        <v>0.5</v>
+      </c>
+      <c r="O80" s="82">
+        <f>simPy_sheet!K5</f>
+        <v>0.5</v>
+      </c>
+      <c r="P80" s="82">
+        <f>simPy_sheet!L5</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q80" s="82">
+        <f>simPy_sheet!M5</f>
+        <v>0.5</v>
+      </c>
+      <c r="R80" s="82">
+        <f>simPy_sheet!N5</f>
+        <v>0.5</v>
       </c>
       <c r="S80" s="25"/>
       <c r="T80"/>
       <c r="U80" s="58"/>
     </row>
     <row r="81" spans="3:21" ht="16.8">
-      <c r="C81" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="82">
-        <f>simPy_sheet!B5</f>
-        <v>0.5</v>
-      </c>
-      <c r="G81" s="82">
-        <f>simPy_sheet!C5</f>
-        <v>0.5</v>
-      </c>
-      <c r="H81" s="82">
-        <f>simPy_sheet!D5</f>
-        <v>0.5</v>
-      </c>
-      <c r="I81" s="82">
-        <f>simPy_sheet!E5</f>
-        <v>0.5</v>
-      </c>
-      <c r="J81" s="82">
-        <f>simPy_sheet!F5</f>
-        <v>0.5</v>
-      </c>
-      <c r="K81" s="82">
-        <f>simPy_sheet!G5</f>
-        <v>0.5</v>
-      </c>
-      <c r="L81" s="82">
-        <f>simPy_sheet!H5</f>
-        <v>0.5</v>
-      </c>
-      <c r="M81" s="82">
-        <f>simPy_sheet!I5</f>
-        <v>0.5</v>
-      </c>
-      <c r="N81" s="82">
-        <f>simPy_sheet!J5</f>
-        <v>0.5</v>
-      </c>
-      <c r="O81" s="82">
-        <f>simPy_sheet!K5</f>
-        <v>0.5</v>
-      </c>
-      <c r="P81" s="82">
-        <f>simPy_sheet!L5</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q81" s="82">
-        <f>simPy_sheet!M5</f>
-        <v>0.5</v>
-      </c>
-      <c r="R81" s="82">
-        <f>simPy_sheet!N5</f>
-        <v>0.5</v>
-      </c>
-      <c r="S81" s="25"/>
+      <c r="C81" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="108"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="108"/>
+      <c r="J81" s="108"/>
+      <c r="K81" s="108"/>
+      <c r="L81" s="108"/>
+      <c r="M81" s="108"/>
+      <c r="N81" s="108"/>
+      <c r="O81" s="108"/>
+      <c r="P81" s="108"/>
+      <c r="Q81" s="108"/>
+      <c r="R81" s="106"/>
+      <c r="S81"/>
       <c r="T81"/>
       <c r="U81" s="58"/>
     </row>
     <row r="82" spans="3:21" ht="16.8">
       <c r="C82" s="16" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D82" s="16"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="111"/>
-      <c r="G82" s="112"/>
-      <c r="H82" s="112"/>
-      <c r="I82" s="112"/>
-      <c r="J82" s="112"/>
-      <c r="K82" s="112"/>
-      <c r="L82" s="112"/>
-      <c r="M82" s="112"/>
-      <c r="N82" s="112"/>
-      <c r="O82" s="112"/>
-      <c r="P82" s="112"/>
-      <c r="Q82" s="112"/>
-      <c r="R82" s="110"/>
-      <c r="S82"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="83" t="str">
+        <f>IF(F81&gt;0,daily_rate!N2,"")</f>
+        <v/>
+      </c>
+      <c r="G82" s="83" t="str">
+        <f>IF(G81&gt;0,daily_rate!O2,"")</f>
+        <v/>
+      </c>
+      <c r="H82" s="83" t="str">
+        <f>IF(H81&gt;0,daily_rate!P2,"")</f>
+        <v/>
+      </c>
+      <c r="I82" s="83" t="str">
+        <f>IF(I81&gt;0,daily_rate!Q2,"")</f>
+        <v/>
+      </c>
+      <c r="J82" s="83" t="str">
+        <f>IF(J81&gt;0,daily_rate!R2,"")</f>
+        <v/>
+      </c>
+      <c r="K82" s="83" t="str">
+        <f>IF(K81&gt;0,daily_rate!S2,"")</f>
+        <v/>
+      </c>
+      <c r="L82" s="83" t="str">
+        <f>IF(L81&gt;0,daily_rate!T2,"")</f>
+        <v/>
+      </c>
+      <c r="M82" s="83" t="str">
+        <f>IF(M81&gt;0,daily_rate!U2,"")</f>
+        <v/>
+      </c>
+      <c r="N82" s="83" t="str">
+        <f>IF(N81&gt;0,daily_rate!V2,"")</f>
+        <v/>
+      </c>
+      <c r="O82" s="83" t="str">
+        <f>IF(O81&gt;0,daily_rate!W2,"")</f>
+        <v/>
+      </c>
+      <c r="P82" s="83" t="str">
+        <f>IF(P81&gt;0,daily_rate!X2,"")</f>
+        <v/>
+      </c>
+      <c r="Q82" s="83" t="str">
+        <f>IF(Q81&gt;0,daily_rate!Y2,"")</f>
+        <v/>
+      </c>
+      <c r="R82" s="83" t="str">
+        <f>IF(R81&gt;0,daily_rate!Z2,"")</f>
+        <v/>
+      </c>
+      <c r="S82" s="25"/>
       <c r="T82"/>
       <c r="U82" s="58"/>
     </row>
     <row r="83" spans="3:21" ht="16.8">
-      <c r="C83" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="83" t="str">
-        <f>IF(F82&gt;0,daily_rate!N2,"")</f>
+      <c r="F83" s="16"/>
+      <c r="G83" s="120"/>
+      <c r="H83" s="120"/>
+      <c r="I83" s="120"/>
+      <c r="J83" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" s="73"/>
+      <c r="L83" s="73"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="102" t="str">
+        <f>IF(P81&gt;0,daily_rate!X4,"")</f>
         <v/>
       </c>
-      <c r="G83" s="83" t="str">
-        <f>IF(G82&gt;0,daily_rate!O2,"")</f>
-        <v/>
-      </c>
-      <c r="H83" s="83" t="str">
-        <f>IF(H82&gt;0,daily_rate!P2,"")</f>
-        <v/>
-      </c>
-      <c r="I83" s="83" t="str">
-        <f>IF(I82&gt;0,daily_rate!Q2,"")</f>
-        <v/>
-      </c>
-      <c r="J83" s="83" t="str">
-        <f>IF(J82&gt;0,daily_rate!R2,"")</f>
-        <v/>
-      </c>
-      <c r="K83" s="83" t="str">
-        <f>IF(K82&gt;0,daily_rate!S2,"")</f>
-        <v/>
-      </c>
-      <c r="L83" s="83" t="str">
-        <f>IF(L82&gt;0,daily_rate!T2,"")</f>
-        <v/>
-      </c>
-      <c r="M83" s="83" t="str">
-        <f>IF(M82&gt;0,daily_rate!U2,"")</f>
-        <v/>
-      </c>
-      <c r="N83" s="83" t="str">
-        <f>IF(N82&gt;0,daily_rate!V2,"")</f>
-        <v/>
-      </c>
-      <c r="O83" s="83" t="str">
-        <f>IF(O82&gt;0,daily_rate!W2,"")</f>
-        <v/>
-      </c>
-      <c r="P83" s="83" t="str">
-        <f>IF(P82&gt;0,daily_rate!X2,"")</f>
-        <v/>
-      </c>
-      <c r="Q83" s="83" t="str">
-        <f>IF(Q82&gt;0,daily_rate!Y2,"")</f>
-        <v/>
-      </c>
-      <c r="R83" s="83" t="str">
-        <f>IF(R82&gt;0,daily_rate!Z2,"")</f>
-        <v/>
-      </c>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
       <c r="S83" s="25"/>
       <c r="T83"/>
       <c r="U83" s="58"/>
     </row>
-    <row r="84" spans="3:21" ht="16.8">
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="141"/>
-      <c r="H84" s="141"/>
-      <c r="I84" s="141"/>
-      <c r="J84" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="K84" s="73"/>
-      <c r="L84" s="73"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="102" t="str">
-        <f>IF(P82&gt;0,daily_rate!X4,"")</f>
-        <v/>
-      </c>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25"/>
-      <c r="S84" s="25"/>
+    <row r="84" spans="3:21">
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
       <c r="T84"/>
       <c r="U84" s="58"/>
     </row>
@@ -36307,7 +36570,6 @@
       <c r="R86"/>
       <c r="S86"/>
       <c r="T86"/>
-      <c r="U86" s="58"/>
     </row>
     <row r="87" spans="3:21">
       <c r="C87"/>
@@ -36427,64 +36689,9 @@
       <c r="Q92"/>
       <c r="R92"/>
       <c r="S92"/>
-      <c r="T92"/>
-    </row>
-    <row r="93" spans="3:21">
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="O93"/>
-      <c r="P93"/>
-      <c r="Q93"/>
-      <c r="R93"/>
-      <c r="S93"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I46:U46"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="I56:U56"/>
-    <mergeCell ref="C78:R78"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C68:L68"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I70:U70"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="I36:U36"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:X30"/>
     <mergeCell ref="Y44:AJ44"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="V26:X26"/>
@@ -36501,10 +36708,45 @@
     <mergeCell ref="V25:X25"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="V27:X27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="I36:U36"/>
+    <mergeCell ref="C77:R77"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C68:L68"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I69:U69"/>
+    <mergeCell ref="I46:U46"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="I56:U56"/>
   </mergeCells>
-  <conditionalFormatting sqref="A72:B80 C76:S81 C82:E82 R82:S82 C83:S84">
+  <conditionalFormatting sqref="A71:B79 C75:S80 C81:E81 R81:S81 C82:S83">
     <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$H$76=1</formula>
+      <formula>$H$75=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:M51">
@@ -36521,14 +36763,14 @@
       <formula>$K$48&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J75:M75">
+  <conditionalFormatting sqref="J74:M74">
     <cfRule type="expression" dxfId="2" priority="41">
       <formula>#REF!&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N80:R81">
+  <conditionalFormatting sqref="N79:R80">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$H$76=1</formula>
+      <formula>$H$75=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36672,49 +36914,49 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="3:24" ht="36.6" customHeight="1">
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
       <c r="M16" s="6"/>
-      <c r="O16" s="140" t="s">
+      <c r="O16" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="140"/>
-      <c r="S16" s="140"/>
-      <c r="T16" s="140"/>
-      <c r="U16" s="140"/>
-      <c r="V16" s="140"/>
-      <c r="W16" s="140"/>
-      <c r="X16" s="140"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
     </row>
     <row r="17" spans="3:27" s="29" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="139" t="s">
+      <c r="G17" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="139"/>
-      <c r="I17" s="138" t="s">
+      <c r="H17" s="111"/>
+      <c r="I17" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138" t="s">
+      <c r="J17" s="110"/>
+      <c r="K17" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="138"/>
+      <c r="L17" s="110"/>
       <c r="M17" s="28"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -36722,14 +36964,14 @@
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
-      <c r="U17" s="166" t="s">
+      <c r="U17" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="V17" s="166"/>
-      <c r="W17" s="165" t="s">
+      <c r="V17" s="180"/>
+      <c r="W17" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="X17" s="165"/>
+      <c r="X17" s="179"/>
       <c r="Z17" s="41" t="s">
         <v>34</v>
       </c>
@@ -36742,37 +36984,37 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="192">
+      <c r="G18" s="148">
         <v>62842.05</v>
       </c>
-      <c r="H18" s="193"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="191">
+      <c r="H18" s="149"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="155">
         <f>IF(I18="", G18, I18)</f>
         <v>62842.05</v>
       </c>
-      <c r="L18" s="191"/>
+      <c r="L18" s="155"/>
       <c r="M18" s="6"/>
-      <c r="O18" s="169" t="s">
+      <c r="O18" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="170"/>
+      <c r="P18" s="182"/>
       <c r="Q18" s="47" t="s">
         <v>35</v>
       </c>
       <c r="R18" s="48"/>
       <c r="S18" s="48"/>
       <c r="T18" s="48"/>
-      <c r="U18" s="167">
+      <c r="U18" s="161">
         <v>62842.05</v>
       </c>
-      <c r="V18" s="168"/>
-      <c r="W18" s="157">
+      <c r="V18" s="162"/>
+      <c r="W18" s="159">
         <f>K18</f>
         <v>62842.05</v>
       </c>
-      <c r="X18" s="157"/>
+      <c r="X18" s="159"/>
       <c r="Z18" s="42">
         <f>U18</f>
         <v>62842.05</v>
@@ -36789,35 +37031,35 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="192">
+      <c r="G19" s="148">
         <v>51121.9</v>
       </c>
-      <c r="H19" s="193"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="195"/>
-      <c r="K19" s="191">
+      <c r="H19" s="149"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="155">
         <f>IF(I19="", G19, I19)</f>
         <v>51121.9</v>
       </c>
-      <c r="L19" s="191"/>
+      <c r="L19" s="155"/>
       <c r="M19" s="6"/>
-      <c r="O19" s="171"/>
-      <c r="P19" s="172"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="184"/>
       <c r="Q19" s="48" t="s">
         <v>37</v>
       </c>
       <c r="R19" s="48"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
-      <c r="U19" s="167">
+      <c r="U19" s="161">
         <v>51121.9</v>
       </c>
-      <c r="V19" s="168"/>
-      <c r="W19" s="157">
+      <c r="V19" s="162"/>
+      <c r="W19" s="159">
         <f>K19</f>
         <v>51121.9</v>
       </c>
-      <c r="X19" s="157"/>
+      <c r="X19" s="159"/>
       <c r="Z19" s="42">
         <f t="shared" ref="Z19:Z27" si="0">U19</f>
         <v>51121.9</v>
@@ -36834,35 +37076,35 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="192">
+      <c r="G20" s="148">
         <v>39390.800000000003</v>
       </c>
-      <c r="H20" s="193"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="191">
+      <c r="H20" s="149"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="155">
         <f>IF(I20="", G20, I20)</f>
         <v>39390.800000000003</v>
       </c>
-      <c r="L20" s="191"/>
+      <c r="L20" s="155"/>
       <c r="M20" s="6"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="172"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="184"/>
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
       <c r="R20" s="48"/>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
-      <c r="U20" s="167">
+      <c r="U20" s="161">
         <v>39390.800000000003</v>
       </c>
-      <c r="V20" s="168"/>
-      <c r="W20" s="157">
+      <c r="V20" s="162"/>
+      <c r="W20" s="159">
         <f>K20</f>
         <v>39390.800000000003</v>
       </c>
-      <c r="X20" s="157"/>
+      <c r="X20" s="159"/>
       <c r="Z20" s="42">
         <f t="shared" si="0"/>
         <v>39390.800000000003</v>
@@ -36879,35 +37121,35 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="192">
+      <c r="G21" s="148">
         <v>9004.5500000000011</v>
       </c>
-      <c r="H21" s="193"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="191">
+      <c r="H21" s="149"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="155">
         <f>IF(I21="", G21, I21)</f>
         <v>9004.5500000000011</v>
       </c>
-      <c r="L21" s="191"/>
+      <c r="L21" s="155"/>
       <c r="M21" s="6"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="174"/>
+      <c r="O21" s="185"/>
+      <c r="P21" s="186"/>
       <c r="Q21" s="48" t="s">
         <v>39</v>
       </c>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
       <c r="T21" s="48"/>
-      <c r="U21" s="167">
+      <c r="U21" s="161">
         <v>9004.5500000000011</v>
       </c>
-      <c r="V21" s="168"/>
-      <c r="W21" s="157">
+      <c r="V21" s="162"/>
+      <c r="W21" s="159">
         <f>K21</f>
         <v>9004.5500000000011</v>
       </c>
-      <c r="X21" s="157"/>
+      <c r="X21" s="159"/>
       <c r="Z21" s="42">
         <f t="shared" si="0"/>
         <v>9004.5500000000011</v>
@@ -36921,10 +37163,10 @@
       <c r="J22" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="183" t="s">
+      <c r="O22" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="P22" s="184"/>
+      <c r="P22" s="168"/>
       <c r="Q22" s="43" t="str">
         <f>E36</f>
         <v>Intervention 1: KRT intervention</v>
@@ -36932,15 +37174,15 @@
       <c r="R22" s="43"/>
       <c r="S22" s="43"/>
       <c r="T22" s="44"/>
-      <c r="U22" s="181">
+      <c r="U22" s="165">
         <v>0</v>
       </c>
-      <c r="V22" s="182"/>
-      <c r="W22" s="157">
+      <c r="V22" s="166"/>
+      <c r="W22" s="159">
         <f t="shared" ref="W22:W27" si="2">V36</f>
         <v>0</v>
       </c>
-      <c r="X22" s="158"/>
+      <c r="X22" s="160"/>
       <c r="Z22" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -36952,8 +37194,8 @@
     </row>
     <row r="23" spans="3:27" ht="19.2">
       <c r="J23" s="30"/>
-      <c r="O23" s="185"/>
-      <c r="P23" s="186"/>
+      <c r="O23" s="169"/>
+      <c r="P23" s="170"/>
       <c r="Q23" s="45" t="str">
         <f>E37</f>
         <v>Intervention 2: KRT intervention</v>
@@ -36961,15 +37203,15 @@
       <c r="R23" s="45"/>
       <c r="S23" s="45"/>
       <c r="T23" s="46"/>
-      <c r="U23" s="181">
+      <c r="U23" s="165">
         <v>0</v>
       </c>
-      <c r="V23" s="182"/>
-      <c r="W23" s="157">
+      <c r="V23" s="166"/>
+      <c r="W23" s="159">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X23" s="158"/>
+      <c r="X23" s="160"/>
       <c r="Z23" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -36981,8 +37223,8 @@
     </row>
     <row r="24" spans="3:27" ht="19.2">
       <c r="J24" s="30"/>
-      <c r="O24" s="185"/>
-      <c r="P24" s="186"/>
+      <c r="O24" s="169"/>
+      <c r="P24" s="170"/>
       <c r="Q24" s="45" t="str">
         <f>E38</f>
         <v>Intervention 3: KRT intervention</v>
@@ -36990,15 +37232,15 @@
       <c r="R24" s="45"/>
       <c r="S24" s="45"/>
       <c r="T24" s="46"/>
-      <c r="U24" s="181">
+      <c r="U24" s="165">
         <v>0</v>
       </c>
-      <c r="V24" s="182"/>
-      <c r="W24" s="157">
+      <c r="V24" s="166"/>
+      <c r="W24" s="159">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X24" s="158"/>
+      <c r="X24" s="160"/>
       <c r="Z24" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37010,8 +37252,8 @@
     </row>
     <row r="25" spans="3:27" ht="19.2">
       <c r="J25" s="30"/>
-      <c r="O25" s="185"/>
-      <c r="P25" s="186"/>
+      <c r="O25" s="169"/>
+      <c r="P25" s="170"/>
       <c r="Q25" s="45" t="str">
         <f>E39</f>
         <v>Intervention 4</v>
@@ -37019,15 +37261,15 @@
       <c r="R25" s="45"/>
       <c r="S25" s="45"/>
       <c r="T25" s="46"/>
-      <c r="U25" s="181">
+      <c r="U25" s="165">
         <v>0</v>
       </c>
-      <c r="V25" s="182"/>
-      <c r="W25" s="157">
+      <c r="V25" s="166"/>
+      <c r="W25" s="159">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X25" s="158"/>
+      <c r="X25" s="160"/>
       <c r="Z25" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37039,8 +37281,8 @@
     </row>
     <row r="26" spans="3:27" ht="19.2">
       <c r="J26" s="30"/>
-      <c r="O26" s="185"/>
-      <c r="P26" s="186"/>
+      <c r="O26" s="169"/>
+      <c r="P26" s="170"/>
       <c r="Q26" s="45" t="str">
         <f>E40</f>
         <v>Intervention 5</v>
@@ -37048,15 +37290,15 @@
       <c r="R26" s="45"/>
       <c r="S26" s="45"/>
       <c r="T26" s="46"/>
-      <c r="U26" s="181">
+      <c r="U26" s="165">
         <v>0</v>
       </c>
-      <c r="V26" s="182"/>
-      <c r="W26" s="157">
+      <c r="V26" s="166"/>
+      <c r="W26" s="159">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X26" s="158"/>
+      <c r="X26" s="160"/>
       <c r="Z26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37067,23 +37309,23 @@
       </c>
     </row>
     <row r="27" spans="3:27" ht="19.2">
-      <c r="O27" s="187"/>
-      <c r="P27" s="188"/>
+      <c r="O27" s="171"/>
+      <c r="P27" s="172"/>
       <c r="Q27" s="49" t="s">
         <v>42</v>
       </c>
       <c r="R27" s="50"/>
       <c r="S27" s="50"/>
       <c r="T27" s="51"/>
-      <c r="U27" s="181">
+      <c r="U27" s="165">
         <v>0</v>
       </c>
-      <c r="V27" s="182"/>
-      <c r="W27" s="159">
+      <c r="V27" s="166"/>
+      <c r="W27" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X27" s="160"/>
+      <c r="X27" s="190"/>
       <c r="Z27" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37133,28 +37375,28 @@
       <c r="M30" s="16"/>
     </row>
     <row r="31" spans="3:27" ht="179.4" customHeight="1">
-      <c r="C31" s="198"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="198"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
-      <c r="M31" s="198"/>
-      <c r="N31" s="198"/>
-      <c r="O31" s="198"/>
-      <c r="P31" s="198"/>
-      <c r="Q31" s="198"/>
-      <c r="R31" s="198"/>
-      <c r="S31" s="198"/>
-      <c r="T31" s="198"/>
-      <c r="U31" s="198"/>
-      <c r="V31" s="198"/>
-      <c r="W31" s="198"/>
-      <c r="X31" s="198"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="158"/>
+      <c r="T31" s="158"/>
+      <c r="U31" s="158"/>
+      <c r="V31" s="158"/>
+      <c r="W31" s="158"/>
+      <c r="X31" s="158"/>
     </row>
     <row r="32" spans="3:27" ht="16.8">
       <c r="G32" s="35"/>
@@ -37173,12 +37415,12 @@
       <c r="T32" s="35"/>
     </row>
     <row r="33" spans="3:23" ht="34.950000000000003" customHeight="1">
-      <c r="E33" s="175" t="s">
+      <c r="E33" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
       <c r="I33" s="34">
         <v>2023</v>
       </c>
@@ -37218,18 +37460,18 @@
       <c r="U33" s="34">
         <v>2035</v>
       </c>
-      <c r="V33" s="176" t="s">
+      <c r="V33" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="W33" s="176"/>
+      <c r="W33" s="188"/>
     </row>
     <row r="34" spans="3:23">
-      <c r="E34" s="161" t="s">
+      <c r="E34" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
       <c r="I34" s="53"/>
       <c r="J34" s="53"/>
       <c r="K34" s="53"/>
@@ -37249,21 +37491,21 @@
       <c r="S34" s="53"/>
       <c r="T34" s="53"/>
       <c r="U34" s="53"/>
-      <c r="V34" s="156">
+      <c r="V34" s="173">
         <f t="shared" ref="V34:V41" si="3">SUM(I34:U34)</f>
         <v>20000</v>
       </c>
-      <c r="W34" s="156"/>
+      <c r="W34" s="173"/>
     </row>
     <row r="35" spans="3:23" s="29" customFormat="1" ht="16.2" customHeight="1">
-      <c r="C35" s="197"/>
-      <c r="D35" s="197"/>
-      <c r="E35" s="161" t="s">
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="161"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="178"/>
       <c r="I35" s="53"/>
       <c r="J35" s="53"/>
       <c r="K35" s="53"/>
@@ -37295,23 +37537,23 @@
       <c r="U35" s="53">
         <v>500</v>
       </c>
-      <c r="V35" s="156">
+      <c r="V35" s="173">
         <f t="shared" si="3"/>
         <v>64000</v>
       </c>
-      <c r="W35" s="156"/>
+      <c r="W35" s="173"/>
     </row>
     <row r="36" spans="3:23">
       <c r="C36" s="177" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="177"/>
-      <c r="E36" s="162" t="s">
+      <c r="E36" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="164"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="154"/>
       <c r="I36" s="59"/>
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
@@ -37325,23 +37567,23 @@
       <c r="S36" s="52"/>
       <c r="T36" s="52"/>
       <c r="U36" s="52"/>
-      <c r="V36" s="189">
+      <c r="V36" s="174">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W36" s="190"/>
+      <c r="W36" s="175"/>
     </row>
     <row r="37" spans="3:23">
-      <c r="C37" s="178" t="s">
+      <c r="C37" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="178"/>
-      <c r="E37" s="162" t="s">
+      <c r="D37" s="176"/>
+      <c r="E37" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="163"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="164"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="154"/>
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
       <c r="K37" s="52"/>
@@ -37355,23 +37597,23 @@
       <c r="S37" s="52"/>
       <c r="T37" s="52"/>
       <c r="U37" s="52"/>
-      <c r="V37" s="156">
+      <c r="V37" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W37" s="156"/>
+      <c r="W37" s="173"/>
     </row>
     <row r="38" spans="3:23">
-      <c r="C38" s="178" t="s">
+      <c r="C38" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="178"/>
-      <c r="E38" s="162" t="s">
+      <c r="D38" s="176"/>
+      <c r="E38" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="163"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="164"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="154"/>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
       <c r="K38" s="52"/>
@@ -37385,23 +37627,23 @@
       <c r="S38" s="52"/>
       <c r="T38" s="52"/>
       <c r="U38" s="52"/>
-      <c r="V38" s="156">
+      <c r="V38" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W38" s="156"/>
+      <c r="W38" s="173"/>
     </row>
     <row r="39" spans="3:23" ht="15" hidden="1" customHeight="1">
-      <c r="C39" s="178" t="s">
+      <c r="C39" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="178"/>
-      <c r="E39" s="162" t="s">
+      <c r="D39" s="176"/>
+      <c r="E39" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="164"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="154"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
@@ -37415,23 +37657,23 @@
       <c r="S39" s="52"/>
       <c r="T39" s="52"/>
       <c r="U39" s="52"/>
-      <c r="V39" s="156">
+      <c r="V39" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W39" s="156"/>
+      <c r="W39" s="173"/>
     </row>
     <row r="40" spans="3:23" ht="15" hidden="1" customHeight="1">
-      <c r="C40" s="178" t="s">
+      <c r="C40" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="178"/>
-      <c r="E40" s="162" t="s">
+      <c r="D40" s="176"/>
+      <c r="E40" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="164"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="154"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52"/>
       <c r="K40" s="52"/>
@@ -37445,23 +37687,23 @@
       <c r="S40" s="52"/>
       <c r="T40" s="52"/>
       <c r="U40" s="52"/>
-      <c r="V40" s="156">
+      <c r="V40" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W40" s="156"/>
+      <c r="W40" s="173"/>
     </row>
     <row r="41" spans="3:23">
-      <c r="C41" s="179" t="s">
+      <c r="C41" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="179"/>
-      <c r="E41" s="180" t="s">
+      <c r="D41" s="163"/>
+      <c r="E41" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="180"/>
-      <c r="G41" s="180"/>
-      <c r="H41" s="180"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="164"/>
       <c r="I41" s="36">
         <f>SUM(I36:I38)</f>
         <v>0</v>
@@ -37514,11 +37756,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V41" s="156">
+      <c r="V41" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W41" s="156"/>
+      <c r="W41" s="173"/>
     </row>
     <row r="44" spans="3:23" ht="16.8">
       <c r="E44" s="40"/>
@@ -37709,6 +37951,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="O16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="O18:P21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="O22:P27"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="U20:V20"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
@@ -37725,57 +38018,6 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C31:X31"/>
     <mergeCell ref="W22:X22"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="O22:P27"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="O16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="O18:P21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="J22:M26">
@@ -37814,6 +38056,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F00E7D3C5223B647BCF0704F4FD63FF8" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fa9e41d02e9b02fc955bd1400030d11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3b4031e-841f-46f6-bede-a60d28c4ce79" xmlns:ns3="25f82bdf-59aa-449e-b461-28a7236b0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce80f9b71fe371980485e1a61dbeb78d" ns2:_="" ns3:_="">
     <xsd:import namespace="c3b4031e-841f-46f6-bede-a60d28c4ce79"/>
@@ -38094,15 +38345,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -38123,6 +38365,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB1A394-CDD1-412D-97FA-5861127EE7E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A79971-7DA6-46C3-A409-B57248166160}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38141,14 +38391,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB1A394-CDD1-412D-97FA-5861127EE7E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92445AFB-1516-4879-B465-5E6529C74BBB}">
   <ds:schemaRefs>

--- a/data/Renal_Modelling_Input_File - Fictional Region.xlsx
+++ b/data/Renal_Modelling_Input_File - Fictional Region.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucy.Morgan\Desktop\Renal Modelling\simPy model\renal-capacity-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD0B864-7223-4EAE-A3EA-376F15B5AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB49D25-BD4B-47CB-BAA6-A808CFB1ECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="823" activeTab="6" xr2:uid="{F2F90EEA-FE26-47F0-942A-1DBACAA9371D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="823" activeTab="5" xr2:uid="{F2F90EEA-FE26-47F0-942A-1DBACAA9371D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10979" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DES Pathway Map" sheetId="10981" r:id="rId3"/>
     <sheet name="Costing Map" sheetId="11011" r:id="rId4"/>
     <sheet name="Methods Overview" sheetId="10982" r:id="rId5"/>
-    <sheet name="simPy_sheet" sheetId="11027" state="hidden" r:id="rId6"/>
+    <sheet name="simPy_sheet" sheetId="11027" r:id="rId6"/>
     <sheet name="Scenario Inputs" sheetId="10983" r:id="rId7"/>
     <sheet name="Cost Inputs" sheetId="11010" r:id="rId8"/>
     <sheet name="References" sheetId="10985" r:id="rId9"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="188">
   <si>
     <t>Model Parameters</t>
   </si>
@@ -864,7 +864,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1330,7 +1330,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1498,68 +1498,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1604,27 +1546,102 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,28 +1653,46 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1690,72 +1725,36 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10552,8 +10551,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3574" y="2211942"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="2871" y="2272018"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10621,8 +10620,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="19397" y="2227765"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="18231" y="2287378"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BC67764E-F868-4BC7-88D4-3FB4FCFB2B03}">
@@ -10632,8 +10631,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="17230830">
-          <a:off x="568552" y="1773923"/>
-          <a:ext cx="1463111" cy="18435"/>
+          <a:off x="551315" y="1846976"/>
+          <a:ext cx="1420292" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10644,10 +10643,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1463111" y="9217"/>
+                <a:pt x="1420292" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10702,8 +10701,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1263530" y="1746563"/>
-        <a:ext cx="73155" cy="73155"/>
+        <a:off x="1225954" y="1820258"/>
+        <a:ext cx="71014" cy="71014"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{58126035-A1CC-4804-BB45-A7E54E1B14D3}">
@@ -10713,8 +10712,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1516197" y="814116"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="1471226" y="915100"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10780,8 +10779,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1532020" y="829939"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="1486586" y="930460"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B857DDB7-FDF2-4AB5-B907-54C4D3C617BF}">
@@ -10791,8 +10790,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2596642" y="1075010"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="2520052" y="1168517"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10803,10 +10802,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10861,8 +10860,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2801927" y="1073423"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="2719329" y="1166818"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{28D930D6-D1CC-4AEA-BF56-1A0057FC6818}">
@@ -10872,8 +10871,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3028821" y="1021716"/>
-          <a:ext cx="1080445" cy="125023"/>
+          <a:off x="2939582" y="1116624"/>
+          <a:ext cx="1048825" cy="121364"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10936,8 +10935,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3032483" y="1025378"/>
-        <a:ext cx="1073121" cy="117699"/>
+        <a:off x="2943137" y="1120179"/>
+        <a:ext cx="1041715" cy="114254"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D465B9D5-76C5-460F-B75F-1EEBB1AEF4BD}">
@@ -10947,8 +10946,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4109266" y="1075010"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="3988407" y="1168517"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10959,10 +10958,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11017,8 +11016,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4314550" y="1073423"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="4187684" y="1166818"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C33C51E7-9AC2-4AF1-AB1C-DF47A3951776}">
@@ -11028,8 +11027,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4541444" y="814116"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="4407938" y="915100"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11095,8 +11094,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4557267" y="829939"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="4423298" y="930460"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7FFC39D3-0546-4338-A03D-3BEA5A9F48D1}">
@@ -11106,8 +11105,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5621889" y="1075010"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="5456763" y="1168517"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11118,10 +11117,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11176,8 +11175,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5827174" y="1073423"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="5656040" y="1166818"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DEAE5233-53DC-48B0-9092-BF78F921775F}">
@@ -11187,8 +11186,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6054067" y="814116"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="5876293" y="915100"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11254,8 +11253,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6069890" y="829939"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="5891653" y="930460"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6C07057A-0993-4A4C-A1FC-7E3C90630CF5}">
@@ -11265,8 +11264,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7134512" y="1075010"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="6925118" y="1168517"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11277,10 +11276,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11335,8 +11334,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7339797" y="1073423"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="7124395" y="1166818"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BB0A11FC-F935-4893-9E1A-A94FFAC4AE10}">
@@ -11346,8 +11345,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7566690" y="814116"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="7344649" y="915100"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11413,8 +11412,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7582513" y="829939"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="7360009" y="930460"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{79E0999D-89C1-4FE8-831F-E869D069138D}">
@@ -11424,8 +11423,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8647135" y="1075010"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="8393474" y="1168517"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11436,10 +11435,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11494,8 +11493,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8852420" y="1073423"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="8592751" y="1166818"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{95C61D53-300C-4DE4-870C-DD6C24935C0C}">
@@ -11505,8 +11504,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9079314" y="814116"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="8813004" y="915100"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11572,8 +11571,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9095137" y="829939"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="8828364" y="930460"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BB5AFC37-3889-42CA-8944-D3A53523793F}">
@@ -11583,8 +11582,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10159759" y="1075010"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="9861830" y="1168517"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11595,10 +11594,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11653,8 +11652,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10365043" y="1073423"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="10061106" y="1166818"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{158FC5B0-BD1E-485A-8B01-82528D1E9C2E}">
@@ -11664,8 +11663,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10591937" y="814116"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="10281360" y="915100"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11731,8 +11730,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10607760" y="829939"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="10296720" y="930460"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{91D01C26-9709-41EC-A65C-3D106AAC4F07}">
@@ -11742,8 +11741,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="20413970">
-          <a:off x="1070489" y="2395179"/>
-          <a:ext cx="459238" cy="18435"/>
+          <a:off x="1038562" y="2450050"/>
+          <a:ext cx="445798" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11754,10 +11753,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="459238" y="9217"/>
+                <a:pt x="445798" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11812,8 +11811,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1288627" y="2392916"/>
-        <a:ext cx="22961" cy="22961"/>
+        <a:off x="1250316" y="2447695"/>
+        <a:ext cx="22289" cy="22289"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{422A4A3A-F6EB-449A-8901-797127807065}">
@@ -11823,8 +11822,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1516197" y="2056628"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="1471226" y="2121249"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11892,8 +11891,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1532020" y="2072451"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="1486586" y="2136609"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BE7BB172-278F-4B9D-AD2A-54BA10798C46}">
@@ -11903,8 +11902,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="18289469">
-          <a:off x="2434335" y="2006894"/>
-          <a:ext cx="756793" cy="18435"/>
+          <a:off x="2362494" y="2073129"/>
+          <a:ext cx="734645" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11915,10 +11914,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="756793" y="9217"/>
+                <a:pt x="734645" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11973,8 +11972,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2793812" y="1997192"/>
-        <a:ext cx="37839" cy="37839"/>
+        <a:off x="2711451" y="2063552"/>
+        <a:ext cx="36732" cy="36732"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0D28B1C1-D54B-4DB5-9F81-53E245C42E6F}">
@@ -11984,8 +11983,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3028821" y="1435372"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="2939582" y="1518174"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12053,8 +12052,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3044644" y="1451195"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="2954942" y="1533534"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C880F6F0-42D8-4F70-8552-49AAF1D51B85}">
@@ -12064,8 +12063,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4109266" y="1696266"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="3988407" y="1771592"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12076,10 +12075,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12134,8 +12133,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4314550" y="1694679"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="4187684" y="1769892"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FDF57252-0485-4E94-9518-819B97E653A5}">
@@ -12145,8 +12144,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4541444" y="1435372"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="4407938" y="1518174"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12214,8 +12213,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4557267" y="1451195"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="4423298" y="1533534"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C798FBDF-6E1D-47DE-AFF4-FF2F3558A01E}">
@@ -12225,8 +12224,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5621889" y="1696266"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="5456763" y="1771592"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12237,10 +12236,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12295,8 +12294,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5827174" y="1694679"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="5656040" y="1769892"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{299DB7B5-147A-4B56-BD71-258F2E319699}">
@@ -12306,8 +12305,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6054067" y="1435372"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="5876293" y="1518174"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12375,8 +12374,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6069890" y="1451195"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="5891653" y="1533534"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2885D908-1890-4DF2-AA56-5F58E916BA5F}">
@@ -12386,8 +12385,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7134512" y="1696266"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="6925118" y="1771592"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12398,10 +12397,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12456,8 +12455,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7339797" y="1694679"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="7124395" y="1769892"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{75C27B92-6CC4-4B40-95A9-71E9F09AC553}">
@@ -12467,8 +12466,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7566690" y="1435372"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="7344649" y="1518174"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12536,8 +12535,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7582513" y="1451195"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="7360009" y="1533534"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8FCFA1DF-8D7B-4AE3-A13D-E9E0A8D4269E}">
@@ -12547,8 +12546,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8647135" y="1696266"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="8393474" y="1771592"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12559,10 +12558,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12617,8 +12616,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8852420" y="1694679"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="8592751" y="1769892"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B52201AD-DF5C-4637-95C6-49BD23B1F50B}">
@@ -12628,8 +12627,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9079314" y="1435372"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="8813004" y="1518174"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12697,8 +12696,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9095137" y="1451195"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="8828364" y="1533534"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CB3877FC-91B8-4FC2-9D6B-E11F9D0115BE}">
@@ -12708,8 +12707,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10159759" y="1696266"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="9861830" y="1771592"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12720,10 +12719,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12778,8 +12777,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10365043" y="1694679"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="10061106" y="1769892"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A844538E-617C-47D5-90B1-EC4C304BD896}">
@@ -12789,8 +12788,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10591937" y="1435372"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="10281360" y="1518174"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12858,8 +12857,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10607760" y="1451195"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="10296720" y="1533534"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1DBCEC87-5760-4266-8E86-CC6FC7973A3C}">
@@ -12869,8 +12868,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2596642" y="2317522"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="2520052" y="2374666"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12881,10 +12880,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12939,8 +12938,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2801927" y="2315935"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="2719329" y="2372967"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B0BF95EF-E3AD-447A-B62C-646AC58C325F}">
@@ -12950,8 +12949,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3028821" y="2056628"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="2939582" y="2121249"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13019,8 +13018,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3044644" y="2072451"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="2954942" y="2136609"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{92354185-DBCA-4A21-84F8-224DFD5AB4AF}">
@@ -13030,8 +13029,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4109266" y="2317522"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="3988407" y="2374666"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13042,10 +13041,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13100,8 +13099,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4314550" y="2315935"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="4187684" y="2372967"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7E949926-E243-4CA5-864B-20D791018212}">
@@ -13111,8 +13110,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4541444" y="2056628"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="4407938" y="2121249"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13180,8 +13179,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4557267" y="2072451"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="4423298" y="2136609"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5B8BE731-C7C1-49D4-BB62-68D307B5CEEF}">
@@ -13191,8 +13190,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5621889" y="2317522"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="5456763" y="2374666"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13203,10 +13202,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13261,8 +13260,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5827174" y="2315935"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="5656040" y="2372967"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{44DCE07A-E41F-4B9A-9AFD-AF1F7CCED65A}">
@@ -13272,8 +13271,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6054067" y="2056628"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="5876293" y="2121249"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13341,8 +13340,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6069890" y="2072451"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="5891653" y="2136609"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D935D560-7774-4779-8BD2-13BFC1D3BACF}">
@@ -13352,8 +13351,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7134512" y="2317522"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="6925118" y="2374666"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13364,10 +13363,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13422,8 +13421,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7339797" y="2315935"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="7124395" y="2372967"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{98A33CD7-77E9-4331-856C-70FB910FFA5F}">
@@ -13433,8 +13432,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7566690" y="2056628"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="7344649" y="2121249"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13502,8 +13501,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7582513" y="2072451"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="7360009" y="2136609"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2F1E8219-B659-41F3-AE9B-2584FF7876EF}">
@@ -13513,8 +13512,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8647135" y="2317522"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="8393474" y="2374666"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13525,10 +13524,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13583,8 +13582,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8852420" y="2315935"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="8592751" y="2372967"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0C4019F4-33C5-40BC-8599-8F1DAB8B9326}">
@@ -13594,8 +13593,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9079314" y="2056628"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="8813004" y="2121249"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13663,8 +13662,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9095137" y="2072451"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="8828364" y="2136609"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{70818E4E-65CA-4391-A769-C16EF8DF3D1E}">
@@ -13674,8 +13673,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10159759" y="2317522"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="9861830" y="2374666"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13686,10 +13685,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13744,8 +13743,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10365043" y="2315935"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="10061106" y="2372967"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3CC85C9C-3AD6-42D8-8BB3-F6239BEC3592}">
@@ -13755,8 +13754,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10591937" y="2056628"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="10281360" y="2121249"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13824,8 +13823,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10607760" y="2072451"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="10296720" y="2136609"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4D5AB6F6-FFAC-458C-B555-327068430A50}">
@@ -13835,8 +13834,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="3310531">
-          <a:off x="2434335" y="2628150"/>
-          <a:ext cx="756793" cy="18435"/>
+          <a:off x="2362494" y="2676203"/>
+          <a:ext cx="734645" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13847,10 +13846,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="756793" y="9217"/>
+                <a:pt x="734645" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13905,8 +13904,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2793812" y="2618448"/>
-        <a:ext cx="37839" cy="37839"/>
+        <a:off x="2711451" y="2666626"/>
+        <a:ext cx="36732" cy="36732"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{761806C1-4E14-4F20-8E3F-BE484331CAC1}">
@@ -13916,8 +13915,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3028821" y="2677884"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="2939582" y="2724323"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13985,8 +13984,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3044644" y="2693707"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="2954942" y="2739683"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C80259AB-F3D9-4E2B-A527-B7387593D480}">
@@ -13996,8 +13995,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4109266" y="2938778"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="3988407" y="2977741"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14008,10 +14007,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14066,8 +14065,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4314550" y="2937191"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="4187684" y="2976042"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FA7E10B4-455E-40D8-9094-7701C2446506}">
@@ -14077,8 +14076,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4541444" y="2677884"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="4407938" y="2724323"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14146,8 +14145,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4557267" y="2693707"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="4423298" y="2739683"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{AD510A24-47D6-4085-A1F6-3DD4D3724B2A}">
@@ -14157,8 +14156,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5621889" y="2938778"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="5456763" y="2977741"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14169,10 +14168,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14227,8 +14226,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5827174" y="2937191"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="5656040" y="2976042"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F87CEE2C-13F7-47DD-A4A5-8DD2DBA4CAB0}">
@@ -14238,8 +14237,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6054067" y="2677884"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="5876293" y="2724323"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14307,8 +14306,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6069890" y="2693707"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="5891653" y="2739683"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{33D7B50A-568A-404F-AF6B-F637E120BDDA}">
@@ -14318,8 +14317,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7134512" y="2938778"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="6925118" y="2977741"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14330,10 +14329,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14388,8 +14387,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7339797" y="2937191"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="7124395" y="2976042"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3C1BBCC7-E79E-4814-8297-5BB246104496}">
@@ -14399,8 +14398,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7566690" y="2677884"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="7344649" y="2724323"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14468,8 +14467,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7582513" y="2693707"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="7360009" y="2739683"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{121D9905-B3A4-436E-A1D5-F457DC0FB490}">
@@ -14479,8 +14478,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8647135" y="2938778"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="8393474" y="2977741"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14491,10 +14490,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14549,8 +14548,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8852420" y="2937191"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="8592751" y="2976042"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{004785DF-F189-4494-91D0-C897BF691894}">
@@ -14560,8 +14559,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9079314" y="2677884"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="8813004" y="2724323"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14629,8 +14628,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9095137" y="2693707"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="8828364" y="2739683"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9E92B4C6-4361-4131-86BB-BDACFCA82FA4}">
@@ -14640,8 +14639,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10159759" y="2938778"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="9861830" y="2977741"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14652,10 +14651,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14710,8 +14709,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10365043" y="2937191"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="10061106" y="2976042"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EA1EA348-E697-47A0-BB9C-C79C60FA0661}">
@@ -14721,8 +14720,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10591937" y="2677884"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="10281360" y="2724323"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14790,8 +14789,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10607760" y="2693707"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="10296720" y="2739683"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0A574E65-26AD-4153-ACFA-B6508D80ED8C}">
@@ -14801,8 +14800,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="4369170">
-          <a:off x="568552" y="3171749"/>
-          <a:ext cx="1463111" cy="18435"/>
+          <a:off x="551315" y="3203894"/>
+          <a:ext cx="1420292" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14813,10 +14812,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1463111" y="9217"/>
+                <a:pt x="1420292" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14871,8 +14870,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1263530" y="3144389"/>
-        <a:ext cx="73155" cy="73155"/>
+        <a:off x="1225954" y="3177175"/>
+        <a:ext cx="71014" cy="71014"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3FF46F38-73CF-4DBB-B22D-5757F5DF1549}">
@@ -14882,8 +14881,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1516197" y="3609768"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="1471226" y="3628935"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14951,8 +14950,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1532020" y="3625591"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="1486586" y="3644295"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D9323FB4-687C-4C65-9470-F1A71F51C4C7}">
@@ -14962,8 +14961,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19457599">
-          <a:off x="2546617" y="3715348"/>
-          <a:ext cx="532228" cy="18435"/>
+          <a:off x="2471490" y="3731584"/>
+          <a:ext cx="516652" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14974,10 +14973,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="532228" y="9217"/>
+                <a:pt x="516652" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15032,8 +15031,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2799426" y="3711260"/>
-        <a:ext cx="26611" cy="26611"/>
+        <a:off x="2716901" y="3727457"/>
+        <a:ext cx="25832" cy="25832"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FDF73456-B5D7-406E-9142-FB46C4CA82EA}">
@@ -15043,8 +15042,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3028821" y="3299140"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="2939582" y="3327398"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15112,8 +15111,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3044644" y="3314963"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="2954942" y="3342758"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9BE4A52F-5A0D-4495-93ED-124F3853D05E}">
@@ -15123,8 +15122,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4109266" y="3560034"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="3988407" y="3580815"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15135,10 +15134,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15193,8 +15192,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4314550" y="3558447"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="4187684" y="3579116"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F74A89F7-B5B1-411A-A507-7DA4255A624A}">
@@ -15204,8 +15203,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4541444" y="3299140"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="4407938" y="3327398"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15273,8 +15272,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4557267" y="3314963"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="4423298" y="3342758"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0E4430D5-CDA1-46C4-A8D2-B977202A1EBF}">
@@ -15284,8 +15283,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5621889" y="3560034"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="5456763" y="3580815"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15296,10 +15295,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15354,8 +15353,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5827174" y="3558447"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="5656040" y="3579116"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FA05FBB8-38CC-4AC9-86BE-70D50F88621A}">
@@ -15365,8 +15364,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6054067" y="3299140"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="5876293" y="3327398"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15434,8 +15433,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6069890" y="3314963"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="5891653" y="3342758"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{04024163-7E66-46A1-8209-73FF25CF8548}">
@@ -15445,8 +15444,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7134512" y="3560034"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="6925118" y="3580815"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15457,10 +15456,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15515,8 +15514,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7339797" y="3558447"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="7124395" y="3579116"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5A304F7F-1E24-49F4-B5DD-CB3329AB044D}">
@@ -15526,8 +15525,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7566690" y="3299140"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="7344649" y="3327398"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15595,8 +15594,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7582513" y="3314963"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="7360009" y="3342758"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C9B95468-A4CE-4BAB-9D89-2C6B1A0ADB22}">
@@ -15606,8 +15605,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8647135" y="3560034"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="8393474" y="3580815"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15618,10 +15617,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15676,8 +15675,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8852420" y="3558447"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="8592751" y="3579116"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{28A887CD-3969-4793-8C57-5CE7B7B07B85}">
@@ -15687,8 +15686,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9079314" y="3299140"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="8813004" y="3327398"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15756,8 +15755,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9095137" y="3314963"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="8828364" y="3342758"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F65DBCA4-D8B6-4E92-B932-80D05BA1A5BC}">
@@ -15767,8 +15766,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10159759" y="3560034"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="9861830" y="3580815"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15779,10 +15778,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15837,8 +15836,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10365043" y="3558447"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="10061106" y="3579116"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D2A38B7B-D505-438D-8CAE-EC1E09A45375}">
@@ -15848,8 +15847,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10591937" y="3299140"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="10281360" y="3327398"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15917,8 +15916,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10607760" y="3314963"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="10296720" y="3342758"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{82A1A3C9-AF28-4B8F-8304-7BEA9022741B}">
@@ -15928,8 +15927,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2142401">
-          <a:off x="2546617" y="4025976"/>
-          <a:ext cx="532228" cy="18435"/>
+          <a:off x="2471490" y="4033121"/>
+          <a:ext cx="516652" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15940,10 +15939,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="532228" y="9217"/>
+                <a:pt x="516652" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15998,8 +15997,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2799426" y="4021888"/>
-        <a:ext cx="26611" cy="26611"/>
+        <a:off x="2716901" y="4028994"/>
+        <a:ext cx="25832" cy="25832"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3A179D8B-21C3-4C7C-8385-1F895D8D67B5}">
@@ -16009,8 +16008,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3028821" y="3920396"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="2939582" y="3930473"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16078,8 +16077,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3044644" y="3936219"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="2954942" y="3945833"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1FF5ED4C-2094-42E5-AB19-186AD771CB63}">
@@ -16089,8 +16088,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4109266" y="4181290"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="3988407" y="4183890"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16101,10 +16100,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16159,8 +16158,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4314550" y="4179703"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="4187684" y="4182191"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DF492ED8-7257-4DCA-A973-CCDD11D8C1D2}">
@@ -16170,8 +16169,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4541444" y="3920396"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="4407938" y="3930473"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16239,8 +16238,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4557267" y="3936219"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="4423298" y="3945833"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{753FD0E6-6DE9-4F27-ABB7-FC4E115661BD}">
@@ -16250,8 +16249,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5621889" y="4181290"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="5456763" y="4183890"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16262,10 +16261,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16320,8 +16319,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5827174" y="4179703"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="5656040" y="4182191"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D5F883CA-AFB8-47B8-BEE1-D528ADCE38BD}">
@@ -16331,8 +16330,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6054067" y="3920396"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="5876293" y="3930473"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16400,8 +16399,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6069890" y="3936219"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="5891653" y="3945833"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A039F8AA-38D7-4297-9FF1-3040161D29DA}">
@@ -16411,8 +16410,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7134512" y="4181290"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="6925118" y="4183890"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16423,10 +16422,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16481,8 +16480,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7339797" y="4179703"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="7124395" y="4182191"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9197BC2C-54DC-41F7-876A-9145A30175AB}">
@@ -16492,8 +16491,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7566690" y="3920396"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="7344649" y="3930473"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16561,8 +16560,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7582513" y="3936219"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="7360009" y="3945833"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B066832F-E973-445E-B1DE-6626F1620126}">
@@ -16572,8 +16571,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8647135" y="4181290"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="8393474" y="4183890"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16584,10 +16583,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16642,8 +16641,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8852420" y="4179703"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="8592751" y="4182191"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{32AC4FD9-DB94-482A-9649-7A08C835D9FB}">
@@ -16653,8 +16652,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9079314" y="3920396"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="8813004" y="3930473"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16722,8 +16721,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9095137" y="3936219"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="8828364" y="3945833"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{153F4508-2F14-4F62-9CDD-49E11997BC9D}">
@@ -16733,8 +16732,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10159759" y="4181290"/>
-          <a:ext cx="432178" cy="18435"/>
+          <a:off x="9861830" y="4183890"/>
+          <a:ext cx="419530" cy="17578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16745,10 +16744,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="9217"/>
+                <a:pt x="0" y="8789"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="432178" y="9217"/>
+                <a:pt x="419530" y="8789"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16803,8 +16802,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10365043" y="4179703"/>
-        <a:ext cx="21608" cy="21608"/>
+        <a:off x="10061106" y="4182191"/>
+        <a:ext cx="20976" cy="20976"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{49E74F65-E45A-4CE2-9932-E3B6F36804D5}">
@@ -16814,8 +16813,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10591937" y="3920396"/>
-          <a:ext cx="1080445" cy="540222"/>
+          <a:off x="10281360" y="3930473"/>
+          <a:ext cx="1048825" cy="524412"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16883,8 +16882,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10607760" y="3936219"/>
-        <a:ext cx="1048799" cy="508576"/>
+        <a:off x="10296720" y="3945833"/>
+        <a:ext cx="1018105" cy="493692"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -24920,9 +24919,9 @@
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.6640625" style="6"/>
+    <col min="1" max="16384" width="9.7109375" style="6"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24941,10 +24940,10 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25025,9 +25024,9 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -25974,9 +25973,9 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -26043,9 +26042,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -26079,7 +26078,7 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:26 16384:16384">
       <c r="A1">
@@ -26272,9 +26271,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26358,9 +26357,9 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26370,7 +26369,7 @@
       <c r="B1" s="4">
         <v>0.7</v>
       </c>
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="151" t="s">
         <v>162</v>
       </c>
     </row>
@@ -26381,7 +26380,7 @@
       <c r="B2" s="4">
         <v>0.6</v>
       </c>
-      <c r="C2" s="147"/>
+      <c r="C2" s="151"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4">
@@ -26390,7 +26389,7 @@
       <c r="B3" s="4">
         <v>0.5</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="151"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
@@ -26399,7 +26398,7 @@
       <c r="B4" s="4">
         <v>0.4</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="151"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
@@ -26408,7 +26407,7 @@
       <c r="B5" s="4">
         <v>0.2</v>
       </c>
-      <c r="C5" s="147"/>
+      <c r="C5" s="151"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
@@ -26417,7 +26416,7 @@
       <c r="B6" s="4">
         <v>0.05</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="151"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4">
@@ -26426,7 +26425,7 @@
       <c r="B9" s="4">
         <v>0.7</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="151" t="s">
         <v>161</v>
       </c>
     </row>
@@ -26437,7 +26436,7 @@
       <c r="B10" s="4">
         <v>0.6</v>
       </c>
-      <c r="C10" s="147"/>
+      <c r="C10" s="151"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4">
@@ -26446,7 +26445,7 @@
       <c r="B11" s="4">
         <v>0.5</v>
       </c>
-      <c r="C11" s="147"/>
+      <c r="C11" s="151"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
@@ -26455,7 +26454,7 @@
       <c r="B12" s="4">
         <v>0.4</v>
       </c>
-      <c r="C12" s="147"/>
+      <c r="C12" s="151"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">
@@ -26464,7 +26463,7 @@
       <c r="B13" s="4">
         <v>0.2</v>
       </c>
-      <c r="C13" s="147"/>
+      <c r="C13" s="151"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">
@@ -26473,7 +26472,7 @@
       <c r="B14" s="4">
         <v>0.05</v>
       </c>
-      <c r="C14" s="147"/>
+      <c r="C14" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -26494,9 +26493,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26646,9 +26645,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26798,9 +26797,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -27228,9 +27227,9 @@
       <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.6640625" style="6"/>
+    <col min="1" max="16384" width="9.7109375" style="6"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27247,9 +27246,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -27362,7 +27361,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4">
@@ -27484,9 +27483,9 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.6640625" style="6"/>
+    <col min="1" max="16384" width="9.7109375" style="6"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27505,9 +27504,9 @@
       <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.6640625" style="6"/>
+    <col min="1" max="16384" width="9.7109375" style="6"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27526,9 +27525,9 @@
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.6640625" style="6"/>
+    <col min="1" max="16384" width="9.7109375" style="6"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27543,19 +27542,19 @@
   </sheetPr>
   <dimension ref="A2:AR251"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.21875" customWidth="1"/>
+    <col min="18" max="18" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
@@ -27569,6 +27568,20 @@
       <c r="C2" t="s">
         <v>85</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>'Scenario Inputs'!F20</f>
+        <v>Fictional Region</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>'Scenario Inputs'!F21</f>
+        <v>Fictional Centre</v>
+      </c>
       <c r="P2" s="98" t="s">
         <v>146</v>
       </c>
@@ -27578,7 +27591,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16">
       <c r="A4" s="25"/>
       <c r="B4">
         <v>1</v>
@@ -27620,7 +27633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15">
+    <row r="5" spans="1:16">
       <c r="A5" s="25" t="s">
         <v>9</v>
       </c>
@@ -27737,7 +27750,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" spans="1:16">
       <c r="A7" s="25" t="s">
         <v>86</v>
       </c>
@@ -27911,22 +27924,22 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="16.8" hidden="1" customHeight="1">
-      <c r="B14" s="146" t="s">
+    <row r="14" spans="1:16" ht="16.899999999999999" hidden="1" customHeight="1">
+      <c r="B14" s="152" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
     </row>
     <row r="15" spans="1:16" hidden="1">
       <c r="B15">
@@ -28083,26 +28096,26 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" hidden="1">
+    <row r="18" spans="1:15" hidden="1">
       <c r="A18" s="25"/>
     </row>
-    <row r="19" spans="1:15" ht="15">
+    <row r="19" spans="1:15">
       <c r="A19" s="25"/>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="152" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
     </row>
     <row r="20" spans="1:15">
       <c r="B20">
@@ -28705,7 +28718,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="19.2">
+    <row r="38" spans="1:28" ht="17.25">
       <c r="A38" s="47" t="s">
         <v>163</v>
       </c>
@@ -28715,7 +28728,7 @@
       </c>
       <c r="C38" s="67"/>
     </row>
-    <row r="39" spans="1:28" ht="19.2">
+    <row r="39" spans="1:28" ht="17.25">
       <c r="A39" s="48" t="s">
         <v>164</v>
       </c>
@@ -28725,7 +28738,7 @@
       </c>
       <c r="C39" s="67"/>
     </row>
-    <row r="40" spans="1:28" ht="19.2">
+    <row r="40" spans="1:28" ht="17.25">
       <c r="A40" s="48" t="s">
         <v>165</v>
       </c>
@@ -28735,7 +28748,7 @@
       </c>
       <c r="C40" s="67"/>
     </row>
-    <row r="41" spans="1:28" ht="19.2">
+    <row r="41" spans="1:28" ht="17.25">
       <c r="A41" s="48" t="s">
         <v>166</v>
       </c>
@@ -28745,12 +28758,12 @@
       </c>
       <c r="C41" s="67"/>
     </row>
-    <row r="42" spans="1:28" ht="19.2">
+    <row r="42" spans="1:28" ht="17.25">
       <c r="A42" s="67"/>
       <c r="B42" s="70"/>
       <c r="C42" s="67"/>
     </row>
-    <row r="43" spans="1:28" ht="19.2" hidden="1">
+    <row r="43" spans="1:28" ht="17.25" hidden="1">
       <c r="A43" s="68" t="s">
         <v>102</v>
       </c>
@@ -28941,38 +28954,38 @@
       </c>
     </row>
     <row r="45" spans="1:28" hidden="1">
-      <c r="C45" s="146" t="s">
+      <c r="C45" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
-      <c r="M45" s="146"/>
-      <c r="N45" s="146"/>
-      <c r="O45" s="146"/>
-      <c r="P45" s="146" t="s">
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="152"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="152"/>
+      <c r="N45" s="152"/>
+      <c r="O45" s="152"/>
+      <c r="P45" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="Q45" s="146"/>
-      <c r="R45" s="146"/>
-      <c r="S45" s="146"/>
-      <c r="T45" s="146"/>
-      <c r="U45" s="146"/>
-      <c r="V45" s="146"/>
-      <c r="W45" s="146"/>
-      <c r="X45" s="146"/>
-      <c r="Y45" s="146"/>
-      <c r="Z45" s="146"/>
-      <c r="AA45" s="146"/>
-      <c r="AB45" s="146"/>
-    </row>
-    <row r="46" spans="1:28" ht="19.2">
+      <c r="Q45" s="152"/>
+      <c r="R45" s="152"/>
+      <c r="S45" s="152"/>
+      <c r="T45" s="152"/>
+      <c r="U45" s="152"/>
+      <c r="V45" s="152"/>
+      <c r="W45" s="152"/>
+      <c r="X45" s="152"/>
+      <c r="Y45" s="152"/>
+      <c r="Z45" s="152"/>
+      <c r="AA45" s="152"/>
+      <c r="AB45" s="152"/>
+    </row>
+    <row r="46" spans="1:28" ht="17.25">
       <c r="A46" s="68" t="s">
         <v>99</v>
       </c>
@@ -30554,77 +30567,77 @@
       <c r="A69" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="147" t="s">
+      <c r="B69" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="147"/>
-      <c r="D69" s="147"/>
-      <c r="E69" s="147"/>
-      <c r="F69" s="146">
+      <c r="C69" s="151"/>
+      <c r="D69" s="151"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="152">
         <v>1</v>
       </c>
-      <c r="G69" s="146"/>
-      <c r="H69" s="146"/>
-      <c r="I69" s="146">
+      <c r="G69" s="152"/>
+      <c r="H69" s="152"/>
+      <c r="I69" s="152">
         <v>2</v>
       </c>
-      <c r="J69" s="146"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="146">
+      <c r="J69" s="152"/>
+      <c r="K69" s="152"/>
+      <c r="L69" s="152">
         <v>3</v>
       </c>
-      <c r="M69" s="146"/>
-      <c r="N69" s="146"/>
-      <c r="O69" s="146">
+      <c r="M69" s="152"/>
+      <c r="N69" s="152"/>
+      <c r="O69" s="152">
         <v>4</v>
       </c>
-      <c r="P69" s="146"/>
-      <c r="Q69" s="146"/>
-      <c r="R69" s="146">
+      <c r="P69" s="152"/>
+      <c r="Q69" s="152"/>
+      <c r="R69" s="152">
         <v>5</v>
       </c>
-      <c r="S69" s="146"/>
-      <c r="T69" s="146"/>
-      <c r="U69" s="146">
+      <c r="S69" s="152"/>
+      <c r="T69" s="152"/>
+      <c r="U69" s="152">
         <v>6</v>
       </c>
-      <c r="V69" s="146"/>
-      <c r="W69" s="146"/>
-      <c r="X69" s="146">
+      <c r="V69" s="152"/>
+      <c r="W69" s="152"/>
+      <c r="X69" s="152">
         <v>7</v>
       </c>
-      <c r="Y69" s="146"/>
-      <c r="Z69" s="146"/>
-      <c r="AA69" s="146">
+      <c r="Y69" s="152"/>
+      <c r="Z69" s="152"/>
+      <c r="AA69" s="152">
         <v>8</v>
       </c>
-      <c r="AB69" s="146"/>
-      <c r="AC69" s="146"/>
-      <c r="AD69" s="146">
+      <c r="AB69" s="152"/>
+      <c r="AC69" s="152"/>
+      <c r="AD69" s="152">
         <v>9</v>
       </c>
-      <c r="AE69" s="146"/>
-      <c r="AF69" s="146"/>
-      <c r="AG69" s="146">
+      <c r="AE69" s="152"/>
+      <c r="AF69" s="152"/>
+      <c r="AG69" s="152">
         <v>10</v>
       </c>
-      <c r="AH69" s="146"/>
-      <c r="AI69" s="146"/>
-      <c r="AJ69" s="146">
+      <c r="AH69" s="152"/>
+      <c r="AI69" s="152"/>
+      <c r="AJ69" s="152">
         <v>11</v>
       </c>
-      <c r="AK69" s="146"/>
-      <c r="AL69" s="146"/>
-      <c r="AM69" s="146">
+      <c r="AK69" s="152"/>
+      <c r="AL69" s="152"/>
+      <c r="AM69" s="152">
         <v>12</v>
       </c>
-      <c r="AN69" s="146"/>
-      <c r="AO69" s="146"/>
-      <c r="AP69" s="146">
+      <c r="AN69" s="152"/>
+      <c r="AO69" s="152"/>
+      <c r="AP69" s="152">
         <v>13</v>
       </c>
-      <c r="AQ69" s="146"/>
-      <c r="AR69" s="146"/>
+      <c r="AQ69" s="152"/>
+      <c r="AR69" s="152"/>
     </row>
     <row r="70" spans="1:44">
       <c r="C70" t="s">
@@ -32349,11 +32362,11 @@
         <v>112</v>
       </c>
       <c r="B104" s="4"/>
-      <c r="C104" s="147" t="s">
+      <c r="C104" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="D104" s="147"/>
-      <c r="E104" s="147"/>
+      <c r="D104" s="151"/>
+      <c r="E104" s="151"/>
       <c r="G104" t="s">
         <v>162</v>
       </c>
@@ -34227,7 +34240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15" thickBot="1">
+    <row r="233" spans="1:7" ht="15.75" thickBot="1">
       <c r="A233" t="s">
         <v>170</v>
       </c>
@@ -34240,7 +34253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15" thickBot="1">
+    <row r="235" spans="1:7" ht="15.75" thickBot="1">
       <c r="A235" s="100" t="s">
         <v>152</v>
       </c>
@@ -34251,7 +34264,7 @@
     <row r="236" spans="1:7" hidden="1">
       <c r="B236" s="87"/>
     </row>
-    <row r="237" spans="1:7" ht="15" thickBot="1">
+    <row r="237" spans="1:7" ht="15.75" thickBot="1">
       <c r="A237" t="s">
         <v>171</v>
       </c>
@@ -34284,7 +34297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15" thickBot="1">
+    <row r="240" spans="1:7" ht="15.75" thickBot="1">
       <c r="A240" s="94" t="s">
         <v>169</v>
       </c>
@@ -34322,7 +34335,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15" thickBot="1">
+    <row r="245" spans="1:3" ht="15.75" thickBot="1">
       <c r="A245" t="s">
         <v>174</v>
       </c>
@@ -34344,7 +34357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15" thickBot="1">
+    <row r="247" spans="1:3" ht="15.75" thickBot="1">
       <c r="A247" s="94" t="s">
         <v>173</v>
       </c>
@@ -34355,7 +34368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15" thickBot="1">
+    <row r="249" spans="1:3" ht="15.75" thickBot="1">
       <c r="A249" t="s">
         <v>175</v>
       </c>
@@ -34377,7 +34390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15" thickBot="1">
+    <row r="251" spans="1:3" ht="15.75" thickBot="1">
       <c r="A251" s="94" t="s">
         <v>173</v>
       </c>
@@ -34390,6 +34403,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AI69"/>
+    <mergeCell ref="AJ69:AL69"/>
+    <mergeCell ref="AM69:AO69"/>
+    <mergeCell ref="AP69:AR69"/>
     <mergeCell ref="C104:E104"/>
     <mergeCell ref="P45:AB45"/>
     <mergeCell ref="B69:E69"/>
@@ -34404,11 +34422,6 @@
     <mergeCell ref="U69:W69"/>
     <mergeCell ref="X69:Z69"/>
     <mergeCell ref="AA69:AC69"/>
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AI69"/>
-    <mergeCell ref="AJ69:AL69"/>
-    <mergeCell ref="AM69:AO69"/>
-    <mergeCell ref="AP69:AR69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -34422,26 +34435,26 @@
   </sheetPr>
   <dimension ref="C14:AJ92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C68" sqref="C68:L68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="10.109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="9" customWidth="1"/>
-    <col min="7" max="12" width="10.109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="9" customWidth="1"/>
-    <col min="17" max="27" width="10.109375" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="9.6640625" style="9"/>
+    <col min="1" max="3" width="10.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="9" customWidth="1"/>
+    <col min="7" max="12" width="10.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="9" customWidth="1"/>
+    <col min="17" max="27" width="10.140625" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="9.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="14" spans="3:24" ht="24.6">
+    <row r="14" spans="3:24" ht="25.5">
       <c r="C14" s="7" t="s">
         <v>0</v>
       </c>
@@ -34467,7 +34480,7 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
     </row>
-    <row r="16" spans="3:24" ht="19.2">
+    <row r="16" spans="3:24" ht="17.25">
       <c r="C16" s="33" t="s">
         <v>1</v>
       </c>
@@ -34495,7 +34508,7 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
     </row>
-    <row r="17" spans="3:24" ht="7.95" customHeight="1">
+    <row r="17" spans="3:24" ht="7.9" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -34519,33 +34532,33 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="3:24" s="12" customFormat="1" ht="58.95" customHeight="1">
-      <c r="C18" s="118" t="s">
+    <row r="18" spans="3:24" s="12" customFormat="1" ht="58.9" customHeight="1">
+      <c r="C18" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="118" t="s">
+      <c r="N18" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
     </row>
     <row r="19" spans="3:24" s="15" customFormat="1" ht="6.6" customHeight="1">
       <c r="C19" s="13"/>
@@ -34571,49 +34584,49 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
     </row>
-    <row r="20" spans="3:24" ht="16.8">
+    <row r="20" spans="3:24" ht="16.5">
       <c r="C20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="136" t="s">
+      <c r="F20" s="118" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
       <c r="M20" s="6"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="137"/>
-      <c r="U20" s="137"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="137"/>
-      <c r="X20" s="137"/>
-    </row>
-    <row r="21" spans="3:24" ht="16.8">
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+    </row>
+    <row r="21" spans="3:24" ht="16.5">
       <c r="C21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
         <v>6</v>
@@ -34621,48 +34634,48 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="138">
+      <c r="R21" s="120">
         <v>2023</v>
       </c>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="140"/>
-    </row>
-    <row r="22" spans="3:24" ht="16.8" hidden="1" customHeight="1">
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="122"/>
+    </row>
+    <row r="22" spans="3:24" ht="16.899999999999999" hidden="1" customHeight="1">
       <c r="C22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="3:24" ht="16.8">
+    <row r="23" spans="3:24" ht="16.5">
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="136" t="s">
+      <c r="F23" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
         <v>11</v>
@@ -34670,17 +34683,17 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="141">
+      <c r="R23" s="123">
         <v>2035</v>
       </c>
-      <c r="S23" s="142"/>
-      <c r="T23" s="142"/>
-      <c r="U23" s="142"/>
-      <c r="V23" s="142"/>
-      <c r="W23" s="142"/>
-      <c r="X23" s="143"/>
-    </row>
-    <row r="24" spans="3:24" ht="16.8">
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="125"/>
+    </row>
+    <row r="24" spans="3:24" ht="16.5">
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="55"/>
@@ -34704,7 +34717,7 @@
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="3:24" ht="16.95" hidden="1" customHeight="1">
+    <row r="25" spans="3:24" ht="16.899999999999999" hidden="1" customHeight="1">
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -34723,17 +34736,17 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="8"/>
-      <c r="T25" s="129" t="s">
+      <c r="T25" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="U25" s="129"/>
-      <c r="V25" s="144" t="s">
+      <c r="U25" s="126"/>
+      <c r="V25" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="W25" s="145"/>
-      <c r="X25" s="145"/>
-    </row>
-    <row r="26" spans="3:24" ht="16.8" hidden="1" customHeight="1">
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+    </row>
+    <row r="26" spans="3:24" ht="16.899999999999999" hidden="1" customHeight="1">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -34752,19 +34765,19 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="T26" s="130">
+      <c r="T26" s="112">
         <f>G48</f>
         <v>0.02</v>
       </c>
-      <c r="U26" s="131"/>
-      <c r="V26" s="132">
+      <c r="U26" s="113"/>
+      <c r="V26" s="114">
         <f>K48</f>
         <v>0</v>
       </c>
-      <c r="W26" s="133"/>
-      <c r="X26" s="134"/>
-    </row>
-    <row r="27" spans="3:24" ht="16.8" hidden="1" customHeight="1">
+      <c r="W26" s="115"/>
+      <c r="X26" s="116"/>
+    </row>
+    <row r="27" spans="3:24" ht="16.899999999999999" hidden="1" customHeight="1">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -34784,19 +34797,19 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="T27" s="130">
+      <c r="T27" s="112">
         <f>G49</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="U27" s="131"/>
-      <c r="V27" s="132">
+      <c r="U27" s="113"/>
+      <c r="V27" s="114">
         <f>K49</f>
         <v>0</v>
       </c>
-      <c r="W27" s="133"/>
-      <c r="X27" s="134"/>
-    </row>
-    <row r="28" spans="3:24" ht="16.8" hidden="1" customHeight="1">
+      <c r="W27" s="115"/>
+      <c r="X27" s="116"/>
+    </row>
+    <row r="28" spans="3:24" ht="16.899999999999999" hidden="1" customHeight="1">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -34816,19 +34829,19 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="T28" s="130" t="e">
+      <c r="T28" s="112" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U28" s="131"/>
-      <c r="V28" s="132" t="e">
+      <c r="U28" s="113"/>
+      <c r="V28" s="114" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="W28" s="133"/>
-      <c r="X28" s="134"/>
-    </row>
-    <row r="29" spans="3:24" ht="16.8" hidden="1" customHeight="1">
+      <c r="W28" s="115"/>
+      <c r="X28" s="116"/>
+    </row>
+    <row r="29" spans="3:24" ht="16.899999999999999" hidden="1" customHeight="1">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -34848,19 +34861,19 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="T29" s="130" t="e">
+      <c r="T29" s="112" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U29" s="131"/>
-      <c r="V29" s="132" t="e">
+      <c r="U29" s="113"/>
+      <c r="V29" s="114" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="W29" s="133"/>
-      <c r="X29" s="134"/>
-    </row>
-    <row r="30" spans="3:24" ht="16.8" hidden="1" customHeight="1">
+      <c r="W29" s="115"/>
+      <c r="X29" s="116"/>
+    </row>
+    <row r="30" spans="3:24" ht="16.899999999999999" hidden="1" customHeight="1">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -34880,19 +34893,19 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="T30" s="130">
+      <c r="T30" s="112">
         <f>G71</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="U30" s="131"/>
-      <c r="V30" s="132">
+      <c r="U30" s="113"/>
+      <c r="V30" s="114">
         <f>K71</f>
         <v>0</v>
       </c>
-      <c r="W30" s="133"/>
-      <c r="X30" s="134"/>
-    </row>
-    <row r="31" spans="3:24" ht="16.8" hidden="1" customHeight="1">
+      <c r="W30" s="115"/>
+      <c r="X30" s="116"/>
+    </row>
+    <row r="31" spans="3:24" ht="16.899999999999999" hidden="1" customHeight="1">
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -34912,19 +34925,19 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="T31" s="122">
+      <c r="T31" s="129">
         <f>G72</f>
         <v>0.3</v>
       </c>
-      <c r="U31" s="123"/>
-      <c r="V31" s="124">
+      <c r="U31" s="130"/>
+      <c r="V31" s="131">
         <f>K72</f>
         <v>0</v>
       </c>
-      <c r="W31" s="125"/>
-      <c r="X31" s="126"/>
-    </row>
-    <row r="32" spans="3:24" ht="16.8">
+      <c r="W31" s="132"/>
+      <c r="X31" s="133"/>
+    </row>
+    <row r="32" spans="3:24" ht="16.5">
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -34947,7 +34960,7 @@
       <c r="W32" s="76"/>
       <c r="X32" s="76"/>
     </row>
-    <row r="33" spans="3:36" ht="24.6">
+    <row r="33" spans="3:36" ht="25.5">
       <c r="C33" s="7" t="s">
         <v>136</v>
       </c>
@@ -34973,7 +34986,7 @@
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
     </row>
-    <row r="34" spans="3:36" ht="16.8">
+    <row r="34" spans="3:36" ht="16.5">
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -34997,18 +35010,18 @@
       <c r="X34" s="76"/>
     </row>
     <row r="35" spans="3:36" ht="39.6" customHeight="1">
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -35021,41 +35034,41 @@
       <c r="W35" s="76"/>
       <c r="X35" s="76"/>
     </row>
-    <row r="36" spans="3:36" ht="16.8">
+    <row r="36" spans="3:36" ht="16.5">
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="110"/>
-      <c r="I36" s="129" t="s">
+      <c r="H36" s="136"/>
+      <c r="I36" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="J36" s="129"/>
-      <c r="K36" s="129"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
-      <c r="N36" s="129"/>
-      <c r="O36" s="129"/>
-      <c r="P36" s="129"/>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="129"/>
-      <c r="S36" s="129"/>
-      <c r="T36" s="129"/>
-      <c r="U36" s="129"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="126"/>
+      <c r="Q36" s="126"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="126"/>
+      <c r="T36" s="126"/>
+      <c r="U36" s="126"/>
       <c r="V36" s="76"/>
       <c r="W36" s="76"/>
       <c r="X36" s="76"/>
     </row>
-    <row r="37" spans="3:36" ht="16.8" customHeight="1">
+    <row r="37" spans="3:36" ht="16.899999999999999" customHeight="1">
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
       <c r="I37" s="78">
         <v>2023</v>
       </c>
@@ -35099,17 +35112,17 @@
       <c r="W37" s="76"/>
       <c r="X37" s="76"/>
     </row>
-    <row r="38" spans="3:36" ht="16.8">
+    <row r="38" spans="3:36" ht="16.5">
       <c r="C38" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="127">
+      <c r="G38" s="134">
         <v>1</v>
       </c>
-      <c r="H38" s="128"/>
+      <c r="H38" s="135"/>
       <c r="I38" s="80"/>
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
@@ -35127,7 +35140,7 @@
       <c r="W38" s="76"/>
       <c r="X38" s="76"/>
     </row>
-    <row r="39" spans="3:36" ht="16.8">
+    <row r="39" spans="3:36" ht="16.5">
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -35150,7 +35163,7 @@
       <c r="W39" s="76"/>
       <c r="X39" s="76"/>
     </row>
-    <row r="40" spans="3:36" ht="24.6">
+    <row r="40" spans="3:36" ht="25.5">
       <c r="C40" s="7" t="s">
         <v>15</v>
       </c>
@@ -35176,7 +35189,7 @@
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
     </row>
-    <row r="41" spans="3:36" ht="16.8">
+    <row r="41" spans="3:36" ht="16.5">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -35200,7 +35213,7 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="3:36" ht="19.2">
+    <row r="42" spans="3:36" ht="17.25">
       <c r="C42" s="32" t="s">
         <v>16</v>
       </c>
@@ -35229,7 +35242,7 @@
       <c r="AI42" s="10"/>
       <c r="AJ42" s="10"/>
     </row>
-    <row r="43" spans="3:36" ht="5.4" customHeight="1">
+    <row r="43" spans="3:36" ht="5.45" customHeight="1">
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -35254,34 +35267,34 @@
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
     </row>
-    <row r="44" spans="3:36" ht="71.400000000000006" customHeight="1">
-      <c r="C44" s="118" t="s">
+    <row r="44" spans="3:36" ht="71.45" customHeight="1">
+      <c r="C44" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
       <c r="M44" s="18"/>
-      <c r="Y44" s="118" t="s">
+      <c r="Y44" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="Z44" s="118"/>
-      <c r="AA44" s="118"/>
-      <c r="AB44" s="118"/>
-      <c r="AC44" s="118"/>
-      <c r="AD44" s="118"/>
-      <c r="AE44" s="118"/>
-      <c r="AF44" s="118"/>
-      <c r="AG44" s="118"/>
-      <c r="AH44" s="118"/>
-      <c r="AI44" s="118"/>
-      <c r="AJ44" s="118"/>
+      <c r="Z44" s="111"/>
+      <c r="AA44" s="111"/>
+      <c r="AB44" s="111"/>
+      <c r="AC44" s="111"/>
+      <c r="AD44" s="111"/>
+      <c r="AE44" s="111"/>
+      <c r="AF44" s="111"/>
+      <c r="AG44" s="111"/>
+      <c r="AH44" s="111"/>
+      <c r="AI44" s="111"/>
+      <c r="AJ44" s="111"/>
     </row>
     <row r="45" spans="3:36" ht="15" customHeight="1">
       <c r="C45" s="60"/>
@@ -35296,30 +35309,30 @@
       <c r="L45" s="60"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="3:36" ht="16.8">
+    <row r="46" spans="3:36" ht="16.5">
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="110" t="s">
+      <c r="G46" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="110"/>
-      <c r="I46" s="109" t="s">
+      <c r="H46" s="136"/>
+      <c r="I46" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="109"/>
-      <c r="T46" s="109"/>
-      <c r="U46" s="109"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="146"/>
+      <c r="N46" s="146"/>
+      <c r="O46" s="146"/>
+      <c r="P46" s="146"/>
+      <c r="Q46" s="146"/>
+      <c r="R46" s="146"/>
+      <c r="S46" s="146"/>
+      <c r="T46" s="146"/>
+      <c r="U46" s="146"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
@@ -35336,13 +35349,13 @@
       <c r="AI46" s="29"/>
       <c r="AJ46" s="29"/>
     </row>
-    <row r="47" spans="3:36" s="29" customFormat="1" ht="16.8">
+    <row r="47" spans="3:36" s="29" customFormat="1" ht="16.5">
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
       <c r="I47">
         <f>R21</f>
         <v>2023</v>
@@ -35411,18 +35424,18 @@
       <c r="AI47" s="9"/>
       <c r="AJ47" s="9"/>
     </row>
-    <row r="48" spans="3:36" ht="16.8">
+    <row r="48" spans="3:36" ht="16.5">
       <c r="C48" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="116">
+      <c r="G48" s="149">
         <f>modAllocation!D1</f>
         <v>0.02</v>
       </c>
-      <c r="H48" s="117"/>
+      <c r="H48" s="150"/>
       <c r="I48" s="84"/>
       <c r="J48" s="84"/>
       <c r="K48" s="84"/>
@@ -35440,18 +35453,18 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
     </row>
-    <row r="49" spans="3:24" ht="16.8">
+    <row r="49" spans="3:24" ht="16.5">
       <c r="C49" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="116">
+      <c r="G49" s="149">
         <f>modAllocation!E1</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="H49" s="117"/>
+      <c r="H49" s="150"/>
       <c r="I49" s="84"/>
       <c r="J49" s="84"/>
       <c r="K49" s="84"/>
@@ -35469,7 +35482,7 @@
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
     </row>
-    <row r="50" spans="3:24" ht="16.8">
+    <row r="50" spans="3:24" ht="16.5">
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -35494,7 +35507,7 @@
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
     </row>
-    <row r="51" spans="3:24" ht="16.8">
+    <row r="51" spans="3:24" ht="16.5">
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -35519,7 +35532,7 @@
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
     </row>
-    <row r="52" spans="3:24" ht="19.2">
+    <row r="52" spans="3:24" ht="17.25">
       <c r="C52" s="32" t="s">
         <v>21</v>
       </c>
@@ -35545,7 +35558,7 @@
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
     </row>
-    <row r="53" spans="3:24" ht="4.2" customHeight="1">
+    <row r="53" spans="3:24" ht="4.1500000000000004" customHeight="1">
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -35570,18 +35583,18 @@
       <c r="X53" s="6"/>
     </row>
     <row r="54" spans="3:24" ht="57.6" customHeight="1">
-      <c r="C54" s="118" t="s">
+      <c r="C54" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="D54" s="118"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
       <c r="O54" s="6"/>
@@ -35595,7 +35608,7 @@
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
     </row>
-    <row r="55" spans="3:24" ht="13.8" customHeight="1">
+    <row r="55" spans="3:24" ht="13.9" customHeight="1">
       <c r="C55" s="62"/>
       <c r="D55" s="62"/>
       <c r="E55" s="62"/>
@@ -35619,43 +35632,43 @@
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
     </row>
-    <row r="56" spans="3:24" ht="13.2" customHeight="1">
+    <row r="56" spans="3:24" ht="13.15" customHeight="1">
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="110" t="s">
+      <c r="G56" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="110"/>
-      <c r="I56" s="109" t="s">
+      <c r="H56" s="136"/>
+      <c r="I56" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="109"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="109"/>
-      <c r="M56" s="109"/>
-      <c r="N56" s="109"/>
-      <c r="O56" s="109"/>
-      <c r="P56" s="109"/>
-      <c r="Q56" s="109"/>
-      <c r="R56" s="109"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="109"/>
-      <c r="U56" s="109"/>
+      <c r="J56" s="146"/>
+      <c r="K56" s="146"/>
+      <c r="L56" s="146"/>
+      <c r="M56" s="146"/>
+      <c r="N56" s="146"/>
+      <c r="O56" s="146"/>
+      <c r="P56" s="146"/>
+      <c r="Q56" s="146"/>
+      <c r="R56" s="146"/>
+      <c r="S56" s="146"/>
+      <c r="T56" s="146"/>
+      <c r="U56" s="146"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
     </row>
-    <row r="57" spans="3:24" ht="16.8">
+    <row r="57" spans="3:24" ht="16.5">
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
       <c r="F57" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G57" s="111"/>
-      <c r="H57" s="111"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
       <c r="I57">
         <f>R21</f>
         <v>2023</v>
@@ -35721,11 +35734,11 @@
       <c r="F58" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="112">
+      <c r="G58" s="140">
         <f>divertToCC!C1</f>
         <v>0.1</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="141"/>
       <c r="I58" s="84"/>
       <c r="J58" s="84"/>
       <c r="K58" s="84"/>
@@ -35743,18 +35756,18 @@
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
     </row>
-    <row r="59" spans="3:24" ht="16.8">
+    <row r="59" spans="3:24" ht="16.5">
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G59" s="112">
+      <c r="G59" s="140">
         <f>divertToCC!C2</f>
         <v>0.1</v>
       </c>
-      <c r="H59" s="113"/>
+      <c r="H59" s="141"/>
       <c r="I59" s="84"/>
       <c r="J59" s="84"/>
       <c r="K59" s="84"/>
@@ -35772,18 +35785,18 @@
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
     </row>
-    <row r="60" spans="3:24" ht="16.8">
+    <row r="60" spans="3:24" ht="16.5">
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="112">
+      <c r="G60" s="140">
         <f>divertToCC!C3</f>
         <v>0.1</v>
       </c>
-      <c r="H60" s="113"/>
+      <c r="H60" s="141"/>
       <c r="I60" s="84"/>
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
@@ -35801,18 +35814,18 @@
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
     </row>
-    <row r="61" spans="3:24" ht="16.8">
+    <row r="61" spans="3:24" ht="16.5">
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="G61" s="112">
+      <c r="G61" s="140">
         <f>divertToCC!C4</f>
         <v>0.1</v>
       </c>
-      <c r="H61" s="113"/>
+      <c r="H61" s="141"/>
       <c r="I61" s="84"/>
       <c r="J61" s="84"/>
       <c r="K61" s="84"/>
@@ -35830,18 +35843,18 @@
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
     </row>
-    <row r="62" spans="3:24" ht="16.8">
+    <row r="62" spans="3:24" ht="16.5">
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G62" s="112">
+      <c r="G62" s="140">
         <f>divertToCC!C5</f>
         <v>0.25</v>
       </c>
-      <c r="H62" s="113"/>
+      <c r="H62" s="141"/>
       <c r="I62" s="84"/>
       <c r="J62" s="84"/>
       <c r="K62" s="84"/>
@@ -35859,18 +35872,18 @@
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
     </row>
-    <row r="63" spans="3:24" ht="16.8">
+    <row r="63" spans="3:24" ht="16.5">
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G63" s="112">
+      <c r="G63" s="140">
         <f>divertToCC!C6</f>
         <v>0.5</v>
       </c>
-      <c r="H63" s="113"/>
+      <c r="H63" s="141"/>
       <c r="I63" s="84"/>
       <c r="J63" s="84"/>
       <c r="K63" s="84"/>
@@ -35888,18 +35901,18 @@
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
     </row>
-    <row r="64" spans="3:24" ht="16.8">
+    <row r="64" spans="3:24" ht="16.5">
       <c r="C64" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="21"/>
-      <c r="G64" s="114">
+      <c r="G64" s="147">
         <f>referral_dist!B2</f>
         <v>0.2</v>
       </c>
-      <c r="H64" s="115"/>
+      <c r="H64" s="148"/>
       <c r="I64" s="84"/>
       <c r="J64" s="84"/>
       <c r="K64" s="84"/>
@@ -35917,7 +35930,7 @@
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
     </row>
-    <row r="65" spans="3:36" ht="16.8">
+    <row r="65" spans="3:36" ht="16.5">
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -35941,7 +35954,7 @@
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
     </row>
-    <row r="66" spans="3:36" s="25" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="66" spans="3:36" s="25" customFormat="1" ht="34.15" customHeight="1">
       <c r="C66" s="32" t="s">
         <v>22</v>
       </c>
@@ -35964,7 +35977,7 @@
       <c r="T66" s="16"/>
       <c r="U66" s="16"/>
     </row>
-    <row r="67" spans="3:36" s="25" customFormat="1" ht="16.8">
+    <row r="67" spans="3:36" s="25" customFormat="1" ht="16.5">
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
@@ -35985,19 +35998,19 @@
       <c r="T67" s="16"/>
       <c r="U67" s="16"/>
     </row>
-    <row r="68" spans="3:36" s="25" customFormat="1" ht="67.2" customHeight="1">
-      <c r="C68" s="191" t="s">
+    <row r="68" spans="3:36" s="25" customFormat="1" ht="67.150000000000006" customHeight="1">
+      <c r="C68" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="D68" s="191"/>
-      <c r="E68" s="191"/>
-      <c r="F68" s="191"/>
-      <c r="G68" s="191"/>
-      <c r="H68" s="191"/>
-      <c r="I68" s="191"/>
-      <c r="J68" s="191"/>
-      <c r="K68" s="191"/>
-      <c r="L68" s="191"/>
+      <c r="D68" s="142"/>
+      <c r="E68" s="142"/>
+      <c r="F68" s="142"/>
+      <c r="G68" s="142"/>
+      <c r="H68" s="142"/>
+      <c r="I68" s="142"/>
+      <c r="J68" s="142"/>
+      <c r="K68" s="142"/>
+      <c r="L68" s="142"/>
       <c r="M68" s="103"/>
       <c r="N68" s="103"/>
       <c r="O68" s="16"/>
@@ -36008,38 +36021,38 @@
       <c r="T68" s="16"/>
       <c r="U68" s="16"/>
     </row>
-    <row r="69" spans="3:36" s="25" customFormat="1" ht="16.8">
+    <row r="69" spans="3:36" s="25" customFormat="1" ht="16.5">
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
       <c r="H69" s="16"/>
-      <c r="I69" s="109" t="s">
+      <c r="I69" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="J69" s="109"/>
-      <c r="K69" s="109"/>
-      <c r="L69" s="109"/>
-      <c r="M69" s="109"/>
-      <c r="N69" s="109"/>
-      <c r="O69" s="109"/>
-      <c r="P69" s="109"/>
-      <c r="Q69" s="109"/>
-      <c r="R69" s="109"/>
-      <c r="S69" s="109"/>
-      <c r="T69" s="109"/>
-      <c r="U69" s="109"/>
-    </row>
-    <row r="70" spans="3:36" s="25" customFormat="1" ht="16.8">
+      <c r="J69" s="146"/>
+      <c r="K69" s="146"/>
+      <c r="L69" s="146"/>
+      <c r="M69" s="146"/>
+      <c r="N69" s="146"/>
+      <c r="O69" s="146"/>
+      <c r="P69" s="146"/>
+      <c r="Q69" s="146"/>
+      <c r="R69" s="146"/>
+      <c r="S69" s="146"/>
+      <c r="T69" s="146"/>
+      <c r="U69" s="146"/>
+    </row>
+    <row r="70" spans="3:36" s="25" customFormat="1" ht="16.5">
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="121" t="s">
+      <c r="G70" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="121"/>
+      <c r="H70" s="144"/>
       <c r="I70">
         <f>R21</f>
         <v>2023</v>
@@ -36093,44 +36106,44 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="71" spans="3:36" s="25" customFormat="1" ht="16.8">
+    <row r="71" spans="3:36" s="25" customFormat="1" ht="16.5">
       <c r="C71" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="D71" s="194"/>
-      <c r="E71" s="194"/>
-      <c r="F71" s="195"/>
-      <c r="G71" s="193">
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="145">
         <f>AVERAGE(receivesTx!B1:B6)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H71" s="193"/>
-      <c r="I71" s="196"/>
-      <c r="J71" s="196"/>
-      <c r="K71" s="196"/>
-      <c r="L71" s="196"/>
-      <c r="M71" s="196"/>
-      <c r="N71" s="196"/>
-      <c r="O71" s="196"/>
-      <c r="P71" s="196"/>
-      <c r="Q71" s="196"/>
-      <c r="R71" s="196"/>
-      <c r="S71" s="196"/>
-      <c r="T71" s="196"/>
-      <c r="U71" s="196"/>
-    </row>
-    <row r="72" spans="3:36" s="25" customFormat="1" ht="16.8">
+      <c r="H71" s="145"/>
+      <c r="I71" s="110"/>
+      <c r="J71" s="110"/>
+      <c r="K71" s="110"/>
+      <c r="L71" s="110"/>
+      <c r="M71" s="110"/>
+      <c r="N71" s="110"/>
+      <c r="O71" s="110"/>
+      <c r="P71" s="110"/>
+      <c r="Q71" s="110"/>
+      <c r="R71" s="110"/>
+      <c r="S71" s="110"/>
+      <c r="T71" s="110"/>
+      <c r="U71" s="110"/>
+    </row>
+    <row r="72" spans="3:36" s="25" customFormat="1" ht="16.5">
       <c r="C72" s="6" t="s">
         <v>186</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="26"/>
-      <c r="G72" s="192">
+      <c r="G72" s="143">
         <f xml:space="preserve"> AVERAGE(preE_Tx_Live!C1:C6)</f>
         <v>0.3</v>
       </c>
-      <c r="H72" s="192"/>
+      <c r="H72" s="143"/>
       <c r="I72" s="104"/>
       <c r="J72" s="104"/>
       <c r="K72" s="104"/>
@@ -36145,18 +36158,18 @@
       <c r="T72" s="104"/>
       <c r="U72" s="104"/>
     </row>
-    <row r="73" spans="3:36" s="25" customFormat="1" ht="16.8">
+    <row r="73" spans="3:36" s="25" customFormat="1" ht="16.5">
       <c r="C73" s="6" t="s">
         <v>187</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
-      <c r="G73" s="193">
+      <c r="G73" s="145">
         <f>AVERAGE(preE_Tx_Cadav!C1:C6)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="H73" s="193"/>
+      <c r="H73" s="145"/>
       <c r="I73" s="104"/>
       <c r="J73" s="104"/>
       <c r="K73" s="104"/>
@@ -36171,7 +36184,7 @@
       <c r="T73" s="104"/>
       <c r="U73" s="104"/>
     </row>
-    <row r="74" spans="3:36" s="25" customFormat="1" ht="16.95" customHeight="1">
+    <row r="74" spans="3:36" s="25" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -36209,7 +36222,7 @@
       <c r="AI74" s="9"/>
       <c r="AJ74" s="9"/>
     </row>
-    <row r="75" spans="3:36" ht="19.2">
+    <row r="75" spans="3:36" ht="17.25">
       <c r="C75" s="32" t="s">
         <v>24</v>
       </c>
@@ -36235,7 +36248,7 @@
       <c r="R75" s="8"/>
       <c r="U75" s="58"/>
     </row>
-    <row r="76" spans="3:36" ht="16.8">
+    <row r="76" spans="3:36" ht="16.5">
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -36249,27 +36262,27 @@
       <c r="U76" s="58"/>
     </row>
     <row r="77" spans="3:36" ht="15.6" customHeight="1">
-      <c r="C77" s="119" t="s">
+      <c r="C77" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="D77" s="119"/>
-      <c r="E77" s="119"/>
-      <c r="F77" s="119"/>
-      <c r="G77" s="119"/>
-      <c r="H77" s="119"/>
-      <c r="I77" s="119"/>
-      <c r="J77" s="119"/>
-      <c r="K77" s="119"/>
-      <c r="L77" s="119"/>
-      <c r="M77" s="119"/>
-      <c r="N77" s="119"/>
-      <c r="O77" s="119"/>
-      <c r="P77" s="119"/>
-      <c r="Q77" s="119"/>
-      <c r="R77" s="119"/>
+      <c r="D77" s="138"/>
+      <c r="E77" s="138"/>
+      <c r="F77" s="138"/>
+      <c r="G77" s="138"/>
+      <c r="H77" s="138"/>
+      <c r="I77" s="138"/>
+      <c r="J77" s="138"/>
+      <c r="K77" s="138"/>
+      <c r="L77" s="138"/>
+      <c r="M77" s="138"/>
+      <c r="N77" s="138"/>
+      <c r="O77" s="138"/>
+      <c r="P77" s="138"/>
+      <c r="Q77" s="138"/>
+      <c r="R77" s="138"/>
       <c r="U77" s="58"/>
     </row>
-    <row r="78" spans="3:36" ht="16.8">
+    <row r="78" spans="3:36" ht="16.5">
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
@@ -36289,7 +36302,7 @@
       <c r="S78" s="25"/>
       <c r="U78" s="58"/>
     </row>
-    <row r="79" spans="3:36" ht="16.8">
+    <row r="79" spans="3:36" ht="16.5">
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -36336,7 +36349,7 @@
       <c r="T79"/>
       <c r="U79" s="58"/>
     </row>
-    <row r="80" spans="3:36" ht="16.8">
+    <row r="80" spans="3:36" ht="16.5">
       <c r="C80" s="19" t="s">
         <v>26</v>
       </c>
@@ -36398,7 +36411,7 @@
       <c r="T80"/>
       <c r="U80" s="58"/>
     </row>
-    <row r="81" spans="3:21" ht="16.8">
+    <row r="81" spans="3:21" ht="16.5">
       <c r="C81" s="16" t="s">
         <v>74</v>
       </c>
@@ -36421,7 +36434,7 @@
       <c r="T81"/>
       <c r="U81" s="58"/>
     </row>
-    <row r="82" spans="3:21" ht="16.8">
+    <row r="82" spans="3:21" ht="16.5">
       <c r="C82" s="16" t="s">
         <v>27</v>
       </c>
@@ -36483,14 +36496,14 @@
       <c r="T82"/>
       <c r="U82" s="58"/>
     </row>
-    <row r="83" spans="3:21" ht="16.8">
+    <row r="83" spans="3:21" ht="16.5">
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
-      <c r="G83" s="120"/>
-      <c r="H83" s="120"/>
-      <c r="I83" s="120"/>
+      <c r="G83" s="139"/>
+      <c r="H83" s="139"/>
+      <c r="I83" s="139"/>
       <c r="J83" s="72" t="s">
         <v>19</v>
       </c>
@@ -36509,7 +36522,7 @@
       <c r="T83"/>
       <c r="U83" s="58"/>
     </row>
-    <row r="84" spans="3:21">
+    <row r="84" spans="3:21" ht="15">
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
@@ -36530,7 +36543,7 @@
       <c r="T84"/>
       <c r="U84" s="58"/>
     </row>
-    <row r="85" spans="3:21">
+    <row r="85" spans="3:21" ht="15">
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
@@ -36551,7 +36564,7 @@
       <c r="T85"/>
       <c r="U85" s="58"/>
     </row>
-    <row r="86" spans="3:21">
+    <row r="86" spans="3:21" ht="15">
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
@@ -36571,7 +36584,7 @@
       <c r="S86"/>
       <c r="T86"/>
     </row>
-    <row r="87" spans="3:21">
+    <row r="87" spans="3:21" ht="15">
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
@@ -36591,7 +36604,7 @@
       <c r="S87"/>
       <c r="T87"/>
     </row>
-    <row r="88" spans="3:21">
+    <row r="88" spans="3:21" ht="15">
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
@@ -36611,7 +36624,7 @@
       <c r="S88"/>
       <c r="T88"/>
     </row>
-    <row r="89" spans="3:21">
+    <row r="89" spans="3:21" ht="15">
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
@@ -36631,7 +36644,7 @@
       <c r="S89"/>
       <c r="T89"/>
     </row>
-    <row r="90" spans="3:21">
+    <row r="90" spans="3:21" ht="15">
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
@@ -36651,7 +36664,7 @@
       <c r="S90"/>
       <c r="T90"/>
     </row>
-    <row r="91" spans="3:21">
+    <row r="91" spans="3:21" ht="15">
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
@@ -36671,7 +36684,7 @@
       <c r="S91"/>
       <c r="T91"/>
     </row>
-    <row r="92" spans="3:21">
+    <row r="92" spans="3:21" ht="15">
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
@@ -36692,6 +36705,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="I46:U46"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="I56:U56"/>
+    <mergeCell ref="C77:R77"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C68:L68"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I69:U69"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="I36:U36"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:X30"/>
     <mergeCell ref="Y44:AJ44"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="V26:X26"/>
@@ -36708,41 +36756,6 @@
     <mergeCell ref="V25:X25"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="V27:X27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="I36:U36"/>
-    <mergeCell ref="C77:R77"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C68:L68"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I69:U69"/>
-    <mergeCell ref="I46:U46"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="I56:U56"/>
   </mergeCells>
   <conditionalFormatting sqref="A71:B79 C75:S80 C81:E81 R81:S81 C82:S83">
     <cfRule type="expression" dxfId="7" priority="1">
@@ -36819,35 +36832,35 @@
       <selection activeCell="G18" sqref="G18:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="9" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="9" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="9" customWidth="1"/>
     <col min="15" max="15" width="12" style="9" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" style="9" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="9" customWidth="1"/>
-    <col min="22" max="23" width="12.33203125" style="9" customWidth="1"/>
-    <col min="24" max="25" width="10.109375" style="9" customWidth="1"/>
-    <col min="26" max="27" width="10.109375" style="9" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.6640625" style="9"/>
+    <col min="16" max="16" width="13.140625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="9" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="9" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="9" customWidth="1"/>
+    <col min="22" max="23" width="12.28515625" style="9" customWidth="1"/>
+    <col min="24" max="25" width="10.140625" style="9" customWidth="1"/>
+    <col min="26" max="27" width="10.140625" style="9" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="12" spans="3:24" ht="24.6">
+    <row r="12" spans="3:24" ht="25.5">
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
@@ -36873,7 +36886,7 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
     </row>
-    <row r="14" spans="3:24" ht="19.2">
+    <row r="14" spans="3:24" ht="17.25">
       <c r="C14" s="32" t="s">
         <v>29</v>
       </c>
@@ -36900,7 +36913,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="3:24" ht="8.4" customHeight="1">
+    <row r="15" spans="3:24" ht="8.4499999999999993" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -36914,49 +36927,49 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="3:24" ht="36.6" customHeight="1">
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
       <c r="M16" s="6"/>
-      <c r="O16" s="119" t="s">
+      <c r="O16" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="119"/>
-    </row>
-    <row r="17" spans="3:27" s="29" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="P16" s="138"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="138"/>
+    </row>
+    <row r="17" spans="3:27" s="29" customFormat="1" ht="34.9" customHeight="1">
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="111" t="s">
+      <c r="G17" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="111"/>
-      <c r="I17" s="110" t="s">
+      <c r="H17" s="137"/>
+      <c r="I17" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110" t="s">
+      <c r="J17" s="136"/>
+      <c r="K17" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="110"/>
+      <c r="L17" s="136"/>
       <c r="M17" s="28"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -36964,57 +36977,57 @@
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
-      <c r="U17" s="180" t="s">
+      <c r="U17" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="V17" s="180"/>
-      <c r="W17" s="179" t="s">
+      <c r="V17" s="163"/>
+      <c r="W17" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="X17" s="179"/>
+      <c r="X17" s="162"/>
       <c r="Z17" s="41" t="s">
         <v>34</v>
       </c>
       <c r="AA17" s="41"/>
     </row>
-    <row r="18" spans="3:27" ht="19.2">
+    <row r="18" spans="3:27" ht="17.25">
       <c r="C18" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="148">
+      <c r="G18" s="189">
         <v>62842.05</v>
       </c>
-      <c r="H18" s="149"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="155">
+      <c r="H18" s="190"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="188">
         <f>IF(I18="", G18, I18)</f>
         <v>62842.05</v>
       </c>
-      <c r="L18" s="155"/>
+      <c r="L18" s="188"/>
       <c r="M18" s="6"/>
-      <c r="O18" s="181" t="s">
+      <c r="O18" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="182"/>
+      <c r="P18" s="167"/>
       <c r="Q18" s="47" t="s">
         <v>35</v>
       </c>
       <c r="R18" s="48"/>
       <c r="S18" s="48"/>
       <c r="T18" s="48"/>
-      <c r="U18" s="161">
+      <c r="U18" s="164">
         <v>62842.05</v>
       </c>
-      <c r="V18" s="162"/>
-      <c r="W18" s="159">
+      <c r="V18" s="165"/>
+      <c r="W18" s="154">
         <f>K18</f>
         <v>62842.05</v>
       </c>
-      <c r="X18" s="159"/>
+      <c r="X18" s="154"/>
       <c r="Z18" s="42">
         <f>U18</f>
         <v>62842.05</v>
@@ -37024,42 +37037,42 @@
         <v>62842.05</v>
       </c>
     </row>
-    <row r="19" spans="3:27" ht="19.2">
+    <row r="19" spans="3:27" ht="17.25">
       <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="148">
+      <c r="G19" s="189">
         <v>51121.9</v>
       </c>
-      <c r="H19" s="149"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="155">
+      <c r="H19" s="190"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="188">
         <f>IF(I19="", G19, I19)</f>
         <v>51121.9</v>
       </c>
-      <c r="L19" s="155"/>
+      <c r="L19" s="188"/>
       <c r="M19" s="6"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="184"/>
+      <c r="O19" s="168"/>
+      <c r="P19" s="169"/>
       <c r="Q19" s="48" t="s">
         <v>37</v>
       </c>
       <c r="R19" s="48"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
-      <c r="U19" s="161">
+      <c r="U19" s="164">
         <v>51121.9</v>
       </c>
-      <c r="V19" s="162"/>
-      <c r="W19" s="159">
+      <c r="V19" s="165"/>
+      <c r="W19" s="154">
         <f>K19</f>
         <v>51121.9</v>
       </c>
-      <c r="X19" s="159"/>
+      <c r="X19" s="154"/>
       <c r="Z19" s="42">
         <f t="shared" ref="Z19:Z27" si="0">U19</f>
         <v>51121.9</v>
@@ -37069,42 +37082,42 @@
         <v>51121.9</v>
       </c>
     </row>
-    <row r="20" spans="3:27" ht="19.2">
+    <row r="20" spans="3:27" ht="17.25">
       <c r="C20" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="148">
+      <c r="G20" s="189">
         <v>39390.800000000003</v>
       </c>
-      <c r="H20" s="149"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="155">
+      <c r="H20" s="190"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="188">
         <f>IF(I20="", G20, I20)</f>
         <v>39390.800000000003</v>
       </c>
-      <c r="L20" s="155"/>
+      <c r="L20" s="188"/>
       <c r="M20" s="6"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="184"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="169"/>
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
       <c r="R20" s="48"/>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
-      <c r="U20" s="161">
+      <c r="U20" s="164">
         <v>39390.800000000003</v>
       </c>
-      <c r="V20" s="162"/>
-      <c r="W20" s="159">
+      <c r="V20" s="165"/>
+      <c r="W20" s="154">
         <f>K20</f>
         <v>39390.800000000003</v>
       </c>
-      <c r="X20" s="159"/>
+      <c r="X20" s="154"/>
       <c r="Z20" s="42">
         <f t="shared" si="0"/>
         <v>39390.800000000003</v>
@@ -37114,42 +37127,42 @@
         <v>39390.800000000003</v>
       </c>
     </row>
-    <row r="21" spans="3:27" ht="19.2">
+    <row r="21" spans="3:27" ht="17.25">
       <c r="C21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="148">
+      <c r="G21" s="189">
         <v>9004.5500000000011</v>
       </c>
-      <c r="H21" s="149"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="155">
+      <c r="H21" s="190"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="188">
         <f>IF(I21="", G21, I21)</f>
         <v>9004.5500000000011</v>
       </c>
-      <c r="L21" s="155"/>
+      <c r="L21" s="188"/>
       <c r="M21" s="6"/>
-      <c r="O21" s="185"/>
-      <c r="P21" s="186"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="171"/>
       <c r="Q21" s="48" t="s">
         <v>39</v>
       </c>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
       <c r="T21" s="48"/>
-      <c r="U21" s="161">
+      <c r="U21" s="164">
         <v>9004.5500000000011</v>
       </c>
-      <c r="V21" s="162"/>
-      <c r="W21" s="159">
+      <c r="V21" s="165"/>
+      <c r="W21" s="154">
         <f>K21</f>
         <v>9004.5500000000011</v>
       </c>
-      <c r="X21" s="159"/>
+      <c r="X21" s="154"/>
       <c r="Z21" s="42">
         <f t="shared" si="0"/>
         <v>9004.5500000000011</v>
@@ -37159,14 +37172,14 @@
         <v>9004.5500000000011</v>
       </c>
     </row>
-    <row r="22" spans="3:27" ht="19.2">
+    <row r="22" spans="3:27" ht="17.25">
       <c r="J22" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="167" t="s">
+      <c r="O22" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="P22" s="168"/>
+      <c r="P22" s="181"/>
       <c r="Q22" s="43" t="str">
         <f>E36</f>
         <v>Intervention 1: KRT intervention</v>
@@ -37174,15 +37187,15 @@
       <c r="R22" s="43"/>
       <c r="S22" s="43"/>
       <c r="T22" s="44"/>
-      <c r="U22" s="165">
+      <c r="U22" s="178">
         <v>0</v>
       </c>
-      <c r="V22" s="166"/>
-      <c r="W22" s="159">
+      <c r="V22" s="179"/>
+      <c r="W22" s="154">
         <f t="shared" ref="W22:W27" si="2">V36</f>
         <v>0</v>
       </c>
-      <c r="X22" s="160"/>
+      <c r="X22" s="155"/>
       <c r="Z22" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37192,10 +37205,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:27" ht="19.2">
+    <row r="23" spans="3:27" ht="17.25">
       <c r="J23" s="30"/>
-      <c r="O23" s="169"/>
-      <c r="P23" s="170"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="183"/>
       <c r="Q23" s="45" t="str">
         <f>E37</f>
         <v>Intervention 2: KRT intervention</v>
@@ -37203,15 +37216,15 @@
       <c r="R23" s="45"/>
       <c r="S23" s="45"/>
       <c r="T23" s="46"/>
-      <c r="U23" s="165">
+      <c r="U23" s="178">
         <v>0</v>
       </c>
-      <c r="V23" s="166"/>
-      <c r="W23" s="159">
+      <c r="V23" s="179"/>
+      <c r="W23" s="154">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X23" s="160"/>
+      <c r="X23" s="155"/>
       <c r="Z23" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37221,10 +37234,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:27" ht="19.2">
+    <row r="24" spans="3:27" ht="17.25">
       <c r="J24" s="30"/>
-      <c r="O24" s="169"/>
-      <c r="P24" s="170"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="183"/>
       <c r="Q24" s="45" t="str">
         <f>E38</f>
         <v>Intervention 3: KRT intervention</v>
@@ -37232,15 +37245,15 @@
       <c r="R24" s="45"/>
       <c r="S24" s="45"/>
       <c r="T24" s="46"/>
-      <c r="U24" s="165">
+      <c r="U24" s="178">
         <v>0</v>
       </c>
-      <c r="V24" s="166"/>
-      <c r="W24" s="159">
+      <c r="V24" s="179"/>
+      <c r="W24" s="154">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X24" s="160"/>
+      <c r="X24" s="155"/>
       <c r="Z24" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37250,10 +37263,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:27" ht="19.2">
+    <row r="25" spans="3:27" ht="17.25">
       <c r="J25" s="30"/>
-      <c r="O25" s="169"/>
-      <c r="P25" s="170"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="183"/>
       <c r="Q25" s="45" t="str">
         <f>E39</f>
         <v>Intervention 4</v>
@@ -37261,15 +37274,15 @@
       <c r="R25" s="45"/>
       <c r="S25" s="45"/>
       <c r="T25" s="46"/>
-      <c r="U25" s="165">
+      <c r="U25" s="178">
         <v>0</v>
       </c>
-      <c r="V25" s="166"/>
-      <c r="W25" s="159">
+      <c r="V25" s="179"/>
+      <c r="W25" s="154">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X25" s="160"/>
+      <c r="X25" s="155"/>
       <c r="Z25" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37279,10 +37292,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:27" ht="19.2">
+    <row r="26" spans="3:27" ht="17.25">
       <c r="J26" s="30"/>
-      <c r="O26" s="169"/>
-      <c r="P26" s="170"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="183"/>
       <c r="Q26" s="45" t="str">
         <f>E40</f>
         <v>Intervention 5</v>
@@ -37290,15 +37303,15 @@
       <c r="R26" s="45"/>
       <c r="S26" s="45"/>
       <c r="T26" s="46"/>
-      <c r="U26" s="165">
+      <c r="U26" s="178">
         <v>0</v>
       </c>
-      <c r="V26" s="166"/>
-      <c r="W26" s="159">
+      <c r="V26" s="179"/>
+      <c r="W26" s="154">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X26" s="160"/>
+      <c r="X26" s="155"/>
       <c r="Z26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37308,24 +37321,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:27" ht="19.2">
-      <c r="O27" s="171"/>
-      <c r="P27" s="172"/>
+    <row r="27" spans="3:27" ht="17.25">
+      <c r="O27" s="184"/>
+      <c r="P27" s="185"/>
       <c r="Q27" s="49" t="s">
         <v>42</v>
       </c>
       <c r="R27" s="50"/>
       <c r="S27" s="50"/>
       <c r="T27" s="51"/>
-      <c r="U27" s="165">
+      <c r="U27" s="178">
         <v>0</v>
       </c>
-      <c r="V27" s="166"/>
-      <c r="W27" s="189">
+      <c r="V27" s="179"/>
+      <c r="W27" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X27" s="190"/>
+      <c r="X27" s="157"/>
       <c r="Z27" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37335,7 +37348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:27" ht="19.2">
+    <row r="29" spans="3:27" ht="17.25">
       <c r="C29" s="32" t="s">
         <v>43</v>
       </c>
@@ -37361,7 +37374,7 @@
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
     </row>
-    <row r="30" spans="3:27" ht="10.95" customHeight="1">
+    <row r="30" spans="3:27" ht="10.9" customHeight="1">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -37374,31 +37387,31 @@
       <c r="L30" s="6"/>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="3:27" ht="179.4" customHeight="1">
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="158"/>
-      <c r="U31" s="158"/>
-      <c r="V31" s="158"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="158"/>
-    </row>
-    <row r="32" spans="3:27" ht="16.8">
+    <row r="31" spans="3:27" ht="179.45" customHeight="1">
+      <c r="C31" s="195"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="195"/>
+      <c r="K31" s="195"/>
+      <c r="L31" s="195"/>
+      <c r="M31" s="195"/>
+      <c r="N31" s="195"/>
+      <c r="O31" s="195"/>
+      <c r="P31" s="195"/>
+      <c r="Q31" s="195"/>
+      <c r="R31" s="195"/>
+      <c r="S31" s="195"/>
+      <c r="T31" s="195"/>
+      <c r="U31" s="195"/>
+      <c r="V31" s="195"/>
+      <c r="W31" s="195"/>
+      <c r="X31" s="195"/>
+    </row>
+    <row r="32" spans="3:27" ht="16.5">
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
@@ -37414,13 +37427,13 @@
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
     </row>
-    <row r="33" spans="3:23" ht="34.950000000000003" customHeight="1">
-      <c r="E33" s="187" t="s">
+    <row r="33" spans="3:23" ht="34.9" customHeight="1">
+      <c r="E33" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
       <c r="I33" s="34">
         <v>2023</v>
       </c>
@@ -37460,18 +37473,18 @@
       <c r="U33" s="34">
         <v>2035</v>
       </c>
-      <c r="V33" s="188" t="s">
+      <c r="V33" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="W33" s="188"/>
+      <c r="W33" s="173"/>
     </row>
     <row r="34" spans="3:23">
-      <c r="E34" s="178" t="s">
+      <c r="E34" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
       <c r="I34" s="53"/>
       <c r="J34" s="53"/>
       <c r="K34" s="53"/>
@@ -37491,21 +37504,21 @@
       <c r="S34" s="53"/>
       <c r="T34" s="53"/>
       <c r="U34" s="53"/>
-      <c r="V34" s="173">
+      <c r="V34" s="153">
         <f t="shared" ref="V34:V41" si="3">SUM(I34:U34)</f>
         <v>20000</v>
       </c>
-      <c r="W34" s="173"/>
-    </row>
-    <row r="35" spans="3:23" s="29" customFormat="1" ht="16.2" customHeight="1">
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="178" t="s">
+      <c r="W34" s="153"/>
+    </row>
+    <row r="35" spans="3:23" s="29" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
       <c r="I35" s="53"/>
       <c r="J35" s="53"/>
       <c r="K35" s="53"/>
@@ -37537,23 +37550,23 @@
       <c r="U35" s="53">
         <v>500</v>
       </c>
-      <c r="V35" s="173">
+      <c r="V35" s="153">
         <f t="shared" si="3"/>
         <v>64000</v>
       </c>
-      <c r="W35" s="173"/>
-    </row>
-    <row r="36" spans="3:23">
-      <c r="C36" s="177" t="s">
+      <c r="W35" s="153"/>
+    </row>
+    <row r="36" spans="3:23" ht="15">
+      <c r="C36" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="177"/>
-      <c r="E36" s="152" t="s">
+      <c r="D36" s="174"/>
+      <c r="E36" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="154"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="161"/>
       <c r="I36" s="59"/>
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
@@ -37567,23 +37580,23 @@
       <c r="S36" s="52"/>
       <c r="T36" s="52"/>
       <c r="U36" s="52"/>
-      <c r="V36" s="174">
+      <c r="V36" s="186">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W36" s="175"/>
+      <c r="W36" s="187"/>
     </row>
     <row r="37" spans="3:23">
-      <c r="C37" s="176" t="s">
+      <c r="C37" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="176"/>
-      <c r="E37" s="152" t="s">
+      <c r="D37" s="175"/>
+      <c r="E37" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="154"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="161"/>
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
       <c r="K37" s="52"/>
@@ -37597,23 +37610,23 @@
       <c r="S37" s="52"/>
       <c r="T37" s="52"/>
       <c r="U37" s="52"/>
-      <c r="V37" s="173">
+      <c r="V37" s="153">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W37" s="173"/>
+      <c r="W37" s="153"/>
     </row>
     <row r="38" spans="3:23">
-      <c r="C38" s="176" t="s">
+      <c r="C38" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="176"/>
-      <c r="E38" s="152" t="s">
+      <c r="D38" s="175"/>
+      <c r="E38" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="154"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="161"/>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
       <c r="K38" s="52"/>
@@ -37627,23 +37640,23 @@
       <c r="S38" s="52"/>
       <c r="T38" s="52"/>
       <c r="U38" s="52"/>
-      <c r="V38" s="173">
+      <c r="V38" s="153">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W38" s="173"/>
+      <c r="W38" s="153"/>
     </row>
     <row r="39" spans="3:23" ht="15" hidden="1" customHeight="1">
-      <c r="C39" s="176" t="s">
+      <c r="C39" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="176"/>
-      <c r="E39" s="152" t="s">
+      <c r="D39" s="175"/>
+      <c r="E39" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="154"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="161"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
@@ -37657,23 +37670,23 @@
       <c r="S39" s="52"/>
       <c r="T39" s="52"/>
       <c r="U39" s="52"/>
-      <c r="V39" s="173">
+      <c r="V39" s="153">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W39" s="173"/>
+      <c r="W39" s="153"/>
     </row>
     <row r="40" spans="3:23" ht="15" hidden="1" customHeight="1">
-      <c r="C40" s="176" t="s">
+      <c r="C40" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="176"/>
-      <c r="E40" s="152" t="s">
+      <c r="D40" s="175"/>
+      <c r="E40" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="154"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="161"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52"/>
       <c r="K40" s="52"/>
@@ -37687,23 +37700,23 @@
       <c r="S40" s="52"/>
       <c r="T40" s="52"/>
       <c r="U40" s="52"/>
-      <c r="V40" s="173">
+      <c r="V40" s="153">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W40" s="173"/>
+      <c r="W40" s="153"/>
     </row>
     <row r="41" spans="3:23">
-      <c r="C41" s="163" t="s">
+      <c r="C41" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="163"/>
-      <c r="E41" s="164" t="s">
+      <c r="D41" s="176"/>
+      <c r="E41" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
       <c r="I41" s="36">
         <f>SUM(I36:I38)</f>
         <v>0</v>
@@ -37756,16 +37769,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V41" s="173">
+      <c r="V41" s="153">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W41" s="173"/>
-    </row>
-    <row r="44" spans="3:23" ht="16.8">
+      <c r="W41" s="153"/>
+    </row>
+    <row r="44" spans="3:23" ht="16.5">
       <c r="E44" s="40"/>
     </row>
-    <row r="45" spans="3:23">
+    <row r="45" spans="3:23" ht="15">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -37777,7 +37790,7 @@
       <c r="K45"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="3:23">
+    <row r="46" spans="3:23" ht="15">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -37789,7 +37802,7 @@
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="3:23">
+    <row r="47" spans="3:23" ht="15">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -37801,7 +37814,7 @@
       <c r="K47"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="3:23">
+    <row r="48" spans="3:23" ht="15">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -37813,7 +37826,7 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" ht="15">
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -37825,7 +37838,7 @@
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" ht="15">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -37837,7 +37850,7 @@
       <c r="K50"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" ht="15">
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
@@ -37849,7 +37862,7 @@
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" ht="15">
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -37861,7 +37874,7 @@
       <c r="K52"/>
       <c r="L52"/>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" ht="15">
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -37873,7 +37886,7 @@
       <c r="K53"/>
       <c r="L53"/>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" ht="15">
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -37885,7 +37898,7 @@
       <c r="K54"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" ht="15">
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
@@ -37897,14 +37910,14 @@
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" ht="15">
       <c r="A97" s="4"/>
       <c r="B97" s="5">
         <f>TxType!B1</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" ht="15">
       <c r="A98" s="4">
         <v>1</v>
       </c>
@@ -37913,7 +37926,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" ht="15">
       <c r="A99" s="4">
         <v>2</v>
       </c>
@@ -37922,7 +37935,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" ht="15">
       <c r="A100" s="4">
         <v>3</v>
       </c>
@@ -37931,7 +37944,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" ht="15">
       <c r="A101" s="4">
         <v>4</v>
       </c>
@@ -37940,7 +37953,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" ht="15">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -37951,12 +37964,51 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C31:X31"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="O22:P27"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E37:H37"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="W20:X20"/>
@@ -37973,51 +38025,12 @@
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="V33:W33"/>
     <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="O22:P27"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C31:X31"/>
-    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="J22:M26">
@@ -38041,9 +38054,9 @@
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.6640625" style="6"/>
+    <col min="1" max="16384" width="9.7109375" style="6"/>
   </cols>
   <sheetData>
     <row r="14" spans="25:25">
@@ -38056,15 +38069,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F00E7D3C5223B647BCF0704F4FD63FF8" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fa9e41d02e9b02fc955bd1400030d11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3b4031e-841f-46f6-bede-a60d28c4ce79" xmlns:ns3="25f82bdf-59aa-449e-b461-28a7236b0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce80f9b71fe371980485e1a61dbeb78d" ns2:_="" ns3:_="">
     <xsd:import namespace="c3b4031e-841f-46f6-bede-a60d28c4ce79"/>
@@ -38345,6 +38349,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -38365,14 +38378,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB1A394-CDD1-412D-97FA-5861127EE7E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A79971-7DA6-46C3-A409-B57248166160}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38391,6 +38396,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB1A394-CDD1-412D-97FA-5861127EE7E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92445AFB-1516-4879-B465-5E6529C74BBB}">
   <ds:schemaRefs>
